--- a/Содержание имущества 2020-2021  (3).xlsx
+++ b/Содержание имущества 2020-2021  (3).xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\комн.10306\Андреева ЕВ\Содержание имущества\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\analytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CAA4070-02A2-4BE8-ABBA-92CEF5AC2B47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="6765" activeTab="3"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cвод 2020" sheetId="1" r:id="rId1"/>
@@ -31,22 +32,28 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Общежития!$A$1:$D$44</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Учебные корпуса'!$A$1:$AY$94</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Юдкин Д.В.</author>
   </authors>
   <commentList>
-    <comment ref="B51" authorId="0" shapeId="0">
+    <comment ref="B51" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -72,7 +79,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B57" authorId="0" shapeId="0">
+    <comment ref="B57" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -98,7 +105,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B58" authorId="0" shapeId="0">
+    <comment ref="B58" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -124,7 +131,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B59" authorId="0" shapeId="0">
+    <comment ref="B59" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -150,7 +157,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B65" authorId="0" shapeId="0">
+    <comment ref="B65" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -176,7 +183,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B66" authorId="0" shapeId="0">
+    <comment ref="B66" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -202,7 +209,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B67" authorId="0" shapeId="0">
+    <comment ref="B67" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -228,7 +235,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B69" authorId="0" shapeId="0">
+    <comment ref="B69" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -254,7 +261,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B80" authorId="0" shapeId="0">
+    <comment ref="B80" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -280,7 +287,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B93" authorId="0" shapeId="0">
+    <comment ref="B93" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -306,7 +313,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D103" authorId="0" shapeId="0">
+    <comment ref="D103" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -320,7 +327,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D104" authorId="0" shapeId="0">
+    <comment ref="D104" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -339,12 +346,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Юдкин Д.В.</author>
   </authors>
   <commentList>
-    <comment ref="B51" authorId="0" shapeId="0">
+    <comment ref="B51" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -370,7 +377,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B57" authorId="0" shapeId="0">
+    <comment ref="B57" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -396,7 +403,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B58" authorId="0" shapeId="0">
+    <comment ref="B58" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -422,7 +429,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B59" authorId="0" shapeId="0">
+    <comment ref="B59" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -448,7 +455,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B65" authorId="0" shapeId="0">
+    <comment ref="B65" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
       <text>
         <r>
           <rPr>
@@ -474,7 +481,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B66" authorId="0" shapeId="0">
+    <comment ref="B66" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
       <text>
         <r>
           <rPr>
@@ -500,7 +507,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B67" authorId="0" shapeId="0">
+    <comment ref="B67" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
       <text>
         <r>
           <rPr>
@@ -526,7 +533,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B69" authorId="0" shapeId="0">
+    <comment ref="B69" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
       <text>
         <r>
           <rPr>
@@ -552,7 +559,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B80" authorId="0" shapeId="0">
+    <comment ref="B80" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
       <text>
         <r>
           <rPr>
@@ -578,7 +585,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B93" authorId="0" shapeId="0">
+    <comment ref="B93" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -604,7 +611,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D103" authorId="0" shapeId="0">
+    <comment ref="D103" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -618,7 +625,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D104" authorId="0" shapeId="0">
+    <comment ref="D104" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -637,12 +644,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Юдкин Д.В.</author>
   </authors>
   <commentList>
-    <comment ref="B16" authorId="0" shapeId="0">
+    <comment ref="B16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
       <text>
         <r>
           <rPr>
@@ -668,7 +675,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B22" authorId="0" shapeId="0">
+    <comment ref="B22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000002000000}">
       <text>
         <r>
           <rPr>
@@ -694,7 +701,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B23" authorId="0" shapeId="0">
+    <comment ref="B23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000003000000}">
       <text>
         <r>
           <rPr>
@@ -720,7 +727,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B24" authorId="0" shapeId="0">
+    <comment ref="B24" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000004000000}">
       <text>
         <r>
           <rPr>
@@ -746,7 +753,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B28" authorId="0" shapeId="0">
+    <comment ref="B28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000005000000}">
       <text>
         <r>
           <rPr>
@@ -772,7 +779,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B29" authorId="0" shapeId="0">
+    <comment ref="B29" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000006000000}">
       <text>
         <r>
           <rPr>
@@ -798,7 +805,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B31" authorId="0" shapeId="0">
+    <comment ref="B31" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000007000000}">
       <text>
         <r>
           <rPr>
@@ -824,7 +831,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B32" authorId="0" shapeId="0">
+    <comment ref="B32" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000008000000}">
       <text>
         <r>
           <rPr>
@@ -850,7 +857,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B37" authorId="0" shapeId="0">
+    <comment ref="B37" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000009000000}">
       <text>
         <r>
           <rPr>
@@ -876,7 +883,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D44" authorId="0" shapeId="0">
+    <comment ref="D44" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -890,7 +897,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B60" authorId="0" shapeId="0">
+    <comment ref="B60" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -916,7 +923,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B66" authorId="0" shapeId="0">
+    <comment ref="B66" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -943,7 +950,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B67" authorId="0" shapeId="0">
+    <comment ref="B67" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -969,7 +976,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B68" authorId="0" shapeId="0">
+    <comment ref="B68" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -995,7 +1002,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B72" authorId="0" shapeId="0">
+    <comment ref="B72" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -1021,7 +1028,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B73" authorId="0" shapeId="0">
+    <comment ref="B73" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000010000000}">
       <text>
         <r>
           <rPr>
@@ -1047,7 +1054,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B75" authorId="0" shapeId="0">
+    <comment ref="B75" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000011000000}">
       <text>
         <r>
           <rPr>
@@ -1073,7 +1080,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B76" authorId="0" shapeId="0">
+    <comment ref="B76" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000012000000}">
       <text>
         <r>
           <rPr>
@@ -1099,7 +1106,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B81" authorId="0" shapeId="0">
+    <comment ref="B81" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000013000000}">
       <text>
         <r>
           <rPr>
@@ -1125,7 +1132,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D88" authorId="0" shapeId="0">
+    <comment ref="D88" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000014000000}">
       <text>
         <r>
           <rPr>
@@ -1144,12 +1151,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Юдкин Д.В.</author>
   </authors>
   <commentList>
-    <comment ref="B16" authorId="0" shapeId="0">
+    <comment ref="B16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
       <text>
         <r>
           <rPr>
@@ -1175,7 +1182,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D33" authorId="0" shapeId="0">
+    <comment ref="D33" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000002000000}">
       <text>
         <r>
           <rPr>
@@ -1189,7 +1196,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B51" authorId="0" shapeId="0">
+    <comment ref="B51" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000003000000}">
       <text>
         <r>
           <rPr>
@@ -1215,7 +1222,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D67" authorId="0" shapeId="0">
+    <comment ref="D67" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000004000000}">
       <text>
         <r>
           <rPr>
@@ -2999,7 +3006,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3938,22 +3945,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3986,17 +3996,14 @@
     <xf numFmtId="4" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4010,7 +4017,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4287,7 +4294,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="1"/>
@@ -4299,49 +4306,49 @@
       <selection pane="bottomLeft" activeCell="D133" sqref="D133"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7" style="11" customWidth="1"/>
-    <col min="2" max="2" width="38.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="49.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.140625" style="1" customWidth="1"/>
-    <col min="8" max="9" width="18.28515625" style="1" customWidth="1"/>
-    <col min="10" max="11" width="20.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="38.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="49.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.109375" style="1" customWidth="1"/>
+    <col min="8" max="9" width="18.33203125" style="1" customWidth="1"/>
+    <col min="10" max="11" width="20.109375" style="1" customWidth="1"/>
     <col min="12" max="13" width="16" style="1" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="18.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="18.28515625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="11.85546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5546875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="18.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.44140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="18.33203125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="11.88671875" style="1" customWidth="1"/>
     <col min="19" max="19" width="16" style="1" customWidth="1"/>
-    <col min="20" max="21" width="18.28515625" style="1" customWidth="1"/>
+    <col min="20" max="21" width="18.33203125" style="1" customWidth="1"/>
     <col min="22" max="22" width="16" style="1" customWidth="1"/>
-    <col min="23" max="25" width="18.28515625" style="1" customWidth="1"/>
-    <col min="26" max="26" width="13.42578125" style="1" customWidth="1"/>
-    <col min="27" max="27" width="18.28515625" style="1" customWidth="1"/>
+    <col min="23" max="25" width="18.33203125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="13.44140625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="18.33203125" style="1" customWidth="1"/>
     <col min="28" max="29" width="16" style="1" customWidth="1"/>
-    <col min="30" max="30" width="13.5703125" style="1" customWidth="1"/>
+    <col min="30" max="30" width="13.5546875" style="1" customWidth="1"/>
     <col min="31" max="31" width="16" style="1" customWidth="1"/>
-    <col min="32" max="33" width="18.28515625" style="1" customWidth="1"/>
-    <col min="34" max="34" width="14.140625" style="1" customWidth="1"/>
+    <col min="32" max="33" width="18.33203125" style="1" customWidth="1"/>
+    <col min="34" max="34" width="14.109375" style="1" customWidth="1"/>
     <col min="35" max="35" width="16" style="1" customWidth="1"/>
-    <col min="36" max="36" width="18.28515625" style="1" customWidth="1"/>
-    <col min="37" max="37" width="20.140625" style="1" customWidth="1"/>
-    <col min="38" max="38" width="14.140625" style="1" customWidth="1"/>
+    <col min="36" max="36" width="18.33203125" style="1" customWidth="1"/>
+    <col min="37" max="37" width="20.109375" style="1" customWidth="1"/>
+    <col min="38" max="38" width="14.109375" style="1" customWidth="1"/>
     <col min="39" max="39" width="16" style="1" customWidth="1"/>
-    <col min="40" max="40" width="12.140625" style="1" customWidth="1"/>
-    <col min="41" max="41" width="18.28515625" style="1" customWidth="1"/>
-    <col min="42" max="42" width="15.42578125" style="1" customWidth="1"/>
-    <col min="43" max="43" width="18.28515625" style="1" customWidth="1"/>
-    <col min="44" max="45" width="20.140625" style="1" customWidth="1"/>
+    <col min="40" max="40" width="12.109375" style="1" customWidth="1"/>
+    <col min="41" max="41" width="18.33203125" style="1" customWidth="1"/>
+    <col min="42" max="42" width="15.44140625" style="1" customWidth="1"/>
+    <col min="43" max="43" width="18.33203125" style="1" customWidth="1"/>
+    <col min="44" max="45" width="20.109375" style="1" customWidth="1"/>
     <col min="46" max="47" width="16" style="1" customWidth="1"/>
-    <col min="48" max="16384" width="9.140625" style="1"/>
+    <col min="48" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:47" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="121" t="s">
         <v>0</v>
       </c>
@@ -4442,7 +4449,7 @@
       </c>
       <c r="AU1" s="117"/>
     </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A2" s="122"/>
       <c r="B2" s="124"/>
       <c r="C2" s="124"/>
@@ -4575,7 +4582,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="3" spans="1:47" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:47" ht="36" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -4639,7 +4646,7 @@
       <c r="AT3" s="2"/>
       <c r="AU3" s="2"/>
     </row>
-    <row r="4" spans="1:47" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:47" ht="36" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -4703,7 +4710,7 @@
       <c r="AT4" s="2"/>
       <c r="AU4" s="2"/>
     </row>
-    <row r="5" spans="1:47" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:47" ht="36" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -4767,7 +4774,7 @@
       <c r="AT5" s="2"/>
       <c r="AU5" s="2"/>
     </row>
-    <row r="6" spans="1:47" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:47" ht="36" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -4835,7 +4842,7 @@
       <c r="AT6" s="2"/>
       <c r="AU6" s="2"/>
     </row>
-    <row r="7" spans="1:47" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:47" ht="54" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -4907,7 +4914,7 @@
       <c r="AT7" s="2"/>
       <c r="AU7" s="2"/>
     </row>
-    <row r="8" spans="1:47" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:47" ht="36" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -4979,7 +4986,7 @@
       <c r="AT8" s="2"/>
       <c r="AU8" s="2"/>
     </row>
-    <row r="9" spans="1:47" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:47" ht="36" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -5051,7 +5058,7 @@
       <c r="AT9" s="2"/>
       <c r="AU9" s="2"/>
     </row>
-    <row r="10" spans="1:47" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:47" ht="36" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -5123,7 +5130,7 @@
       <c r="AT10" s="2"/>
       <c r="AU10" s="2"/>
     </row>
-    <row r="11" spans="1:47" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:47" ht="54" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -5195,7 +5202,7 @@
       <c r="AT11" s="2"/>
       <c r="AU11" s="2"/>
     </row>
-    <row r="12" spans="1:47" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:47" ht="54" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -5267,7 +5274,7 @@
       <c r="AT12" s="2"/>
       <c r="AU12" s="2"/>
     </row>
-    <row r="13" spans="1:47" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:47" ht="36" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -5339,7 +5346,7 @@
       <c r="AT13" s="2"/>
       <c r="AU13" s="2"/>
     </row>
-    <row r="14" spans="1:47" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:47" ht="36" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -5411,7 +5418,7 @@
       <c r="AT14" s="2"/>
       <c r="AU14" s="2"/>
     </row>
-    <row r="15" spans="1:47" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:47" ht="54" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -5488,7 +5495,7 @@
       <c r="AT15" s="2"/>
       <c r="AU15" s="2"/>
     </row>
-    <row r="16" spans="1:47" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:47" ht="54" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -5560,7 +5567,7 @@
       <c r="AT16" s="2"/>
       <c r="AU16" s="2"/>
     </row>
-    <row r="17" spans="1:47" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:47" ht="36" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -5632,7 +5639,7 @@
       <c r="AT17" s="2"/>
       <c r="AU17" s="2"/>
     </row>
-    <row r="18" spans="1:47" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:47" ht="54" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -5704,7 +5711,7 @@
       <c r="AT18" s="2"/>
       <c r="AU18" s="2"/>
     </row>
-    <row r="19" spans="1:47" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:47" ht="36" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -5780,7 +5787,7 @@
       <c r="AT19" s="2"/>
       <c r="AU19" s="2"/>
     </row>
-    <row r="20" spans="1:47" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:47" ht="54" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -5856,7 +5863,7 @@
       <c r="AT20" s="2"/>
       <c r="AU20" s="2"/>
     </row>
-    <row r="21" spans="1:47" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:47" ht="36" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -5928,7 +5935,7 @@
       <c r="AT21" s="2"/>
       <c r="AU21" s="2"/>
     </row>
-    <row r="22" spans="1:47" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:47" ht="36" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>20</v>
       </c>
@@ -6043,7 +6050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:47" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:47" ht="36" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>21</v>
       </c>
@@ -6141,7 +6148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:47" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:47" ht="36" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -6234,7 +6241,7 @@
       <c r="AT24" s="2"/>
       <c r="AU24" s="2"/>
     </row>
-    <row r="25" spans="1:47" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:47" ht="36" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>23</v>
       </c>
@@ -6324,7 +6331,7 @@
       <c r="AT25" s="2"/>
       <c r="AU25" s="2"/>
     </row>
-    <row r="26" spans="1:47" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:47" ht="36" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>24</v>
       </c>
@@ -6397,7 +6404,7 @@
       <c r="AT26" s="2"/>
       <c r="AU26" s="2"/>
     </row>
-    <row r="27" spans="1:47" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:47" ht="36" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>25</v>
       </c>
@@ -6474,7 +6481,7 @@
       <c r="AT27" s="2"/>
       <c r="AU27" s="2"/>
     </row>
-    <row r="28" spans="1:47" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:47" ht="36" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>26</v>
       </c>
@@ -6558,7 +6565,7 @@
       <c r="AT28" s="2"/>
       <c r="AU28" s="2"/>
     </row>
-    <row r="29" spans="1:47" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:47" ht="36" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>27</v>
       </c>
@@ -6638,7 +6645,7 @@
       <c r="AT29" s="2"/>
       <c r="AU29" s="2"/>
     </row>
-    <row r="30" spans="1:47" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:47" ht="36" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>28</v>
       </c>
@@ -6740,7 +6747,7 @@
       <c r="AT30" s="2"/>
       <c r="AU30" s="2"/>
     </row>
-    <row r="31" spans="1:47" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:47" ht="36" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>29</v>
       </c>
@@ -6852,7 +6859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:47" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:47" ht="36" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>30</v>
       </c>
@@ -6942,7 +6949,7 @@
       <c r="AT32" s="2"/>
       <c r="AU32" s="2"/>
     </row>
-    <row r="33" spans="1:47" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:47" ht="36" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>31</v>
       </c>
@@ -7015,7 +7022,7 @@
       <c r="AT33" s="2"/>
       <c r="AU33" s="2"/>
     </row>
-    <row r="34" spans="1:47" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:47" ht="36" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>32</v>
       </c>
@@ -7108,7 +7115,7 @@
       <c r="AT34" s="2"/>
       <c r="AU34" s="2"/>
     </row>
-    <row r="35" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>33</v>
       </c>
@@ -7181,7 +7188,7 @@
       <c r="AT35" s="2"/>
       <c r="AU35" s="2"/>
     </row>
-    <row r="36" spans="1:47" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>34</v>
       </c>
@@ -7254,7 +7261,7 @@
       <c r="AT36" s="2"/>
       <c r="AU36" s="2"/>
     </row>
-    <row r="37" spans="1:47" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>35</v>
       </c>
@@ -7327,7 +7334,7 @@
       <c r="AT37" s="2"/>
       <c r="AU37" s="2"/>
     </row>
-    <row r="38" spans="1:47" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:47" ht="36" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>36</v>
       </c>
@@ -7400,7 +7407,7 @@
       <c r="AT38" s="2"/>
       <c r="AU38" s="2"/>
     </row>
-    <row r="39" spans="1:47" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:47" ht="36" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>37</v>
       </c>
@@ -7499,7 +7506,7 @@
       <c r="AT39" s="2"/>
       <c r="AU39" s="2"/>
     </row>
-    <row r="40" spans="1:47" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:47" ht="36" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>38</v>
       </c>
@@ -7559,7 +7566,7 @@
       <c r="AT40" s="2"/>
       <c r="AU40" s="2"/>
     </row>
-    <row r="41" spans="1:47" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:47" ht="36" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>39</v>
       </c>
@@ -7655,7 +7662,7 @@
       <c r="AT41" s="2"/>
       <c r="AU41" s="2"/>
     </row>
-    <row r="42" spans="1:47" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:47" ht="36" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>40</v>
       </c>
@@ -7742,7 +7749,7 @@
       <c r="AT42" s="2"/>
       <c r="AU42" s="2"/>
     </row>
-    <row r="43" spans="1:47" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:47" ht="36" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>41</v>
       </c>
@@ -7833,7 +7840,7 @@
       <c r="AT43" s="2"/>
       <c r="AU43" s="2"/>
     </row>
-    <row r="44" spans="1:47" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:47" ht="36" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>42</v>
       </c>
@@ -7911,7 +7918,7 @@
       <c r="AT44" s="2"/>
       <c r="AU44" s="2"/>
     </row>
-    <row r="45" spans="1:47" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:47" ht="36" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>43</v>
       </c>
@@ -8003,7 +8010,7 @@
       <c r="AT45" s="2"/>
       <c r="AU45" s="2"/>
     </row>
-    <row r="46" spans="1:47" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>44</v>
       </c>
@@ -8077,7 +8084,7 @@
       <c r="AT46" s="2"/>
       <c r="AU46" s="2"/>
     </row>
-    <row r="47" spans="1:47" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:47" ht="36" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>45</v>
       </c>
@@ -8174,7 +8181,7 @@
       <c r="AT47" s="2"/>
       <c r="AU47" s="2"/>
     </row>
-    <row r="48" spans="1:47" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:47" ht="36" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>46</v>
       </c>
@@ -8246,7 +8253,7 @@
       <c r="AT48" s="2"/>
       <c r="AU48" s="2"/>
     </row>
-    <row r="49" spans="1:47" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:47" ht="36" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>47</v>
       </c>
@@ -8322,7 +8329,7 @@
       <c r="AT49" s="2"/>
       <c r="AU49" s="2"/>
     </row>
-    <row r="50" spans="1:47" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:47" ht="36" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>48</v>
       </c>
@@ -8461,7 +8468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:47" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:47" ht="36" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>49</v>
       </c>
@@ -8576,7 +8583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:47" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:47" ht="36" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>50</v>
       </c>
@@ -8677,7 +8684,7 @@
       <c r="AT52" s="2"/>
       <c r="AU52" s="2"/>
     </row>
-    <row r="53" spans="1:47" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:47" ht="36" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>51</v>
       </c>
@@ -8767,7 +8774,7 @@
       <c r="AT53" s="2"/>
       <c r="AU53" s="2"/>
     </row>
-    <row r="54" spans="1:47" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:47" ht="36" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>52</v>
       </c>
@@ -8863,7 +8870,7 @@
       <c r="AT54" s="2"/>
       <c r="AU54" s="2"/>
     </row>
-    <row r="55" spans="1:47" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:47" ht="36" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>53</v>
       </c>
@@ -8931,7 +8938,7 @@
       <c r="AT55" s="2"/>
       <c r="AU55" s="2"/>
     </row>
-    <row r="56" spans="1:47" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:47" ht="36" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>54</v>
       </c>
@@ -9003,7 +9010,7 @@
       <c r="AT56" s="2"/>
       <c r="AU56" s="2"/>
     </row>
-    <row r="57" spans="1:47" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:47" ht="36" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>55</v>
       </c>
@@ -9099,7 +9106,7 @@
         <v>990000</v>
       </c>
     </row>
-    <row r="58" spans="1:47" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:47" ht="36" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <v>56</v>
       </c>
@@ -9187,7 +9194,7 @@
       <c r="AT58" s="2"/>
       <c r="AU58" s="2"/>
     </row>
-    <row r="59" spans="1:47" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:47" ht="36" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>57</v>
       </c>
@@ -9255,7 +9262,7 @@
       <c r="AT59" s="2"/>
       <c r="AU59" s="2"/>
     </row>
-    <row r="60" spans="1:47" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:47" ht="36" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>58</v>
       </c>
@@ -9327,7 +9334,7 @@
       <c r="AT60" s="2"/>
       <c r="AU60" s="2"/>
     </row>
-    <row r="61" spans="1:47" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:47" ht="36" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <v>59</v>
       </c>
@@ -9405,7 +9412,7 @@
       <c r="AT61" s="2"/>
       <c r="AU61" s="2"/>
     </row>
-    <row r="62" spans="1:47" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:47" ht="36" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>60</v>
       </c>
@@ -9522,7 +9529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:47" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:47" ht="36" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
         <v>61</v>
       </c>
@@ -9637,7 +9644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:47" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:47" ht="36" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>62</v>
       </c>
@@ -9750,7 +9757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:47" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:47" ht="36" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
         <v>63</v>
       </c>
@@ -9832,7 +9839,7 @@
       <c r="AT65" s="2"/>
       <c r="AU65" s="2"/>
     </row>
-    <row r="66" spans="1:47" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:47" ht="36" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <v>64</v>
       </c>
@@ -9912,7 +9919,7 @@
       <c r="AT66" s="2"/>
       <c r="AU66" s="2"/>
     </row>
-    <row r="67" spans="1:47" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:47" ht="36" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>65</v>
       </c>
@@ -9996,7 +10003,7 @@
       <c r="AT67" s="2"/>
       <c r="AU67" s="2"/>
     </row>
-    <row r="68" spans="1:47" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:47" ht="36" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
         <v>66</v>
       </c>
@@ -10064,7 +10071,7 @@
       <c r="AT68" s="2"/>
       <c r="AU68" s="2"/>
     </row>
-    <row r="69" spans="1:47" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:47" ht="36" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
         <v>67</v>
       </c>
@@ -10132,7 +10139,7 @@
       <c r="AT69" s="2"/>
       <c r="AU69" s="2"/>
     </row>
-    <row r="70" spans="1:47" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:47" ht="36" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>68</v>
       </c>
@@ -10204,7 +10211,7 @@
       <c r="AT70" s="2"/>
       <c r="AU70" s="2"/>
     </row>
-    <row r="71" spans="1:47" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:47" ht="36" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
         <v>69</v>
       </c>
@@ -10290,7 +10297,7 @@
       <c r="AT71" s="2"/>
       <c r="AU71" s="2"/>
     </row>
-    <row r="72" spans="1:47" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:47" ht="36" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
         <v>70</v>
       </c>
@@ -10404,7 +10411,7 @@
       <c r="AT72" s="2"/>
       <c r="AU72" s="2"/>
     </row>
-    <row r="73" spans="1:47" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:47" ht="36" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
         <v>71</v>
       </c>
@@ -10468,7 +10475,7 @@
       <c r="AT73" s="2"/>
       <c r="AU73" s="2"/>
     </row>
-    <row r="74" spans="1:47" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:47" ht="36" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
         <v>72</v>
       </c>
@@ -10587,7 +10594,7 @@
       <c r="AT74" s="2"/>
       <c r="AU74" s="2"/>
     </row>
-    <row r="75" spans="1:47" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:47" ht="36" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <v>73</v>
       </c>
@@ -10685,7 +10692,7 @@
       <c r="AT75" s="18"/>
       <c r="AU75" s="18"/>
     </row>
-    <row r="76" spans="1:47" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:47" ht="36" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
         <v>74</v>
       </c>
@@ -10745,7 +10752,7 @@
       <c r="AT76" s="2"/>
       <c r="AU76" s="2"/>
     </row>
-    <row r="77" spans="1:47" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:47" ht="36" x14ac:dyDescent="0.3">
       <c r="A77" s="3">
         <v>75</v>
       </c>
@@ -10857,7 +10864,7 @@
       <c r="AT77" s="2"/>
       <c r="AU77" s="2"/>
     </row>
-    <row r="78" spans="1:47" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:47" ht="36" x14ac:dyDescent="0.3">
       <c r="A78" s="3">
         <v>76</v>
       </c>
@@ -10968,7 +10975,7 @@
       <c r="AT78" s="2"/>
       <c r="AU78" s="2"/>
     </row>
-    <row r="79" spans="1:47" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:47" ht="36" x14ac:dyDescent="0.3">
       <c r="A79" s="3">
         <v>77</v>
       </c>
@@ -11040,7 +11047,7 @@
       <c r="AT79" s="2"/>
       <c r="AU79" s="2"/>
     </row>
-    <row r="80" spans="1:47" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:47" ht="54" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
         <v>78</v>
       </c>
@@ -11134,7 +11141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:47" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:47" ht="36" x14ac:dyDescent="0.3">
       <c r="A81" s="3">
         <v>79</v>
       </c>
@@ -11206,7 +11213,7 @@
       <c r="AT81" s="2"/>
       <c r="AU81" s="2"/>
     </row>
-    <row r="82" spans="1:47" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
         <v>80</v>
       </c>
@@ -11278,7 +11285,7 @@
       <c r="AT82" s="2"/>
       <c r="AU82" s="2"/>
     </row>
-    <row r="83" spans="1:47" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
         <v>81</v>
       </c>
@@ -11350,7 +11357,7 @@
       <c r="AT83" s="2"/>
       <c r="AU83" s="2"/>
     </row>
-    <row r="84" spans="1:47" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A84" s="3">
         <v>82</v>
       </c>
@@ -11422,7 +11429,7 @@
       <c r="AT84" s="2"/>
       <c r="AU84" s="2"/>
     </row>
-    <row r="85" spans="1:47" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:47" ht="36" x14ac:dyDescent="0.3">
       <c r="A85" s="3">
         <v>83</v>
       </c>
@@ -11538,7 +11545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:47" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:47" ht="36" x14ac:dyDescent="0.3">
       <c r="A86" s="3">
         <v>84</v>
       </c>
@@ -11643,7 +11650,7 @@
       <c r="AT86" s="2"/>
       <c r="AU86" s="2"/>
     </row>
-    <row r="87" spans="1:47" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:47" ht="36" x14ac:dyDescent="0.3">
       <c r="A87" s="3">
         <v>85</v>
       </c>
@@ -11744,7 +11751,7 @@
       <c r="AT87" s="2"/>
       <c r="AU87" s="2"/>
     </row>
-    <row r="88" spans="1:47" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:47" ht="36" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
         <v>86</v>
       </c>
@@ -11855,7 +11862,7 @@
       <c r="AT88" s="2"/>
       <c r="AU88" s="2"/>
     </row>
-    <row r="89" spans="1:47" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:47" ht="36" x14ac:dyDescent="0.3">
       <c r="A89" s="3">
         <v>87</v>
       </c>
@@ -11915,7 +11922,7 @@
       <c r="AT89" s="2"/>
       <c r="AU89" s="2"/>
     </row>
-    <row r="90" spans="1:47" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:47" ht="36" x14ac:dyDescent="0.3">
       <c r="A90" s="3">
         <v>88</v>
       </c>
@@ -12023,7 +12030,7 @@
       <c r="AT90" s="2"/>
       <c r="AU90" s="2"/>
     </row>
-    <row r="91" spans="1:47" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:47" ht="36" x14ac:dyDescent="0.3">
       <c r="A91" s="3">
         <v>89</v>
       </c>
@@ -12131,7 +12138,7 @@
       <c r="AT91" s="2"/>
       <c r="AU91" s="2"/>
     </row>
-    <row r="92" spans="1:47" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
         <v>90</v>
       </c>
@@ -12207,7 +12214,7 @@
       <c r="AT92" s="2"/>
       <c r="AU92" s="2"/>
     </row>
-    <row r="93" spans="1:47" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:47" ht="36" x14ac:dyDescent="0.3">
       <c r="A93" s="3">
         <v>91</v>
       </c>
@@ -12321,7 +12328,7 @@
       <c r="AT93" s="2"/>
       <c r="AU93" s="2"/>
     </row>
-    <row r="94" spans="1:47" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:47" ht="36" x14ac:dyDescent="0.3">
       <c r="A94" s="3">
         <v>92</v>
       </c>
@@ -12425,7 +12432,7 @@
       <c r="AT94" s="2"/>
       <c r="AU94" s="2"/>
     </row>
-    <row r="95" spans="1:47" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:47" ht="36" x14ac:dyDescent="0.3">
       <c r="A95" s="3">
         <v>93</v>
       </c>
@@ -12533,7 +12540,7 @@
       <c r="AT95" s="2"/>
       <c r="AU95" s="2"/>
     </row>
-    <row r="96" spans="1:47" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:47" ht="36" x14ac:dyDescent="0.3">
       <c r="A96" s="3">
         <v>94</v>
       </c>
@@ -12618,7 +12625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:47" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:47" ht="36" x14ac:dyDescent="0.3">
       <c r="A97" s="3">
         <v>95</v>
       </c>
@@ -12727,7 +12734,7 @@
       <c r="AT97" s="2"/>
       <c r="AU97" s="2"/>
     </row>
-    <row r="98" spans="1:47" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:47" ht="36" x14ac:dyDescent="0.3">
       <c r="A98" s="3">
         <v>96</v>
       </c>
@@ -12793,7 +12800,7 @@
       <c r="AT98" s="2"/>
       <c r="AU98" s="2"/>
     </row>
-    <row r="99" spans="1:47" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:47" ht="36" x14ac:dyDescent="0.3">
       <c r="A99" s="3">
         <v>97</v>
       </c>
@@ -12859,7 +12866,7 @@
       <c r="AT99" s="2"/>
       <c r="AU99" s="2"/>
     </row>
-    <row r="100" spans="1:47" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:47" ht="36" x14ac:dyDescent="0.3">
       <c r="A100" s="3">
         <v>98</v>
       </c>
@@ -12940,7 +12947,7 @@
       <c r="AT100" s="2"/>
       <c r="AU100" s="2"/>
     </row>
-    <row r="101" spans="1:47" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:47" ht="36" x14ac:dyDescent="0.3">
       <c r="A101" s="3">
         <v>99</v>
       </c>
@@ -13020,7 +13027,7 @@
       <c r="AT101" s="2"/>
       <c r="AU101" s="2"/>
     </row>
-    <row r="102" spans="1:47" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:47" ht="36" x14ac:dyDescent="0.3">
       <c r="A102" s="3">
         <v>100</v>
       </c>
@@ -13084,7 +13091,7 @@
       <c r="AT102" s="2"/>
       <c r="AU102" s="2"/>
     </row>
-    <row r="103" spans="1:47" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:47" ht="36" x14ac:dyDescent="0.3">
       <c r="A103" s="3">
         <v>101</v>
       </c>
@@ -13148,7 +13155,7 @@
       <c r="AT103" s="2"/>
       <c r="AU103" s="2"/>
     </row>
-    <row r="104" spans="1:47" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:47" ht="36" x14ac:dyDescent="0.3">
       <c r="A104" s="3">
         <v>102</v>
       </c>
@@ -13233,7 +13240,7 @@
       <c r="AT104" s="2"/>
       <c r="AU104" s="2"/>
     </row>
-    <row r="105" spans="1:47" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:47" ht="36" x14ac:dyDescent="0.3">
       <c r="A105" s="3">
         <v>103</v>
       </c>
@@ -13313,7 +13320,7 @@
       <c r="AT105" s="2"/>
       <c r="AU105" s="2"/>
     </row>
-    <row r="106" spans="1:47" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:47" ht="36" x14ac:dyDescent="0.3">
       <c r="A106" s="3">
         <v>104</v>
       </c>
@@ -13373,7 +13380,7 @@
       <c r="AT106" s="2"/>
       <c r="AU106" s="2"/>
     </row>
-    <row r="107" spans="1:47" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:47" ht="36" x14ac:dyDescent="0.3">
       <c r="A107" s="3">
         <v>105</v>
       </c>
@@ -13433,7 +13440,7 @@
       <c r="AT107" s="2"/>
       <c r="AU107" s="2"/>
     </row>
-    <row r="108" spans="1:47" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:47" ht="36" x14ac:dyDescent="0.3">
       <c r="A108" s="3">
         <v>106</v>
       </c>
@@ -13493,7 +13500,7 @@
       <c r="AT108" s="2"/>
       <c r="AU108" s="2"/>
     </row>
-    <row r="109" spans="1:47" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:47" ht="36" x14ac:dyDescent="0.3">
       <c r="A109" s="3">
         <v>107</v>
       </c>
@@ -13553,7 +13560,7 @@
       <c r="AT109" s="2"/>
       <c r="AU109" s="2"/>
     </row>
-    <row r="110" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A110" s="3">
         <v>108</v>
       </c>
@@ -13613,7 +13620,7 @@
       <c r="AT110" s="2"/>
       <c r="AU110" s="2"/>
     </row>
-    <row r="111" spans="1:47" s="8" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:47" s="8" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A111" s="125"/>
       <c r="B111" s="128" t="s">
         <v>179</v>
@@ -13668,7 +13675,7 @@
       <c r="AT111" s="7"/>
       <c r="AU111" s="7"/>
     </row>
-    <row r="112" spans="1:47" s="8" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:47" s="8" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A112" s="126"/>
       <c r="B112" s="129"/>
       <c r="C112" s="6" t="s">
@@ -13722,7 +13729,7 @@
       <c r="AT112" s="7"/>
       <c r="AU112" s="7"/>
     </row>
-    <row r="113" spans="1:47" s="8" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:47" s="8" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="127"/>
       <c r="B113" s="130"/>
       <c r="C113" s="7" t="s">
@@ -13902,7 +13909,7 @@
         <v>990000</v>
       </c>
     </row>
-    <row r="115" spans="1:47" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:47" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="9" t="s">
         <v>181</v>
       </c>
@@ -13913,7 +13920,7 @@
       <c r="D115" s="120"/>
       <c r="E115" s="10"/>
     </row>
-    <row r="116" spans="1:47" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:47" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="9" t="s">
         <v>183</v>
       </c>
@@ -13924,32 +13931,15 @@
       <c r="D116" s="120"/>
       <c r="E116" s="10"/>
     </row>
-    <row r="121" spans="1:47" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:47" ht="25.2" x14ac:dyDescent="0.3">
       <c r="B121" s="12"/>
       <c r="C121" s="12"/>
       <c r="D121" s="12"/>
       <c r="E121" s="12"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D113"/>
+  <autoFilter ref="A1:D113" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="33">
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AL1:AM1"/>
-    <mergeCell ref="B116:D116"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="A111:A113"/>
-    <mergeCell ref="B111:B113"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="D113:E113"/>
     <mergeCell ref="R1:S1"/>
     <mergeCell ref="T1:U1"/>
     <mergeCell ref="AR1:AS1"/>
@@ -13966,6 +13956,23 @@
     <mergeCell ref="AF1:AG1"/>
     <mergeCell ref="AH1:AI1"/>
     <mergeCell ref="AJ1:AK1"/>
+    <mergeCell ref="B116:D116"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="A111:A113"/>
+    <mergeCell ref="B111:B113"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="D113:E113"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AL1:AM1"/>
   </mergeCells>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" scale="52" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -13977,24 +13984,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="45.5703125" style="14" customWidth="1"/>
-    <col min="2" max="2" width="34.7109375" style="14" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="14"/>
+    <col min="1" max="1" width="45.5546875" style="14" customWidth="1"/>
+    <col min="2" max="2" width="34.6640625" style="14" customWidth="1"/>
+    <col min="3" max="16384" width="9.109375" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>2</v>
       </c>
@@ -14002,7 +14009,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>212</v>
       </c>
@@ -14010,7 +14017,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>214</v>
       </c>
@@ -14018,7 +14025,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>216</v>
       </c>
@@ -14026,7 +14033,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>218</v>
       </c>
@@ -14034,7 +14041,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>220</v>
       </c>
@@ -14042,7 +14049,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>222</v>
       </c>
@@ -14050,7 +14057,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>224</v>
       </c>
@@ -14058,7 +14065,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
         <v>226</v>
       </c>
@@ -14066,7 +14073,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
         <v>227</v>
       </c>
@@ -14074,7 +14081,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
         <v>229</v>
       </c>
@@ -14082,7 +14089,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
         <v>231</v>
       </c>
@@ -14090,7 +14097,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
         <v>233</v>
       </c>
@@ -14098,7 +14105,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
         <v>234</v>
       </c>
@@ -14106,7 +14113,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
         <v>235</v>
       </c>
@@ -14114,7 +14121,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
         <v>236</v>
       </c>
@@ -14122,7 +14129,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
         <v>238</v>
       </c>
@@ -14130,7 +14137,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
         <v>240</v>
       </c>
@@ -14138,7 +14145,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
         <v>242</v>
       </c>
@@ -14146,7 +14153,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="13" t="s">
         <v>244</v>
       </c>
@@ -14154,7 +14161,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="s">
         <v>246</v>
       </c>
@@ -14162,7 +14169,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="s">
         <v>247</v>
       </c>
@@ -14170,7 +14177,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="s">
         <v>249</v>
       </c>
@@ -14178,7 +14185,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
         <v>250</v>
       </c>
@@ -14186,7 +14193,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="13" t="s">
         <v>252</v>
       </c>
@@ -14194,7 +14201,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="13" t="s">
         <v>253</v>
       </c>
@@ -14202,7 +14209,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="13" t="s">
         <v>254</v>
       </c>
@@ -14210,7 +14217,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="13" t="s">
         <v>256</v>
       </c>
@@ -14218,7 +14225,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="13" t="s">
         <v>258</v>
       </c>
@@ -14226,7 +14233,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="13" t="s">
         <v>260</v>
       </c>
@@ -14234,7 +14241,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="13" t="s">
         <v>262</v>
       </c>
@@ -14242,7 +14249,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="13" t="s">
         <v>264</v>
       </c>
@@ -14250,7 +14257,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="13" t="s">
         <v>266</v>
       </c>
@@ -14258,7 +14265,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="13" t="s">
         <v>268</v>
       </c>
@@ -14266,7 +14273,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="13" t="s">
         <v>270</v>
       </c>
@@ -14274,7 +14281,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="13" t="s">
         <v>271</v>
       </c>
@@ -14282,7 +14289,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="13" t="s">
         <v>272</v>
       </c>
@@ -14290,7 +14297,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="13" t="s">
         <v>274</v>
       </c>
@@ -14298,7 +14305,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="13" t="s">
         <v>276</v>
       </c>
@@ -14306,7 +14313,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="13" t="s">
         <v>278</v>
       </c>
@@ -14314,7 +14321,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="13" t="s">
         <v>280</v>
       </c>
@@ -14322,7 +14329,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="13" t="s">
         <v>282</v>
       </c>
@@ -14330,7 +14337,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="13" t="s">
         <v>284</v>
       </c>
@@ -14338,7 +14345,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="15" t="s">
         <v>286</v>
       </c>
@@ -14346,7 +14353,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="16" t="s">
         <v>287</v>
       </c>
@@ -14354,7 +14361,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="17" t="s">
         <v>289</v>
       </c>
@@ -14362,7 +14369,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="49" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C49" s="135" t="s">
         <v>295</v>
       </c>
@@ -14372,7 +14379,7 @@
       <c r="G49" s="135"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B46"/>
+  <autoFilter ref="A1:B46" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="1">
     <mergeCell ref="C49:G49"/>
   </mergeCells>
@@ -14382,179 +14389,179 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AY121"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C119" sqref="C119"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7" style="37" customWidth="1"/>
-    <col min="2" max="2" width="38.42578125" style="24" customWidth="1"/>
-    <col min="3" max="3" width="49.5703125" style="24" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" style="24" customWidth="1"/>
-    <col min="5" max="5" width="25.28515625" style="24" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" style="24" customWidth="1"/>
-    <col min="7" max="7" width="20.140625" style="24" customWidth="1"/>
-    <col min="8" max="9" width="18.28515625" style="24" customWidth="1"/>
-    <col min="10" max="11" width="20.140625" style="24" customWidth="1"/>
+    <col min="2" max="2" width="38.44140625" style="24" customWidth="1"/>
+    <col min="3" max="3" width="49.5546875" style="24" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" style="24" customWidth="1"/>
+    <col min="5" max="5" width="25.33203125" style="24" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" style="24" customWidth="1"/>
+    <col min="7" max="7" width="20.109375" style="24" customWidth="1"/>
+    <col min="8" max="9" width="18.33203125" style="24" customWidth="1"/>
+    <col min="10" max="11" width="20.109375" style="24" customWidth="1"/>
     <col min="12" max="13" width="16" style="24" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" style="24" customWidth="1"/>
-    <col min="15" max="15" width="18.28515625" style="24" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="24" customWidth="1"/>
-    <col min="17" max="17" width="18.28515625" style="24" customWidth="1"/>
-    <col min="18" max="18" width="11.85546875" style="24" customWidth="1"/>
+    <col min="14" max="14" width="11.5546875" style="24" customWidth="1"/>
+    <col min="15" max="15" width="18.33203125" style="24" customWidth="1"/>
+    <col min="16" max="16" width="13.44140625" style="24" customWidth="1"/>
+    <col min="17" max="17" width="18.33203125" style="24" customWidth="1"/>
+    <col min="18" max="18" width="11.88671875" style="24" customWidth="1"/>
     <col min="19" max="19" width="16" style="24" customWidth="1"/>
-    <col min="20" max="21" width="18.28515625" style="24" customWidth="1"/>
+    <col min="20" max="21" width="18.33203125" style="24" customWidth="1"/>
     <col min="22" max="22" width="16" style="24" customWidth="1"/>
-    <col min="23" max="25" width="18.28515625" style="24" customWidth="1"/>
-    <col min="26" max="26" width="13.42578125" style="24" customWidth="1"/>
-    <col min="27" max="27" width="18.28515625" style="24" customWidth="1"/>
+    <col min="23" max="25" width="18.33203125" style="24" customWidth="1"/>
+    <col min="26" max="26" width="13.44140625" style="24" customWidth="1"/>
+    <col min="27" max="27" width="18.33203125" style="24" customWidth="1"/>
     <col min="28" max="29" width="16" style="24" customWidth="1"/>
-    <col min="30" max="30" width="29.5703125" style="24" customWidth="1"/>
-    <col min="31" max="31" width="13.5703125" style="24" customWidth="1"/>
-    <col min="32" max="32" width="27.28515625" style="24" customWidth="1"/>
+    <col min="30" max="30" width="29.5546875" style="24" customWidth="1"/>
+    <col min="31" max="31" width="13.5546875" style="24" customWidth="1"/>
+    <col min="32" max="32" width="27.33203125" style="24" customWidth="1"/>
     <col min="33" max="33" width="30" style="24" customWidth="1"/>
-    <col min="34" max="34" width="42.28515625" style="24" customWidth="1"/>
-    <col min="35" max="35" width="26.28515625" style="24" customWidth="1"/>
-    <col min="36" max="36" width="20.5703125" style="24" customWidth="1"/>
-    <col min="37" max="37" width="26.140625" style="24" customWidth="1"/>
-    <col min="38" max="38" width="55.140625" style="24" customWidth="1"/>
-    <col min="39" max="39" width="33.85546875" style="24" customWidth="1"/>
-    <col min="40" max="40" width="31.28515625" style="24" customWidth="1"/>
-    <col min="41" max="41" width="18.42578125" style="24" customWidth="1"/>
-    <col min="42" max="42" width="15.7109375" style="24" customWidth="1"/>
-    <col min="43" max="43" width="14.140625" style="24" customWidth="1"/>
-    <col min="44" max="45" width="20.140625" style="24" customWidth="1"/>
+    <col min="34" max="34" width="42.33203125" style="24" customWidth="1"/>
+    <col min="35" max="35" width="26.33203125" style="24" customWidth="1"/>
+    <col min="36" max="36" width="20.5546875" style="24" customWidth="1"/>
+    <col min="37" max="37" width="26.109375" style="24" customWidth="1"/>
+    <col min="38" max="38" width="55.109375" style="24" customWidth="1"/>
+    <col min="39" max="39" width="33.88671875" style="24" customWidth="1"/>
+    <col min="40" max="40" width="31.33203125" style="24" customWidth="1"/>
+    <col min="41" max="41" width="18.44140625" style="24" customWidth="1"/>
+    <col min="42" max="42" width="15.6640625" style="24" customWidth="1"/>
+    <col min="43" max="43" width="14.109375" style="24" customWidth="1"/>
+    <col min="44" max="45" width="20.109375" style="24" customWidth="1"/>
     <col min="46" max="47" width="16" style="24" customWidth="1"/>
-    <col min="48" max="48" width="16.7109375" style="24" customWidth="1"/>
-    <col min="49" max="49" width="18.42578125" style="24" customWidth="1"/>
-    <col min="50" max="50" width="16.28515625" style="24" customWidth="1"/>
+    <col min="48" max="48" width="16.6640625" style="24" customWidth="1"/>
+    <col min="49" max="49" width="18.44140625" style="24" customWidth="1"/>
+    <col min="50" max="50" width="16.33203125" style="24" customWidth="1"/>
     <col min="51" max="51" width="15" style="24" customWidth="1"/>
-    <col min="52" max="16384" width="9.140625" style="24"/>
+    <col min="52" max="16384" width="9.109375" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="152" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="154" t="s">
+    <row r="1" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="137" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="139" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="154" t="s">
+      <c r="C1" s="139" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="154" t="s">
+      <c r="D1" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="154" t="s">
+      <c r="E1" s="139" t="s">
         <v>210</v>
       </c>
-      <c r="F1" s="141" t="s">
+      <c r="F1" s="136" t="s">
         <v>194</v>
       </c>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141" t="s">
+      <c r="G1" s="136"/>
+      <c r="H1" s="136" t="s">
         <v>186</v>
       </c>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141" t="s">
+      <c r="I1" s="136"/>
+      <c r="J1" s="136" t="s">
         <v>297</v>
       </c>
-      <c r="K1" s="141"/>
-      <c r="L1" s="139" t="s">
+      <c r="K1" s="136"/>
+      <c r="L1" s="141" t="s">
         <v>190</v>
       </c>
-      <c r="M1" s="140"/>
-      <c r="N1" s="139" t="s">
+      <c r="M1" s="142"/>
+      <c r="N1" s="141" t="s">
         <v>200</v>
       </c>
-      <c r="O1" s="140"/>
-      <c r="P1" s="141" t="s">
+      <c r="O1" s="142"/>
+      <c r="P1" s="136" t="s">
         <v>191</v>
       </c>
-      <c r="Q1" s="141"/>
-      <c r="R1" s="141" t="s">
+      <c r="Q1" s="136"/>
+      <c r="R1" s="136" t="s">
         <v>204</v>
       </c>
-      <c r="S1" s="141"/>
-      <c r="T1" s="139" t="s">
+      <c r="S1" s="136"/>
+      <c r="T1" s="141" t="s">
         <v>192</v>
       </c>
-      <c r="U1" s="140"/>
-      <c r="V1" s="141" t="s">
+      <c r="U1" s="142"/>
+      <c r="V1" s="136" t="s">
         <v>203</v>
       </c>
-      <c r="W1" s="141"/>
-      <c r="X1" s="139" t="s">
+      <c r="W1" s="136"/>
+      <c r="X1" s="141" t="s">
         <v>193</v>
       </c>
-      <c r="Y1" s="140"/>
-      <c r="Z1" s="141" t="s">
+      <c r="Y1" s="142"/>
+      <c r="Z1" s="136" t="s">
         <v>195</v>
       </c>
-      <c r="AA1" s="141"/>
-      <c r="AB1" s="141" t="s">
+      <c r="AA1" s="136"/>
+      <c r="AB1" s="136" t="s">
         <v>196</v>
       </c>
-      <c r="AC1" s="141"/>
-      <c r="AD1" s="141" t="s">
+      <c r="AC1" s="136"/>
+      <c r="AD1" s="136" t="s">
         <v>197</v>
       </c>
-      <c r="AE1" s="141"/>
-      <c r="AF1" s="141" t="s">
+      <c r="AE1" s="136"/>
+      <c r="AF1" s="136" t="s">
         <v>294</v>
       </c>
-      <c r="AG1" s="141"/>
-      <c r="AH1" s="141" t="s">
+      <c r="AG1" s="136"/>
+      <c r="AH1" s="136" t="s">
         <v>208</v>
       </c>
-      <c r="AI1" s="141"/>
-      <c r="AJ1" s="141" t="s">
+      <c r="AI1" s="136"/>
+      <c r="AJ1" s="136" t="s">
         <v>199</v>
       </c>
-      <c r="AK1" s="141"/>
-      <c r="AL1" s="141" t="s">
+      <c r="AK1" s="136"/>
+      <c r="AL1" s="136" t="s">
         <v>201</v>
       </c>
-      <c r="AM1" s="141"/>
-      <c r="AN1" s="141" t="s">
+      <c r="AM1" s="136"/>
+      <c r="AN1" s="136" t="s">
         <v>202</v>
       </c>
-      <c r="AO1" s="141"/>
-      <c r="AP1" s="139" t="s">
+      <c r="AO1" s="136"/>
+      <c r="AP1" s="141" t="s">
         <v>205</v>
       </c>
-      <c r="AQ1" s="140"/>
-      <c r="AR1" s="141" t="s">
+      <c r="AQ1" s="142"/>
+      <c r="AR1" s="136" t="s">
         <v>206</v>
       </c>
-      <c r="AS1" s="141"/>
-      <c r="AT1" s="141" t="s">
+      <c r="AS1" s="136"/>
+      <c r="AT1" s="136" t="s">
         <v>207</v>
       </c>
-      <c r="AU1" s="141"/>
-      <c r="AV1" s="137" t="s">
+      <c r="AU1" s="136"/>
+      <c r="AV1" s="154" t="s">
         <v>292</v>
       </c>
-      <c r="AW1" s="138"/>
-      <c r="AX1" s="139" t="s">
+      <c r="AW1" s="155"/>
+      <c r="AX1" s="141" t="s">
         <v>291</v>
       </c>
-      <c r="AY1" s="140"/>
-    </row>
-    <row r="2" spans="1:51" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="153"/>
-      <c r="B2" s="155"/>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
+      <c r="AY1" s="142"/>
+    </row>
+    <row r="2" spans="1:51" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="138"/>
+      <c r="B2" s="140"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
       <c r="F2" s="21" t="s">
         <v>188</v>
       </c>
@@ -14694,7 +14701,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="3" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26">
         <v>1</v>
       </c>
@@ -14762,7 +14769,7 @@
       <c r="AX3" s="21"/>
       <c r="AY3" s="21"/>
     </row>
-    <row r="4" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="26">
         <v>2</v>
       </c>
@@ -14830,7 +14837,7 @@
       <c r="AX4" s="21"/>
       <c r="AY4" s="21"/>
     </row>
-    <row r="5" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="26">
         <v>3</v>
       </c>
@@ -14898,7 +14905,7 @@
       <c r="AX5" s="21"/>
       <c r="AY5" s="21"/>
     </row>
-    <row r="6" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="26">
         <v>4</v>
       </c>
@@ -14970,7 +14977,7 @@
       <c r="AX6" s="21"/>
       <c r="AY6" s="21"/>
     </row>
-    <row r="7" spans="1:51" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:51" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="26">
         <v>5</v>
       </c>
@@ -15046,7 +15053,7 @@
       <c r="AX7" s="21"/>
       <c r="AY7" s="21"/>
     </row>
-    <row r="8" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="26">
         <v>6</v>
       </c>
@@ -15122,7 +15129,7 @@
       <c r="AX8" s="21"/>
       <c r="AY8" s="21"/>
     </row>
-    <row r="9" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="26">
         <v>7</v>
       </c>
@@ -15198,7 +15205,7 @@
       <c r="AX9" s="21"/>
       <c r="AY9" s="21"/>
     </row>
-    <row r="10" spans="1:51" s="30" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:51" s="30" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="28">
         <v>8</v>
       </c>
@@ -15280,7 +15287,7 @@
       <c r="AX10" s="20"/>
       <c r="AY10" s="20"/>
     </row>
-    <row r="11" spans="1:51" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:51" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="26">
         <v>9</v>
       </c>
@@ -15356,7 +15363,7 @@
       <c r="AX11" s="21"/>
       <c r="AY11" s="21"/>
     </row>
-    <row r="12" spans="1:51" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:51" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="26">
         <v>10</v>
       </c>
@@ -15432,7 +15439,7 @@
       <c r="AX12" s="21"/>
       <c r="AY12" s="21"/>
     </row>
-    <row r="13" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="26">
         <v>11</v>
       </c>
@@ -15508,7 +15515,7 @@
       <c r="AX13" s="21"/>
       <c r="AY13" s="21"/>
     </row>
-    <row r="14" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="26">
         <v>12</v>
       </c>
@@ -15584,7 +15591,7 @@
       <c r="AX14" s="21"/>
       <c r="AY14" s="21"/>
     </row>
-    <row r="15" spans="1:51" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:51" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="26">
         <v>13</v>
       </c>
@@ -15665,7 +15672,7 @@
       <c r="AX15" s="21"/>
       <c r="AY15" s="21"/>
     </row>
-    <row r="16" spans="1:51" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:51" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="26">
         <v>14</v>
       </c>
@@ -15741,7 +15748,7 @@
       <c r="AX16" s="21"/>
       <c r="AY16" s="21"/>
     </row>
-    <row r="17" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="26">
         <v>15</v>
       </c>
@@ -15817,7 +15824,7 @@
       <c r="AX17" s="21"/>
       <c r="AY17" s="21"/>
     </row>
-    <row r="18" spans="1:51" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:51" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="26">
         <v>16</v>
       </c>
@@ -15893,7 +15900,7 @@
       <c r="AX18" s="21"/>
       <c r="AY18" s="21"/>
     </row>
-    <row r="19" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="26">
         <v>17</v>
       </c>
@@ -15973,7 +15980,7 @@
       <c r="AX19" s="21"/>
       <c r="AY19" s="21"/>
     </row>
-    <row r="20" spans="1:51" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:51" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="26">
         <v>18</v>
       </c>
@@ -16053,7 +16060,7 @@
       <c r="AX20" s="21"/>
       <c r="AY20" s="21"/>
     </row>
-    <row r="21" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="26">
         <v>19</v>
       </c>
@@ -16129,7 +16136,7 @@
       <c r="AX21" s="21"/>
       <c r="AY21" s="21"/>
     </row>
-    <row r="22" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="26">
         <v>20</v>
       </c>
@@ -16248,7 +16255,7 @@
       <c r="AX22" s="21"/>
       <c r="AY22" s="21"/>
     </row>
-    <row r="23" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="26">
         <v>21</v>
       </c>
@@ -16350,7 +16357,7 @@
       <c r="AX23" s="21"/>
       <c r="AY23" s="21"/>
     </row>
-    <row r="24" spans="1:51" s="30" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:51" s="30" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="28">
         <v>22</v>
       </c>
@@ -16444,7 +16451,7 @@
       <c r="AX24" s="20"/>
       <c r="AY24" s="20"/>
     </row>
-    <row r="25" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="26">
         <v>23</v>
       </c>
@@ -16538,7 +16545,7 @@
       <c r="AX25" s="21"/>
       <c r="AY25" s="21"/>
     </row>
-    <row r="26" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="26">
         <v>24</v>
       </c>
@@ -16615,7 +16622,7 @@
       <c r="AX26" s="21"/>
       <c r="AY26" s="21"/>
     </row>
-    <row r="27" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="26">
         <v>25</v>
       </c>
@@ -16696,7 +16703,7 @@
       <c r="AX27" s="21"/>
       <c r="AY27" s="21"/>
     </row>
-    <row r="28" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="26">
         <v>26</v>
       </c>
@@ -16784,7 +16791,7 @@
       <c r="AX28" s="21"/>
       <c r="AY28" s="21"/>
     </row>
-    <row r="29" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="26">
         <v>27</v>
       </c>
@@ -16868,7 +16875,7 @@
       <c r="AX29" s="21"/>
       <c r="AY29" s="21"/>
     </row>
-    <row r="30" spans="1:51" s="30" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:51" s="30" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="28">
         <v>28</v>
       </c>
@@ -16974,7 +16981,7 @@
       <c r="AX30" s="20"/>
       <c r="AY30" s="20"/>
     </row>
-    <row r="31" spans="1:51" s="30" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:51" s="30" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="28">
         <v>29</v>
       </c>
@@ -17090,7 +17097,7 @@
       <c r="AX31" s="20"/>
       <c r="AY31" s="20"/>
     </row>
-    <row r="32" spans="1:51" s="30" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:51" s="30" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="28">
         <v>30</v>
       </c>
@@ -17184,7 +17191,7 @@
       <c r="AX32" s="20"/>
       <c r="AY32" s="20"/>
     </row>
-    <row r="33" spans="1:51" s="30" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:51" s="30" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="28">
         <v>31</v>
       </c>
@@ -17261,7 +17268,7 @@
       <c r="AX33" s="20"/>
       <c r="AY33" s="20"/>
     </row>
-    <row r="34" spans="1:51" s="30" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:51" s="30" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="28">
         <v>32</v>
       </c>
@@ -17353,7 +17360,7 @@
       <c r="AX34" s="20"/>
       <c r="AY34" s="20"/>
     </row>
-    <row r="35" spans="1:51" s="30" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:51" s="30" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="28">
         <v>33</v>
       </c>
@@ -17430,7 +17437,7 @@
       <c r="AX35" s="20"/>
       <c r="AY35" s="20"/>
     </row>
-    <row r="36" spans="1:51" s="30" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:51" s="30" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="28">
         <v>34</v>
       </c>
@@ -17507,7 +17514,7 @@
       <c r="AX36" s="20"/>
       <c r="AY36" s="20"/>
     </row>
-    <row r="37" spans="1:51" s="30" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:51" s="30" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="28">
         <v>35</v>
       </c>
@@ -17584,7 +17591,7 @@
       <c r="AX37" s="20"/>
       <c r="AY37" s="20"/>
     </row>
-    <row r="38" spans="1:51" s="30" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:51" s="30" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="28">
         <v>36</v>
       </c>
@@ -17661,7 +17668,7 @@
       <c r="AX38" s="20"/>
       <c r="AY38" s="20"/>
     </row>
-    <row r="39" spans="1:51" s="30" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:51" s="30" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="28">
         <v>37</v>
       </c>
@@ -17759,7 +17766,7 @@
       <c r="AX39" s="20"/>
       <c r="AY39" s="20"/>
     </row>
-    <row r="40" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="26">
         <v>38</v>
       </c>
@@ -17821,7 +17828,7 @@
       <c r="AX40" s="21"/>
       <c r="AY40" s="21"/>
     </row>
-    <row r="41" spans="1:51" s="30" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:51" s="30" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="28">
         <v>39</v>
       </c>
@@ -17924,7 +17931,7 @@
       <c r="AX41" s="20"/>
       <c r="AY41" s="20"/>
     </row>
-    <row r="42" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="26">
         <v>40</v>
       </c>
@@ -18015,7 +18022,7 @@
       <c r="AX42" s="21"/>
       <c r="AY42" s="21"/>
     </row>
-    <row r="43" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="26">
         <v>41</v>
       </c>
@@ -18110,7 +18117,7 @@
       <c r="AX43" s="21"/>
       <c r="AY43" s="21"/>
     </row>
-    <row r="44" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="26">
         <v>42</v>
       </c>
@@ -18192,7 +18199,7 @@
       <c r="AX44" s="21"/>
       <c r="AY44" s="21"/>
     </row>
-    <row r="45" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="26">
         <v>43</v>
       </c>
@@ -18288,7 +18295,7 @@
       <c r="AX45" s="21"/>
       <c r="AY45" s="21"/>
     </row>
-    <row r="46" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="26">
         <v>44</v>
       </c>
@@ -18366,7 +18373,7 @@
       <c r="AX46" s="21"/>
       <c r="AY46" s="21"/>
     </row>
-    <row r="47" spans="1:51" s="30" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:51" s="30" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="28">
         <v>45</v>
       </c>
@@ -18464,7 +18471,7 @@
       <c r="AX47" s="20"/>
       <c r="AY47" s="20"/>
     </row>
-    <row r="48" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="26">
         <v>46</v>
       </c>
@@ -18540,7 +18547,7 @@
       <c r="AX48" s="21"/>
       <c r="AY48" s="21"/>
     </row>
-    <row r="49" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="26">
         <v>47</v>
       </c>
@@ -18620,7 +18627,7 @@
       <c r="AX49" s="21"/>
       <c r="AY49" s="21"/>
     </row>
-    <row r="50" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="26">
         <v>48</v>
       </c>
@@ -18763,7 +18770,7 @@
       <c r="AX50" s="21"/>
       <c r="AY50" s="21"/>
     </row>
-    <row r="51" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="26">
         <v>49</v>
       </c>
@@ -18882,7 +18889,7 @@
       <c r="AX51" s="21"/>
       <c r="AY51" s="21"/>
     </row>
-    <row r="52" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="26">
         <v>50</v>
       </c>
@@ -18987,7 +18994,7 @@
       <c r="AX52" s="21"/>
       <c r="AY52" s="21"/>
     </row>
-    <row r="53" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="26">
         <v>51</v>
       </c>
@@ -19081,7 +19088,7 @@
       <c r="AX53" s="21"/>
       <c r="AY53" s="21"/>
     </row>
-    <row r="54" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="26">
         <v>52</v>
       </c>
@@ -19181,7 +19188,7 @@
       <c r="AX54" s="21"/>
       <c r="AY54" s="21"/>
     </row>
-    <row r="55" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="26">
         <v>53</v>
       </c>
@@ -19253,7 +19260,7 @@
       <c r="AX55" s="21"/>
       <c r="AY55" s="21"/>
     </row>
-    <row r="56" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="26">
         <v>54</v>
       </c>
@@ -19329,7 +19336,7 @@
       <c r="AX56" s="21"/>
       <c r="AY56" s="21"/>
     </row>
-    <row r="57" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="26">
         <v>55</v>
       </c>
@@ -19429,7 +19436,7 @@
       <c r="AX57" s="21"/>
       <c r="AY57" s="21"/>
     </row>
-    <row r="58" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="26">
         <v>56</v>
       </c>
@@ -19521,7 +19528,7 @@
       <c r="AX58" s="21"/>
       <c r="AY58" s="21"/>
     </row>
-    <row r="59" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="26">
         <v>57</v>
       </c>
@@ -19593,7 +19600,7 @@
       <c r="AX59" s="21"/>
       <c r="AY59" s="21"/>
     </row>
-    <row r="60" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="26">
         <v>58</v>
       </c>
@@ -19669,7 +19676,7 @@
       <c r="AX60" s="21"/>
       <c r="AY60" s="21"/>
     </row>
-    <row r="61" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="26">
         <v>59</v>
       </c>
@@ -19751,7 +19758,7 @@
       <c r="AX61" s="21"/>
       <c r="AY61" s="21"/>
     </row>
-    <row r="62" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="26">
         <v>60</v>
       </c>
@@ -19872,7 +19879,7 @@
       <c r="AX62" s="21"/>
       <c r="AY62" s="21"/>
     </row>
-    <row r="63" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="26">
         <v>61</v>
       </c>
@@ -19991,7 +19998,7 @@
       <c r="AX63" s="21"/>
       <c r="AY63" s="21"/>
     </row>
-    <row r="64" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="26">
         <v>62</v>
       </c>
@@ -20108,7 +20115,7 @@
       <c r="AX64" s="21"/>
       <c r="AY64" s="21"/>
     </row>
-    <row r="65" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="26">
         <v>63</v>
       </c>
@@ -20194,7 +20201,7 @@
       <c r="AX65" s="21"/>
       <c r="AY65" s="21"/>
     </row>
-    <row r="66" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="26">
         <v>64</v>
       </c>
@@ -20278,7 +20285,7 @@
       <c r="AX66" s="21"/>
       <c r="AY66" s="21"/>
     </row>
-    <row r="67" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="26">
         <v>65</v>
       </c>
@@ -20366,7 +20373,7 @@
       <c r="AX67" s="21"/>
       <c r="AY67" s="21"/>
     </row>
-    <row r="68" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="26">
         <v>66</v>
       </c>
@@ -20438,7 +20445,7 @@
       <c r="AX68" s="21"/>
       <c r="AY68" s="21"/>
     </row>
-    <row r="69" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="26">
         <v>67</v>
       </c>
@@ -20510,7 +20517,7 @@
       <c r="AX69" s="21"/>
       <c r="AY69" s="21"/>
     </row>
-    <row r="70" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="26">
         <v>68</v>
       </c>
@@ -20586,7 +20593,7 @@
       <c r="AX70" s="21"/>
       <c r="AY70" s="21"/>
     </row>
-    <row r="71" spans="1:51" s="30" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:51" s="30" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="28">
         <v>69</v>
       </c>
@@ -20677,7 +20684,7 @@
       <c r="AX71" s="20"/>
       <c r="AY71" s="20"/>
     </row>
-    <row r="72" spans="1:51" s="30" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:51" s="30" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="28">
         <v>70</v>
       </c>
@@ -20791,7 +20798,7 @@
       <c r="AX72" s="20"/>
       <c r="AY72" s="20"/>
     </row>
-    <row r="73" spans="1:51" s="30" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:51" s="30" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="28">
         <v>71</v>
       </c>
@@ -20859,7 +20866,7 @@
       <c r="AX73" s="20"/>
       <c r="AY73" s="20"/>
     </row>
-    <row r="74" spans="1:51" s="30" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:51" s="30" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="28">
         <v>72</v>
       </c>
@@ -20979,7 +20986,7 @@
       <c r="AX74" s="20"/>
       <c r="AY74" s="20"/>
     </row>
-    <row r="75" spans="1:51" s="30" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:51" s="30" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="28">
         <v>73</v>
       </c>
@@ -21085,7 +21092,7 @@
       <c r="AX75" s="20"/>
       <c r="AY75" s="20"/>
     </row>
-    <row r="76" spans="1:51" s="30" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:51" s="30" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="28">
         <v>74</v>
       </c>
@@ -21149,7 +21156,7 @@
       <c r="AX76" s="20"/>
       <c r="AY76" s="20"/>
     </row>
-    <row r="77" spans="1:51" s="30" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:51" s="30" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="28">
         <v>75</v>
       </c>
@@ -21268,7 +21275,7 @@
       <c r="AX77" s="20"/>
       <c r="AY77" s="20"/>
     </row>
-    <row r="78" spans="1:51" s="30" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:51" s="30" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="28">
         <v>76</v>
       </c>
@@ -21381,7 +21388,7 @@
       <c r="AX78" s="20"/>
       <c r="AY78" s="20"/>
     </row>
-    <row r="79" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="26">
         <v>77</v>
       </c>
@@ -21457,7 +21464,7 @@
       <c r="AX79" s="21"/>
       <c r="AY79" s="21"/>
     </row>
-    <row r="80" spans="1:51" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:51" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="26">
         <v>78</v>
       </c>
@@ -21555,7 +21562,7 @@
       <c r="AX80" s="21"/>
       <c r="AY80" s="21"/>
     </row>
-    <row r="81" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="26">
         <v>79</v>
       </c>
@@ -21631,7 +21638,7 @@
       <c r="AX81" s="21"/>
       <c r="AY81" s="21"/>
     </row>
-    <row r="82" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="26">
         <v>80</v>
       </c>
@@ -21707,7 +21714,7 @@
       <c r="AX82" s="21"/>
       <c r="AY82" s="21"/>
     </row>
-    <row r="83" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="26">
         <v>81</v>
       </c>
@@ -21783,7 +21790,7 @@
       <c r="AX83" s="21"/>
       <c r="AY83" s="21"/>
     </row>
-    <row r="84" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="26">
         <v>82</v>
       </c>
@@ -21859,7 +21866,7 @@
       <c r="AX84" s="21"/>
       <c r="AY84" s="21"/>
     </row>
-    <row r="85" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="26">
         <v>83</v>
       </c>
@@ -21979,7 +21986,7 @@
       <c r="AX85" s="21"/>
       <c r="AY85" s="21"/>
     </row>
-    <row r="86" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="26">
         <v>84</v>
       </c>
@@ -22086,7 +22093,7 @@
       <c r="AX86" s="21"/>
       <c r="AY86" s="21"/>
     </row>
-    <row r="87" spans="1:51" s="30" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:51" s="30" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="28">
         <v>85</v>
       </c>
@@ -22194,7 +22201,7 @@
       <c r="AX87" s="20"/>
       <c r="AY87" s="20"/>
     </row>
-    <row r="88" spans="1:51" s="30" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:51" s="30" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="28">
         <v>86</v>
       </c>
@@ -22309,7 +22316,7 @@
       <c r="AX88" s="20"/>
       <c r="AY88" s="20"/>
     </row>
-    <row r="89" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="26">
         <v>87</v>
       </c>
@@ -22373,7 +22380,7 @@
       <c r="AX89" s="21"/>
       <c r="AY89" s="21"/>
     </row>
-    <row r="90" spans="1:51" s="30" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:51" s="30" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="28">
         <v>88</v>
       </c>
@@ -22481,7 +22488,7 @@
       <c r="AX90" s="20"/>
       <c r="AY90" s="20"/>
     </row>
-    <row r="91" spans="1:51" s="30" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:51" s="30" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="28">
         <v>89</v>
       </c>
@@ -22587,7 +22594,7 @@
       <c r="AX91" s="20"/>
       <c r="AY91" s="20"/>
     </row>
-    <row r="92" spans="1:51" s="30" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:51" s="30" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="28">
         <v>90</v>
       </c>
@@ -22669,7 +22676,7 @@
       <c r="AX92" s="20"/>
       <c r="AY92" s="20"/>
     </row>
-    <row r="93" spans="1:51" s="30" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:51" s="30" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="28">
         <v>91</v>
       </c>
@@ -22782,7 +22789,7 @@
       <c r="AX93" s="20"/>
       <c r="AY93" s="20"/>
     </row>
-    <row r="94" spans="1:51" s="30" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:51" s="30" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="28">
         <v>92</v>
       </c>
@@ -22884,7 +22891,7 @@
       <c r="AX94" s="20"/>
       <c r="AY94" s="20"/>
     </row>
-    <row r="95" spans="1:51" s="30" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:51" s="30" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="28">
         <v>93</v>
       </c>
@@ -22997,7 +23004,7 @@
       <c r="AX95" s="20"/>
       <c r="AY95" s="20"/>
     </row>
-    <row r="96" spans="1:51" s="30" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:51" s="30" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="28">
         <v>94</v>
       </c>
@@ -23116,7 +23123,7 @@
       </c>
       <c r="AY96" s="20"/>
     </row>
-    <row r="97" spans="1:51" s="30" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:51" s="30" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="28">
         <v>95</v>
       </c>
@@ -23230,7 +23237,7 @@
       <c r="AX97" s="20"/>
       <c r="AY97" s="20"/>
     </row>
-    <row r="98" spans="1:51" s="30" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:51" s="30" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="28">
         <v>96</v>
       </c>
@@ -23300,7 +23307,7 @@
       <c r="AX98" s="20"/>
       <c r="AY98" s="20"/>
     </row>
-    <row r="99" spans="1:51" s="30" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:51" s="30" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="28">
         <v>97</v>
       </c>
@@ -23368,7 +23375,7 @@
       <c r="AX99" s="20"/>
       <c r="AY99" s="20"/>
     </row>
-    <row r="100" spans="1:51" s="30" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:51" s="30" customFormat="1" ht="36" x14ac:dyDescent="0.3">
       <c r="A100" s="28">
         <v>98</v>
       </c>
@@ -23465,7 +23472,7 @@
       <c r="AX100" s="20"/>
       <c r="AY100" s="20"/>
     </row>
-    <row r="101" spans="1:51" s="30" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:51" s="30" customFormat="1" ht="36" x14ac:dyDescent="0.3">
       <c r="A101" s="28">
         <v>99</v>
       </c>
@@ -23558,7 +23565,7 @@
       <c r="AX101" s="20"/>
       <c r="AY101" s="20"/>
     </row>
-    <row r="102" spans="1:51" s="30" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:51" s="30" customFormat="1" ht="36" x14ac:dyDescent="0.3">
       <c r="A102" s="28">
         <v>100</v>
       </c>
@@ -23628,7 +23635,7 @@
       <c r="AX102" s="20"/>
       <c r="AY102" s="20"/>
     </row>
-    <row r="103" spans="1:51" s="30" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:51" s="30" customFormat="1" ht="36" x14ac:dyDescent="0.3">
       <c r="A103" s="28">
         <v>101</v>
       </c>
@@ -23698,7 +23705,7 @@
       <c r="AX103" s="20"/>
       <c r="AY103" s="20"/>
     </row>
-    <row r="104" spans="1:51" s="30" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:51" s="30" customFormat="1" ht="36" x14ac:dyDescent="0.3">
       <c r="A104" s="28">
         <v>102</v>
       </c>
@@ -23795,7 +23802,7 @@
       <c r="AX104" s="20"/>
       <c r="AY104" s="20"/>
     </row>
-    <row r="105" spans="1:51" s="30" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:51" s="30" customFormat="1" ht="36" x14ac:dyDescent="0.3">
       <c r="A105" s="28">
         <v>103</v>
       </c>
@@ -23884,7 +23891,7 @@
       <c r="AX105" s="20"/>
       <c r="AY105" s="20"/>
     </row>
-    <row r="106" spans="1:51" s="30" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:51" s="30" customFormat="1" ht="36" x14ac:dyDescent="0.3">
       <c r="A106" s="28">
         <v>104</v>
       </c>
@@ -23957,7 +23964,7 @@
       <c r="AX106" s="20"/>
       <c r="AY106" s="20"/>
     </row>
-    <row r="107" spans="1:51" s="30" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:51" s="30" customFormat="1" ht="36" x14ac:dyDescent="0.3">
       <c r="A107" s="28">
         <v>105</v>
       </c>
@@ -24023,7 +24030,7 @@
       <c r="AX107" s="20"/>
       <c r="AY107" s="20"/>
     </row>
-    <row r="108" spans="1:51" s="30" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:51" s="30" customFormat="1" ht="36" x14ac:dyDescent="0.3">
       <c r="A108" s="28">
         <v>106</v>
       </c>
@@ -24089,7 +24096,7 @@
       <c r="AX108" s="20"/>
       <c r="AY108" s="20"/>
     </row>
-    <row r="109" spans="1:51" s="30" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:51" s="30" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="28">
         <v>107</v>
       </c>
@@ -24157,7 +24164,7 @@
       <c r="AX109" s="20"/>
       <c r="AY109" s="20"/>
     </row>
-    <row r="110" spans="1:51" s="30" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:51" s="30" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="28">
         <v>108</v>
       </c>
@@ -24223,18 +24230,18 @@
       <c r="AX110" s="20"/>
       <c r="AY110" s="20"/>
     </row>
-    <row r="111" spans="1:51" s="33" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="142"/>
-      <c r="B111" s="145" t="s">
+    <row r="111" spans="1:51" s="33" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="143"/>
+      <c r="B111" s="146" t="s">
         <v>179</v>
       </c>
       <c r="C111" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="D111" s="148">
+      <c r="D111" s="149">
         <v>108</v>
       </c>
-      <c r="E111" s="149"/>
+      <c r="E111" s="150"/>
       <c r="F111" s="32"/>
       <c r="G111" s="32"/>
       <c r="H111" s="32"/>
@@ -24282,17 +24289,17 @@
       <c r="AX111" s="32"/>
       <c r="AY111" s="32"/>
     </row>
-    <row r="112" spans="1:51" s="33" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="143"/>
-      <c r="B112" s="146"/>
+    <row r="112" spans="1:51" s="33" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="144"/>
+      <c r="B112" s="147"/>
       <c r="C112" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D112" s="148">
+      <c r="D112" s="149">
         <f>SUM(D3:D110)</f>
         <v>412068.08</v>
       </c>
-      <c r="E112" s="149"/>
+      <c r="E112" s="150"/>
       <c r="F112" s="32"/>
       <c r="G112" s="32"/>
       <c r="H112" s="32"/>
@@ -24340,17 +24347,17 @@
       <c r="AX112" s="32"/>
       <c r="AY112" s="32"/>
     </row>
-    <row r="113" spans="1:51" s="33" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="144"/>
-      <c r="B113" s="147"/>
+    <row r="113" spans="1:51" s="33" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="145"/>
+      <c r="B113" s="148"/>
       <c r="C113" s="32" t="s">
         <v>209</v>
       </c>
-      <c r="D113" s="150">
+      <c r="D113" s="151">
         <f>SUM(F113:AU113)</f>
         <v>316971135.5094732</v>
       </c>
-      <c r="E113" s="151"/>
+      <c r="E113" s="152"/>
       <c r="F113" s="32">
         <f>SUM(F3:F110)</f>
         <v>60717358.309292637</v>
@@ -24536,32 +24543,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="34" t="s">
         <v>181</v>
       </c>
-      <c r="B115" s="136" t="s">
+      <c r="B115" s="153" t="s">
         <v>182</v>
       </c>
-      <c r="C115" s="136"/>
-      <c r="D115" s="136"/>
+      <c r="C115" s="153"/>
+      <c r="D115" s="153"/>
       <c r="E115" s="35"/>
     </row>
-    <row r="116" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="34" t="s">
         <v>183</v>
       </c>
-      <c r="B116" s="136" t="s">
+      <c r="B116" s="153" t="s">
         <v>184</v>
       </c>
-      <c r="C116" s="136"/>
-      <c r="D116" s="136"/>
+      <c r="C116" s="153"/>
+      <c r="D116" s="153"/>
       <c r="E116" s="35"/>
       <c r="G116" s="36"/>
       <c r="H116" s="36"/>
       <c r="I116" s="36"/>
     </row>
-    <row r="121" spans="1:51" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:51" ht="25.2" x14ac:dyDescent="0.3">
       <c r="B121" s="23" t="s">
         <v>185</v>
       </c>
@@ -24570,7 +24577,7 @@
       <c r="E121" s="23"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AY113">
+  <autoFilter ref="A1:AY113" xr:uid="{00000000-0009-0000-0000-000002000000}">
     <filterColumn colId="5" showButton="0"/>
     <filterColumn colId="7" showButton="0"/>
     <filterColumn colId="9" showButton="0"/>
@@ -24596,25 +24603,6 @@
     <filterColumn colId="49" showButton="0"/>
   </autoFilter>
   <mergeCells count="35">
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="A111:A113"/>
-    <mergeCell ref="B111:B113"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="D113:E113"/>
     <mergeCell ref="B115:D115"/>
     <mergeCell ref="B116:D116"/>
     <mergeCell ref="AV1:AW1"/>
@@ -24631,6 +24619,25 @@
     <mergeCell ref="V1:W1"/>
     <mergeCell ref="X1:Y1"/>
     <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="A111:A113"/>
+    <mergeCell ref="B111:B113"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="D113:E113"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" scale="52" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -24642,30 +24649,30 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="B2:Q110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="53"/>
-    <col min="3" max="3" width="47.28515625" style="53" customWidth="1"/>
-    <col min="4" max="4" width="58.85546875" style="53" customWidth="1"/>
+    <col min="1" max="2" width="9.109375" style="53"/>
+    <col min="3" max="3" width="47.33203125" style="53" customWidth="1"/>
+    <col min="4" max="4" width="58.88671875" style="53" customWidth="1"/>
     <col min="5" max="5" width="26" style="53" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="53" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" style="53" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" style="53" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" style="53" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="53"/>
+    <col min="6" max="6" width="14.44140625" style="53" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" style="53" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" style="53" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" style="53" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="53"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="F2" s="54">
         <v>44926</v>
       </c>
@@ -24679,7 +24686,7 @@
         <v>44926</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="53" t="s">
         <v>549</v>
       </c>
@@ -24696,7 +24703,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="56" t="s">
         <v>0</v>
       </c>
@@ -24722,7 +24729,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B5" s="62">
         <v>1</v>
       </c>
@@ -24748,7 +24755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B6" s="69">
         <v>2</v>
       </c>
@@ -24774,7 +24781,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="69">
         <v>3</v>
       </c>
@@ -24800,7 +24807,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B8" s="69">
         <v>4</v>
       </c>
@@ -24826,7 +24833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B9" s="69">
         <v>5</v>
       </c>
@@ -24852,7 +24859,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B10" s="69">
         <v>6</v>
       </c>
@@ -24878,7 +24885,7 @@
         <v>2648</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B11" s="69">
         <v>7</v>
       </c>
@@ -24904,7 +24911,7 @@
         <v>3941</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="69">
         <v>8</v>
       </c>
@@ -24930,7 +24937,7 @@
         <v>4247</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="69">
         <v>9</v>
       </c>
@@ -24956,7 +24963,7 @@
         <v>3572</v>
       </c>
     </row>
-    <row r="14" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B14" s="69">
         <v>10</v>
       </c>
@@ -24978,7 +24985,7 @@
       <c r="H14" s="70"/>
       <c r="I14" s="73"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="69">
         <v>11</v>
       </c>
@@ -25004,7 +25011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="69">
         <v>12</v>
       </c>
@@ -25030,7 +25037,7 @@
         <v>9851</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="69">
         <v>13</v>
       </c>
@@ -25056,7 +25063,7 @@
         <v>3167</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B18" s="69">
         <v>14</v>
       </c>
@@ -25082,7 +25089,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B19" s="69">
         <v>15</v>
       </c>
@@ -25108,7 +25115,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B20" s="69">
         <v>16</v>
       </c>
@@ -25134,7 +25141,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B21" s="69">
         <v>17</v>
       </c>
@@ -25160,7 +25167,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B22" s="69">
         <v>18</v>
       </c>
@@ -25186,7 +25193,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="69">
         <v>19</v>
       </c>
@@ -25212,7 +25219,7 @@
         <v>3517</v>
       </c>
     </row>
-    <row r="24" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="69">
         <v>20</v>
       </c>
@@ -25238,7 +25245,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B25" s="69">
         <v>21</v>
       </c>
@@ -25260,7 +25267,7 @@
       <c r="H25" s="70"/>
       <c r="I25" s="73"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="69">
         <v>22</v>
       </c>
@@ -25282,7 +25289,7 @@
       <c r="H26" s="70"/>
       <c r="I26" s="73"/>
     </row>
-    <row r="27" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B27" s="69">
         <v>23</v>
       </c>
@@ -25304,7 +25311,7 @@
       <c r="H27" s="70"/>
       <c r="I27" s="73"/>
     </row>
-    <row r="28" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B28" s="69">
         <v>24</v>
       </c>
@@ -25326,7 +25333,7 @@
       <c r="H28" s="70"/>
       <c r="I28" s="73"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="69">
         <v>25</v>
       </c>
@@ -25352,7 +25359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="69">
         <v>26</v>
       </c>
@@ -25374,7 +25381,7 @@
       <c r="H30" s="70"/>
       <c r="I30" s="73"/>
     </row>
-    <row r="31" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B31" s="69">
         <v>27</v>
       </c>
@@ -25394,7 +25401,7 @@
       <c r="H31" s="70"/>
       <c r="I31" s="73"/>
     </row>
-    <row r="32" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B32" s="69">
         <v>28</v>
       </c>
@@ -25416,7 +25423,7 @@
       <c r="H32" s="70"/>
       <c r="I32" s="73"/>
     </row>
-    <row r="33" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B33" s="69">
         <v>29</v>
       </c>
@@ -25436,7 +25443,7 @@
       <c r="H33" s="70"/>
       <c r="I33" s="73"/>
     </row>
-    <row r="34" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B34" s="69">
         <v>30</v>
       </c>
@@ -25458,7 +25465,7 @@
       <c r="H34" s="70"/>
       <c r="I34" s="73"/>
     </row>
-    <row r="35" spans="2:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" ht="72" x14ac:dyDescent="0.3">
       <c r="B35" s="69">
         <v>31</v>
       </c>
@@ -25480,7 +25487,7 @@
       <c r="H35" s="70"/>
       <c r="I35" s="73"/>
     </row>
-    <row r="36" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B36" s="69">
         <v>32</v>
       </c>
@@ -25502,7 +25509,7 @@
       <c r="H36" s="70"/>
       <c r="I36" s="73"/>
     </row>
-    <row r="37" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B37" s="69">
         <v>33</v>
       </c>
@@ -25524,7 +25531,7 @@
       <c r="H37" s="70"/>
       <c r="I37" s="73"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="69">
         <v>34</v>
       </c>
@@ -25546,7 +25553,7 @@
       <c r="H38" s="70"/>
       <c r="I38" s="73"/>
     </row>
-    <row r="39" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B39" s="69">
         <v>35</v>
       </c>
@@ -25568,7 +25575,7 @@
       <c r="H39" s="70"/>
       <c r="I39" s="73"/>
     </row>
-    <row r="40" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B40" s="69">
         <v>36</v>
       </c>
@@ -25590,7 +25597,7 @@
       <c r="H40" s="70"/>
       <c r="I40" s="73"/>
     </row>
-    <row r="41" spans="2:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" ht="144" x14ac:dyDescent="0.3">
       <c r="B41" s="69">
         <v>37</v>
       </c>
@@ -25612,7 +25619,7 @@
       <c r="H41" s="70"/>
       <c r="I41" s="73"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="69">
         <v>38</v>
       </c>
@@ -25634,7 +25641,7 @@
       <c r="H42" s="70"/>
       <c r="I42" s="73"/>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="69">
         <v>39</v>
       </c>
@@ -25654,7 +25661,7 @@
       <c r="H43" s="70"/>
       <c r="I43" s="73"/>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="69">
         <v>40</v>
       </c>
@@ -25676,7 +25683,7 @@
       <c r="H44" s="70"/>
       <c r="I44" s="73"/>
     </row>
-    <row r="45" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B45" s="69">
         <v>41</v>
       </c>
@@ -25698,7 +25705,7 @@
       <c r="H45" s="70"/>
       <c r="I45" s="73"/>
     </row>
-    <row r="46" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B46" s="69">
         <v>42</v>
       </c>
@@ -25720,7 +25727,7 @@
       <c r="H46" s="70"/>
       <c r="I46" s="73"/>
     </row>
-    <row r="47" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B47" s="69">
         <v>43</v>
       </c>
@@ -25742,7 +25749,7 @@
       <c r="H47" s="70"/>
       <c r="I47" s="73"/>
     </row>
-    <row r="48" spans="2:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B48" s="69">
         <v>44</v>
       </c>
@@ -25764,7 +25771,7 @@
       <c r="H48" s="70"/>
       <c r="I48" s="73"/>
     </row>
-    <row r="49" spans="2:17" ht="60" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:17" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B49" s="69">
         <v>45</v>
       </c>
@@ -25786,7 +25793,7 @@
       <c r="H49" s="70"/>
       <c r="I49" s="73"/>
     </row>
-    <row r="50" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B50" s="69">
         <v>46</v>
       </c>
@@ -25808,7 +25815,7 @@
       <c r="H50" s="70"/>
       <c r="I50" s="73"/>
     </row>
-    <row r="51" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B51" s="69">
         <v>47</v>
       </c>
@@ -25830,7 +25837,7 @@
       <c r="H51" s="70"/>
       <c r="I51" s="73"/>
     </row>
-    <row r="52" spans="2:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:17" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B52" s="69">
         <v>48</v>
       </c>
@@ -25852,7 +25859,7 @@
       <c r="H52" s="70"/>
       <c r="I52" s="73"/>
     </row>
-    <row r="53" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B53" s="69">
         <v>49</v>
       </c>
@@ -25874,7 +25881,7 @@
       <c r="H53" s="70"/>
       <c r="I53" s="73"/>
     </row>
-    <row r="54" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B54" s="69">
         <v>50</v>
       </c>
@@ -25894,7 +25901,7 @@
       <c r="H54" s="70"/>
       <c r="I54" s="73"/>
     </row>
-    <row r="55" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B55" s="69">
         <v>51</v>
       </c>
@@ -25916,7 +25923,7 @@
       <c r="H55" s="70"/>
       <c r="I55" s="73"/>
     </row>
-    <row r="56" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B56" s="69">
         <v>52</v>
       </c>
@@ -25938,7 +25945,7 @@
       <c r="H56" s="70"/>
       <c r="I56" s="73"/>
     </row>
-    <row r="57" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B57" s="69">
         <v>53</v>
       </c>
@@ -25960,7 +25967,7 @@
       <c r="H57" s="70"/>
       <c r="I57" s="73"/>
     </row>
-    <row r="58" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B58" s="69">
         <v>54</v>
       </c>
@@ -25988,7 +25995,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="2:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:17" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B59" s="69">
         <v>55</v>
       </c>
@@ -26010,7 +26017,7 @@
       <c r="H59" s="70"/>
       <c r="I59" s="73"/>
     </row>
-    <row r="60" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B60" s="69">
         <v>56</v>
       </c>
@@ -26032,7 +26039,7 @@
       <c r="H60" s="70"/>
       <c r="I60" s="73"/>
     </row>
-    <row r="61" spans="2:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:17" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B61" s="69">
         <v>57</v>
       </c>
@@ -26054,7 +26061,7 @@
       <c r="H61" s="70"/>
       <c r="I61" s="73"/>
     </row>
-    <row r="62" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B62" s="69">
         <v>58</v>
       </c>
@@ -26076,7 +26083,7 @@
       <c r="H62" s="70"/>
       <c r="I62" s="73"/>
     </row>
-    <row r="63" spans="2:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:17" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B63" s="69">
         <v>59</v>
       </c>
@@ -26098,7 +26105,7 @@
       <c r="H63" s="70"/>
       <c r="I63" s="73"/>
     </row>
-    <row r="64" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B64" s="69">
         <v>60</v>
       </c>
@@ -26120,7 +26127,7 @@
       <c r="H64" s="70"/>
       <c r="I64" s="73"/>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B65" s="69">
         <v>61</v>
       </c>
@@ -26142,7 +26149,7 @@
       <c r="H65" s="70"/>
       <c r="I65" s="73"/>
     </row>
-    <row r="66" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B66" s="69">
         <v>62</v>
       </c>
@@ -26166,7 +26173,7 @@
       <c r="J66" s="80"/>
       <c r="K66" s="80"/>
     </row>
-    <row r="67" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B67" s="69">
         <v>63</v>
       </c>
@@ -26188,7 +26195,7 @@
       <c r="H67" s="70"/>
       <c r="I67" s="73"/>
     </row>
-    <row r="68" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B68" s="69">
         <v>64</v>
       </c>
@@ -26210,7 +26217,7 @@
       <c r="H68" s="70"/>
       <c r="I68" s="73"/>
     </row>
-    <row r="69" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B69" s="69">
         <v>65</v>
       </c>
@@ -26232,7 +26239,7 @@
       <c r="H69" s="70"/>
       <c r="I69" s="73"/>
     </row>
-    <row r="70" spans="2:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B70" s="69">
         <v>66</v>
       </c>
@@ -26254,7 +26261,7 @@
       <c r="H70" s="70"/>
       <c r="I70" s="73"/>
     </row>
-    <row r="71" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B71" s="69">
         <v>67</v>
       </c>
@@ -26276,7 +26283,7 @@
       <c r="H71" s="70"/>
       <c r="I71" s="73"/>
     </row>
-    <row r="72" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B72" s="69">
         <v>68</v>
       </c>
@@ -26298,7 +26305,7 @@
       <c r="H72" s="70"/>
       <c r="I72" s="73"/>
     </row>
-    <row r="73" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B73" s="69">
         <v>69</v>
       </c>
@@ -26320,7 +26327,7 @@
       <c r="H73" s="70"/>
       <c r="I73" s="73"/>
     </row>
-    <row r="74" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B74" s="69">
         <v>70</v>
       </c>
@@ -26342,7 +26349,7 @@
       <c r="H74" s="70"/>
       <c r="I74" s="73"/>
     </row>
-    <row r="75" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B75" s="69">
         <v>71</v>
       </c>
@@ -26364,7 +26371,7 @@
       <c r="H75" s="70"/>
       <c r="I75" s="73"/>
     </row>
-    <row r="76" spans="2:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B76" s="69">
         <v>72</v>
       </c>
@@ -26386,7 +26393,7 @@
       <c r="H76" s="70"/>
       <c r="I76" s="73"/>
     </row>
-    <row r="77" spans="2:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B77" s="69">
         <v>73</v>
       </c>
@@ -26408,7 +26415,7 @@
       <c r="H77" s="70"/>
       <c r="I77" s="73"/>
     </row>
-    <row r="78" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B78" s="69">
         <v>74</v>
       </c>
@@ -26428,7 +26435,7 @@
       <c r="H78" s="70"/>
       <c r="I78" s="73"/>
     </row>
-    <row r="79" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B79" s="69">
         <v>75</v>
       </c>
@@ -26448,7 +26455,7 @@
       <c r="H79" s="70"/>
       <c r="I79" s="73"/>
     </row>
-    <row r="80" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B80" s="69">
         <v>76</v>
       </c>
@@ -26470,7 +26477,7 @@
       <c r="H80" s="70"/>
       <c r="I80" s="73"/>
     </row>
-    <row r="81" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B81" s="69">
         <v>77</v>
       </c>
@@ -26492,7 +26499,7 @@
       <c r="H81" s="70"/>
       <c r="I81" s="73"/>
     </row>
-    <row r="82" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B82" s="69">
         <v>78</v>
       </c>
@@ -26514,7 +26521,7 @@
       <c r="H82" s="70"/>
       <c r="I82" s="73"/>
     </row>
-    <row r="83" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B83" s="69">
         <v>79</v>
       </c>
@@ -26536,7 +26543,7 @@
       <c r="H83" s="70"/>
       <c r="I83" s="73"/>
     </row>
-    <row r="84" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B84" s="69">
         <v>80</v>
       </c>
@@ -26558,7 +26565,7 @@
       <c r="H84" s="70"/>
       <c r="I84" s="73"/>
     </row>
-    <row r="85" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B85" s="69">
         <v>81</v>
       </c>
@@ -26580,7 +26587,7 @@
       <c r="H85" s="70"/>
       <c r="I85" s="73"/>
     </row>
-    <row r="86" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B86" s="69">
         <v>82</v>
       </c>
@@ -26602,7 +26609,7 @@
       <c r="H86" s="70"/>
       <c r="I86" s="73"/>
     </row>
-    <row r="87" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B87" s="69">
         <v>83</v>
       </c>
@@ -26624,7 +26631,7 @@
       <c r="H87" s="70"/>
       <c r="I87" s="73"/>
     </row>
-    <row r="88" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B88" s="69">
         <v>84</v>
       </c>
@@ -26646,7 +26653,7 @@
       <c r="H88" s="70"/>
       <c r="I88" s="73"/>
     </row>
-    <row r="89" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B89" s="69">
         <v>85</v>
       </c>
@@ -26668,7 +26675,7 @@
       <c r="H89" s="70"/>
       <c r="I89" s="73"/>
     </row>
-    <row r="90" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B90" s="69">
         <v>86</v>
       </c>
@@ -26690,7 +26697,7 @@
       <c r="H90" s="70"/>
       <c r="I90" s="73"/>
     </row>
-    <row r="91" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B91" s="69">
         <v>87</v>
       </c>
@@ -26712,7 +26719,7 @@
       <c r="H91" s="70"/>
       <c r="I91" s="73"/>
     </row>
-    <row r="92" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B92" s="69">
         <v>88</v>
       </c>
@@ -26734,7 +26741,7 @@
       <c r="H92" s="70"/>
       <c r="I92" s="73"/>
     </row>
-    <row r="93" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B93" s="69">
         <v>89</v>
       </c>
@@ -26756,7 +26763,7 @@
       <c r="H93" s="70"/>
       <c r="I93" s="73"/>
     </row>
-    <row r="94" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B94" s="69">
         <v>90</v>
       </c>
@@ -26778,7 +26785,7 @@
       <c r="H94" s="70"/>
       <c r="I94" s="73"/>
     </row>
-    <row r="95" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B95" s="69">
         <v>91</v>
       </c>
@@ -26800,7 +26807,7 @@
       <c r="H95" s="70"/>
       <c r="I95" s="73"/>
     </row>
-    <row r="96" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B96" s="69">
         <v>92</v>
       </c>
@@ -26822,7 +26829,7 @@
       <c r="H96" s="70"/>
       <c r="I96" s="73"/>
     </row>
-    <row r="97" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" ht="72" x14ac:dyDescent="0.3">
       <c r="B97" s="69">
         <v>93</v>
       </c>
@@ -26844,7 +26851,7 @@
       <c r="H97" s="70"/>
       <c r="I97" s="73"/>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="69">
         <v>94</v>
       </c>
@@ -26866,7 +26873,7 @@
       <c r="H98" s="70"/>
       <c r="I98" s="73"/>
     </row>
-    <row r="99" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B99" s="69">
         <v>95</v>
       </c>
@@ -26888,7 +26895,7 @@
       <c r="H99" s="70"/>
       <c r="I99" s="73"/>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="69">
         <v>96</v>
       </c>
@@ -26910,7 +26917,7 @@
       <c r="H100" s="70"/>
       <c r="I100" s="73"/>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B101" s="69">
         <v>97</v>
       </c>
@@ -26932,7 +26939,7 @@
       <c r="H101" s="70"/>
       <c r="I101" s="73"/>
     </row>
-    <row r="102" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B102" s="69">
         <v>98</v>
       </c>
@@ -26954,7 +26961,7 @@
       <c r="H102" s="70"/>
       <c r="I102" s="73"/>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="69">
         <v>99</v>
       </c>
@@ -26976,7 +26983,7 @@
       <c r="H103" s="70"/>
       <c r="I103" s="73"/>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B104" s="69">
         <v>100</v>
       </c>
@@ -26996,7 +27003,7 @@
       <c r="H104" s="70"/>
       <c r="I104" s="73"/>
     </row>
-    <row r="105" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B105" s="69">
         <v>101</v>
       </c>
@@ -27018,7 +27025,7 @@
       <c r="H105" s="70"/>
       <c r="I105" s="73"/>
     </row>
-    <row r="106" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B106" s="69">
         <v>102</v>
       </c>
@@ -27040,7 +27047,7 @@
       <c r="H106" s="70"/>
       <c r="I106" s="73"/>
     </row>
-    <row r="107" spans="2:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B107" s="81">
         <v>103</v>
       </c>
@@ -27062,17 +27069,17 @@
       <c r="H107" s="82"/>
       <c r="I107" s="85"/>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
       <c r="G108" s="86"/>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
       <c r="G109" s="86"/>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
       <c r="G110" s="86"/>
     </row>
   </sheetData>
-  <autoFilter ref="B4:Q107"/>
+  <autoFilter ref="B4:Q107" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <mergeCells count="7">
     <mergeCell ref="D104:E104"/>
     <mergeCell ref="D31:E31"/>
@@ -27087,7 +27094,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="1"/>
@@ -27099,168 +27106,168 @@
       <selection pane="bottomLeft" activeCell="D1" sqref="D1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7" style="37" customWidth="1"/>
-    <col min="2" max="2" width="38.42578125" style="24" customWidth="1"/>
-    <col min="3" max="3" width="49.5703125" style="24" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" style="24" customWidth="1"/>
-    <col min="5" max="5" width="25.28515625" style="24" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" style="24" customWidth="1"/>
-    <col min="7" max="7" width="20.140625" style="24" customWidth="1"/>
-    <col min="8" max="9" width="18.28515625" style="24" customWidth="1"/>
-    <col min="10" max="11" width="20.140625" style="24" customWidth="1"/>
+    <col min="2" max="2" width="38.44140625" style="24" customWidth="1"/>
+    <col min="3" max="3" width="49.5546875" style="24" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" style="24" customWidth="1"/>
+    <col min="5" max="5" width="25.33203125" style="24" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" style="24" customWidth="1"/>
+    <col min="7" max="7" width="20.109375" style="24" customWidth="1"/>
+    <col min="8" max="9" width="18.33203125" style="24" customWidth="1"/>
+    <col min="10" max="11" width="20.109375" style="24" customWidth="1"/>
     <col min="12" max="13" width="16" style="24" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" style="24" customWidth="1"/>
-    <col min="15" max="15" width="18.28515625" style="24" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="24" customWidth="1"/>
-    <col min="17" max="17" width="18.28515625" style="24" customWidth="1"/>
-    <col min="18" max="18" width="11.85546875" style="24" customWidth="1"/>
+    <col min="14" max="14" width="11.5546875" style="24" customWidth="1"/>
+    <col min="15" max="15" width="18.33203125" style="24" customWidth="1"/>
+    <col min="16" max="16" width="13.44140625" style="24" customWidth="1"/>
+    <col min="17" max="17" width="18.33203125" style="24" customWidth="1"/>
+    <col min="18" max="18" width="11.88671875" style="24" customWidth="1"/>
     <col min="19" max="19" width="16" style="24" customWidth="1"/>
-    <col min="20" max="21" width="18.28515625" style="24" customWidth="1"/>
+    <col min="20" max="21" width="18.33203125" style="24" customWidth="1"/>
     <col min="22" max="22" width="16" style="24" customWidth="1"/>
-    <col min="23" max="25" width="18.28515625" style="24" customWidth="1"/>
-    <col min="26" max="26" width="13.42578125" style="24" customWidth="1"/>
-    <col min="27" max="27" width="18.28515625" style="24" customWidth="1"/>
+    <col min="23" max="25" width="18.33203125" style="24" customWidth="1"/>
+    <col min="26" max="26" width="13.44140625" style="24" customWidth="1"/>
+    <col min="27" max="27" width="18.33203125" style="24" customWidth="1"/>
     <col min="28" max="29" width="16" style="24" customWidth="1"/>
-    <col min="30" max="30" width="16.7109375" style="24" customWidth="1"/>
-    <col min="31" max="31" width="15.140625" style="24" customWidth="1"/>
-    <col min="32" max="32" width="27.28515625" style="24" customWidth="1"/>
+    <col min="30" max="30" width="16.6640625" style="24" customWidth="1"/>
+    <col min="31" max="31" width="15.109375" style="24" customWidth="1"/>
+    <col min="32" max="32" width="27.33203125" style="24" customWidth="1"/>
     <col min="33" max="33" width="30" style="24" customWidth="1"/>
     <col min="34" max="34" width="28" style="24" customWidth="1"/>
-    <col min="35" max="35" width="26.28515625" style="24" customWidth="1"/>
-    <col min="36" max="36" width="20.5703125" style="24" customWidth="1"/>
-    <col min="37" max="37" width="26.140625" style="24" customWidth="1"/>
-    <col min="38" max="38" width="55.140625" style="24" customWidth="1"/>
-    <col min="39" max="39" width="33.85546875" style="24" customWidth="1"/>
-    <col min="40" max="40" width="31.28515625" style="24" customWidth="1"/>
-    <col min="41" max="41" width="18.42578125" style="24" customWidth="1"/>
-    <col min="42" max="42" width="15.7109375" style="24" customWidth="1"/>
-    <col min="43" max="43" width="14.140625" style="24" customWidth="1"/>
-    <col min="44" max="45" width="20.140625" style="24" customWidth="1"/>
+    <col min="35" max="35" width="26.33203125" style="24" customWidth="1"/>
+    <col min="36" max="36" width="20.5546875" style="24" customWidth="1"/>
+    <col min="37" max="37" width="26.109375" style="24" customWidth="1"/>
+    <col min="38" max="38" width="55.109375" style="24" customWidth="1"/>
+    <col min="39" max="39" width="33.88671875" style="24" customWidth="1"/>
+    <col min="40" max="40" width="31.33203125" style="24" customWidth="1"/>
+    <col min="41" max="41" width="18.44140625" style="24" customWidth="1"/>
+    <col min="42" max="42" width="15.6640625" style="24" customWidth="1"/>
+    <col min="43" max="43" width="14.109375" style="24" customWidth="1"/>
+    <col min="44" max="45" width="20.109375" style="24" customWidth="1"/>
     <col min="46" max="47" width="16" style="24" customWidth="1"/>
-    <col min="48" max="48" width="16.7109375" style="24" customWidth="1"/>
-    <col min="49" max="49" width="18.42578125" style="24" customWidth="1"/>
-    <col min="50" max="50" width="16.28515625" style="24" customWidth="1"/>
+    <col min="48" max="48" width="16.6640625" style="24" customWidth="1"/>
+    <col min="49" max="49" width="18.44140625" style="24" customWidth="1"/>
+    <col min="50" max="50" width="16.33203125" style="24" customWidth="1"/>
     <col min="51" max="51" width="15" style="24" customWidth="1"/>
-    <col min="52" max="16384" width="9.140625" style="24"/>
+    <col min="52" max="16384" width="9.109375" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="152" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="154" t="s">
+    <row r="1" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="137" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="139" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="154" t="s">
+      <c r="C1" s="139" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="154" t="s">
+      <c r="D1" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="154" t="s">
+      <c r="E1" s="139" t="s">
         <v>210</v>
       </c>
-      <c r="F1" s="141" t="s">
+      <c r="F1" s="136" t="s">
         <v>194</v>
       </c>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141" t="s">
+      <c r="G1" s="136"/>
+      <c r="H1" s="136" t="s">
         <v>186</v>
       </c>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141" t="s">
+      <c r="I1" s="136"/>
+      <c r="J1" s="136" t="s">
         <v>550</v>
       </c>
-      <c r="K1" s="141"/>
-      <c r="L1" s="139" t="s">
+      <c r="K1" s="136"/>
+      <c r="L1" s="141" t="s">
         <v>190</v>
       </c>
-      <c r="M1" s="140"/>
-      <c r="N1" s="139" t="s">
+      <c r="M1" s="142"/>
+      <c r="N1" s="141" t="s">
         <v>200</v>
       </c>
-      <c r="O1" s="140"/>
-      <c r="P1" s="141" t="s">
+      <c r="O1" s="142"/>
+      <c r="P1" s="136" t="s">
         <v>191</v>
       </c>
-      <c r="Q1" s="141"/>
-      <c r="R1" s="141" t="s">
+      <c r="Q1" s="136"/>
+      <c r="R1" s="136" t="s">
         <v>204</v>
       </c>
-      <c r="S1" s="141"/>
-      <c r="T1" s="139" t="s">
+      <c r="S1" s="136"/>
+      <c r="T1" s="141" t="s">
         <v>192</v>
       </c>
-      <c r="U1" s="140"/>
-      <c r="V1" s="141" t="s">
+      <c r="U1" s="142"/>
+      <c r="V1" s="136" t="s">
         <v>203</v>
       </c>
-      <c r="W1" s="141"/>
-      <c r="X1" s="139" t="s">
+      <c r="W1" s="136"/>
+      <c r="X1" s="141" t="s">
         <v>193</v>
       </c>
-      <c r="Y1" s="140"/>
-      <c r="Z1" s="141" t="s">
+      <c r="Y1" s="142"/>
+      <c r="Z1" s="136" t="s">
         <v>195</v>
       </c>
-      <c r="AA1" s="141"/>
-      <c r="AB1" s="141" t="s">
+      <c r="AA1" s="136"/>
+      <c r="AB1" s="136" t="s">
         <v>196</v>
       </c>
-      <c r="AC1" s="141"/>
-      <c r="AD1" s="141" t="s">
+      <c r="AC1" s="136"/>
+      <c r="AD1" s="136" t="s">
         <v>197</v>
       </c>
-      <c r="AE1" s="141"/>
-      <c r="AF1" s="141" t="s">
+      <c r="AE1" s="136"/>
+      <c r="AF1" s="136" t="s">
         <v>294</v>
       </c>
-      <c r="AG1" s="141"/>
-      <c r="AH1" s="141" t="s">
+      <c r="AG1" s="136"/>
+      <c r="AH1" s="136" t="s">
         <v>208</v>
       </c>
-      <c r="AI1" s="141"/>
-      <c r="AJ1" s="141" t="s">
+      <c r="AI1" s="136"/>
+      <c r="AJ1" s="136" t="s">
         <v>199</v>
       </c>
-      <c r="AK1" s="141"/>
-      <c r="AL1" s="141" t="s">
+      <c r="AK1" s="136"/>
+      <c r="AL1" s="136" t="s">
         <v>201</v>
       </c>
-      <c r="AM1" s="141"/>
-      <c r="AN1" s="141" t="s">
+      <c r="AM1" s="136"/>
+      <c r="AN1" s="136" t="s">
         <v>202</v>
       </c>
-      <c r="AO1" s="141"/>
-      <c r="AP1" s="139" t="s">
+      <c r="AO1" s="136"/>
+      <c r="AP1" s="141" t="s">
         <v>205</v>
       </c>
-      <c r="AQ1" s="140"/>
-      <c r="AR1" s="141" t="s">
+      <c r="AQ1" s="142"/>
+      <c r="AR1" s="136" t="s">
         <v>206</v>
       </c>
-      <c r="AS1" s="141"/>
-      <c r="AT1" s="141" t="s">
+      <c r="AS1" s="136"/>
+      <c r="AT1" s="136" t="s">
         <v>207</v>
       </c>
-      <c r="AU1" s="141"/>
-      <c r="AV1" s="137" t="s">
+      <c r="AU1" s="136"/>
+      <c r="AV1" s="154" t="s">
         <v>292</v>
       </c>
-      <c r="AW1" s="138"/>
-      <c r="AX1" s="139" t="s">
+      <c r="AW1" s="155"/>
+      <c r="AX1" s="141" t="s">
         <v>291</v>
       </c>
-      <c r="AY1" s="140"/>
-    </row>
-    <row r="2" spans="1:51" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="153"/>
-      <c r="B2" s="155"/>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
+      <c r="AY1" s="142"/>
+    </row>
+    <row r="2" spans="1:51" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="138"/>
+      <c r="B2" s="140"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
       <c r="F2" s="25" t="s">
         <v>188</v>
       </c>
@@ -27400,7 +27407,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="3" spans="1:51" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:51" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="40"/>
       <c r="B3" s="52" t="s">
         <v>298</v>
@@ -27455,7 +27462,7 @@
       <c r="AX3" s="39"/>
       <c r="AY3" s="39"/>
     </row>
-    <row r="4" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="26">
         <v>1</v>
       </c>
@@ -27523,7 +27530,7 @@
       <c r="AX4" s="39"/>
       <c r="AY4" s="39"/>
     </row>
-    <row r="5" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="26">
         <v>2</v>
       </c>
@@ -27591,7 +27598,7 @@
       <c r="AX5" s="39"/>
       <c r="AY5" s="39"/>
     </row>
-    <row r="6" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="26">
         <v>3</v>
       </c>
@@ -27659,7 +27666,7 @@
       <c r="AX6" s="39"/>
       <c r="AY6" s="39"/>
     </row>
-    <row r="7" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="26">
         <v>4</v>
       </c>
@@ -27731,7 +27738,7 @@
       <c r="AX7" s="39"/>
       <c r="AY7" s="39"/>
     </row>
-    <row r="8" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="26"/>
       <c r="B8" s="27" t="s">
         <v>300</v>
@@ -27792,7 +27799,7 @@
       <c r="AX8" s="39"/>
       <c r="AY8" s="39"/>
     </row>
-    <row r="9" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="26"/>
       <c r="B9" s="32" t="s">
         <v>299</v>
@@ -27847,7 +27854,7 @@
       <c r="AX9" s="39"/>
       <c r="AY9" s="39"/>
     </row>
-    <row r="10" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="26">
         <v>1</v>
       </c>
@@ -27911,7 +27918,7 @@
       <c r="AX10" s="39"/>
       <c r="AY10" s="39"/>
     </row>
-    <row r="11" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="26">
         <v>2</v>
       </c>
@@ -27975,7 +27982,7 @@
       <c r="AX11" s="39"/>
       <c r="AY11" s="39"/>
     </row>
-    <row r="12" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="26">
         <v>3</v>
       </c>
@@ -28039,7 +28046,7 @@
       <c r="AX12" s="39"/>
       <c r="AY12" s="39"/>
     </row>
-    <row r="13" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="26">
         <v>4</v>
       </c>
@@ -28103,7 +28110,7 @@
       <c r="AX13" s="39"/>
       <c r="AY13" s="39"/>
     </row>
-    <row r="14" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="26"/>
       <c r="B14" s="27" t="s">
         <v>300</v>
@@ -28164,7 +28171,7 @@
       <c r="AX14" s="39"/>
       <c r="AY14" s="39"/>
     </row>
-    <row r="15" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="26"/>
       <c r="B15" s="52" t="s">
         <v>298</v>
@@ -28219,7 +28226,7 @@
       <c r="AX15" s="39"/>
       <c r="AY15" s="39"/>
     </row>
-    <row r="16" spans="1:51" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:51" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="26" t="s">
         <v>301</v>
       </c>
@@ -28291,7 +28298,7 @@
       <c r="AX16" s="39"/>
       <c r="AY16" s="39"/>
     </row>
-    <row r="17" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="26" t="s">
         <v>302</v>
       </c>
@@ -28359,7 +28366,7 @@
       <c r="AX17" s="39"/>
       <c r="AY17" s="39"/>
     </row>
-    <row r="18" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="26" t="s">
         <v>303</v>
       </c>
@@ -28427,7 +28434,7 @@
       <c r="AX18" s="39"/>
       <c r="AY18" s="39"/>
     </row>
-    <row r="19" spans="1:51" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:51" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.3">
       <c r="A19" s="26" t="s">
         <v>304</v>
       </c>
@@ -28491,7 +28498,7 @@
       <c r="AT19" s="38"/>
       <c r="AU19" s="38"/>
     </row>
-    <row r="20" spans="1:51" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:51" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="26" t="s">
         <v>305</v>
       </c>
@@ -28559,7 +28566,7 @@
       <c r="AX20" s="39"/>
       <c r="AY20" s="39"/>
     </row>
-    <row r="21" spans="1:51" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:51" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="26" t="s">
         <v>306</v>
       </c>
@@ -28627,7 +28634,7 @@
       <c r="AX21" s="39"/>
       <c r="AY21" s="39"/>
     </row>
-    <row r="22" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="26" t="s">
         <v>307</v>
       </c>
@@ -28695,7 +28702,7 @@
       <c r="AX22" s="39"/>
       <c r="AY22" s="39"/>
     </row>
-    <row r="23" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="26" t="s">
         <v>308</v>
       </c>
@@ -28763,7 +28770,7 @@
       <c r="AX23" s="39"/>
       <c r="AY23" s="39"/>
     </row>
-    <row r="24" spans="1:51" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:51" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="26" t="s">
         <v>309</v>
       </c>
@@ -28834,7 +28841,7 @@
       <c r="AX24" s="39"/>
       <c r="AY24" s="39"/>
     </row>
-    <row r="25" spans="1:51" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:51" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="26" t="s">
         <v>310</v>
       </c>
@@ -28902,7 +28909,7 @@
       <c r="AX25" s="39"/>
       <c r="AY25" s="39"/>
     </row>
-    <row r="26" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="26" t="s">
         <v>311</v>
       </c>
@@ -28970,7 +28977,7 @@
       <c r="AX26" s="39"/>
       <c r="AY26" s="39"/>
     </row>
-    <row r="27" spans="1:51" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:51" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="26" t="s">
         <v>312</v>
       </c>
@@ -29038,7 +29045,7 @@
       <c r="AX27" s="39"/>
       <c r="AY27" s="39"/>
     </row>
-    <row r="28" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="26" t="s">
         <v>313</v>
       </c>
@@ -29108,7 +29115,7 @@
       <c r="AX28" s="39"/>
       <c r="AY28" s="39"/>
     </row>
-    <row r="29" spans="1:51" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:51" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="26" t="s">
         <v>314</v>
       </c>
@@ -29178,7 +29185,7 @@
       <c r="AX29" s="39"/>
       <c r="AY29" s="39"/>
     </row>
-    <row r="30" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="26" t="s">
         <v>315</v>
       </c>
@@ -29246,7 +29253,7 @@
       <c r="AX30" s="39"/>
       <c r="AY30" s="39"/>
     </row>
-    <row r="31" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="26"/>
       <c r="B31" s="39" t="s">
         <v>300</v>
@@ -29307,7 +29314,7 @@
       <c r="AX31" s="39"/>
       <c r="AY31" s="39"/>
     </row>
-    <row r="32" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="26"/>
       <c r="B32" s="32" t="s">
         <v>299</v>
@@ -29362,7 +29369,7 @@
       <c r="AX32" s="39"/>
       <c r="AY32" s="39"/>
     </row>
-    <row r="33" spans="1:51" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:51" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="26" t="s">
         <v>301</v>
       </c>
@@ -29430,7 +29437,7 @@
       <c r="AX33" s="39"/>
       <c r="AY33" s="39"/>
     </row>
-    <row r="34" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="26" t="s">
         <v>302</v>
       </c>
@@ -29494,7 +29501,7 @@
       <c r="AX34" s="39"/>
       <c r="AY34" s="39"/>
     </row>
-    <row r="35" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="26" t="s">
         <v>303</v>
       </c>
@@ -29558,7 +29565,7 @@
       <c r="AX35" s="39"/>
       <c r="AY35" s="39"/>
     </row>
-    <row r="36" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="26" t="s">
         <v>304</v>
       </c>
@@ -29622,7 +29629,7 @@
       <c r="AX36" s="39"/>
       <c r="AY36" s="39"/>
     </row>
-    <row r="37" spans="1:51" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:51" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="26" t="s">
         <v>305</v>
       </c>
@@ -29686,7 +29693,7 @@
       <c r="AX37" s="39"/>
       <c r="AY37" s="39"/>
     </row>
-    <row r="38" spans="1:51" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:51" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="26" t="s">
         <v>306</v>
       </c>
@@ -29750,7 +29757,7 @@
       <c r="AX38" s="39"/>
       <c r="AY38" s="39"/>
     </row>
-    <row r="39" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="26" t="s">
         <v>307</v>
       </c>
@@ -29814,7 +29821,7 @@
       <c r="AX39" s="39"/>
       <c r="AY39" s="39"/>
     </row>
-    <row r="40" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="26" t="s">
         <v>308</v>
       </c>
@@ -29878,7 +29885,7 @@
       <c r="AX40" s="39"/>
       <c r="AY40" s="39"/>
     </row>
-    <row r="41" spans="1:51" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:51" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="26" t="s">
         <v>309</v>
       </c>
@@ -29944,7 +29951,7 @@
       <c r="AX41" s="39"/>
       <c r="AY41" s="39"/>
     </row>
-    <row r="42" spans="1:51" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:51" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="26" t="s">
         <v>310</v>
       </c>
@@ -30008,7 +30015,7 @@
       <c r="AX42" s="39"/>
       <c r="AY42" s="39"/>
     </row>
-    <row r="43" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="26" t="s">
         <v>311</v>
       </c>
@@ -30072,7 +30079,7 @@
       <c r="AX43" s="39"/>
       <c r="AY43" s="39"/>
     </row>
-    <row r="44" spans="1:51" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:51" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="26" t="s">
         <v>312</v>
       </c>
@@ -30136,7 +30143,7 @@
       <c r="AX44" s="39"/>
       <c r="AY44" s="39"/>
     </row>
-    <row r="45" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="26" t="s">
         <v>313</v>
       </c>
@@ -30204,7 +30211,7 @@
       <c r="AX45" s="39"/>
       <c r="AY45" s="39"/>
     </row>
-    <row r="46" spans="1:51" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:51" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="26" t="s">
         <v>314</v>
       </c>
@@ -30270,7 +30277,7 @@
       <c r="AX46" s="39"/>
       <c r="AY46" s="39"/>
     </row>
-    <row r="47" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="26" t="s">
         <v>315</v>
       </c>
@@ -30334,7 +30341,7 @@
       <c r="AX47" s="39"/>
       <c r="AY47" s="39"/>
     </row>
-    <row r="48" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="26"/>
       <c r="B48" s="27" t="s">
         <v>300</v>
@@ -30395,7 +30402,7 @@
       <c r="AX48" s="39"/>
       <c r="AY48" s="39"/>
     </row>
-    <row r="49" spans="1:53" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:53" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="26"/>
       <c r="B49" s="32" t="s">
         <v>298</v>
@@ -30450,7 +30457,7 @@
       <c r="AX49" s="39"/>
       <c r="AY49" s="39"/>
     </row>
-    <row r="50" spans="1:53" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:53" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="26" t="s">
         <v>301</v>
       </c>
@@ -30513,7 +30520,7 @@
       <c r="AX50" s="39"/>
       <c r="AY50" s="39"/>
     </row>
-    <row r="51" spans="1:53" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:53" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="26" t="s">
         <v>302</v>
       </c>
@@ -30606,7 +30613,7 @@
       <c r="AX51" s="39"/>
       <c r="AY51" s="39"/>
     </row>
-    <row r="52" spans="1:53" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:53" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="26"/>
       <c r="B52" s="27" t="s">
         <v>300</v>
@@ -30667,7 +30674,7 @@
       <c r="AX52" s="39"/>
       <c r="AY52" s="39"/>
     </row>
-    <row r="53" spans="1:53" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:53" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="26"/>
       <c r="B53" s="32" t="s">
         <v>299</v>
@@ -30722,7 +30729,7 @@
       <c r="AX53" s="39"/>
       <c r="AY53" s="39"/>
     </row>
-    <row r="54" spans="1:53" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:53" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>301</v>
       </c>
@@ -30788,7 +30795,7 @@
       <c r="AZ54" s="36"/>
       <c r="BA54" s="36"/>
     </row>
-    <row r="55" spans="1:53" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:53" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>302</v>
       </c>
@@ -30888,7 +30895,7 @@
       <c r="AZ55" s="36"/>
       <c r="BA55" s="36"/>
     </row>
-    <row r="56" spans="1:53" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:53" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="26"/>
       <c r="B56" s="27" t="s">
         <v>300</v>
@@ -30949,16 +30956,16 @@
       <c r="AX56" s="39"/>
       <c r="AY56" s="39"/>
     </row>
-    <row r="57" spans="1:53" s="33" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="142"/>
-      <c r="B57" s="145" t="s">
+    <row r="57" spans="1:53" s="33" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="143"/>
+      <c r="B57" s="146" t="s">
         <v>179</v>
       </c>
       <c r="C57" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="D57" s="148"/>
-      <c r="E57" s="149"/>
+      <c r="D57" s="149"/>
+      <c r="E57" s="150"/>
       <c r="F57" s="32"/>
       <c r="G57" s="32"/>
       <c r="H57" s="32"/>
@@ -31006,17 +31013,17 @@
       <c r="AX57" s="32"/>
       <c r="AY57" s="32"/>
     </row>
-    <row r="58" spans="1:53" s="33" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="143"/>
-      <c r="B58" s="146"/>
+    <row r="58" spans="1:53" s="33" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="144"/>
+      <c r="B58" s="147"/>
       <c r="C58" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D58" s="148">
+      <c r="D58" s="149">
         <f>D8+D31+D52</f>
         <v>15687.099999999999</v>
       </c>
-      <c r="E58" s="149"/>
+      <c r="E58" s="150"/>
       <c r="F58" s="32"/>
       <c r="G58" s="32"/>
       <c r="H58" s="32"/>
@@ -31064,17 +31071,17 @@
       <c r="AX58" s="32"/>
       <c r="AY58" s="32"/>
     </row>
-    <row r="59" spans="1:53" s="33" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="144"/>
-      <c r="B59" s="147"/>
+    <row r="59" spans="1:53" s="33" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="145"/>
+      <c r="B59" s="148"/>
       <c r="C59" s="32" t="s">
         <v>209</v>
       </c>
-      <c r="D59" s="150">
+      <c r="D59" s="151">
         <f>SUM(F59:AU59)</f>
         <v>3407504.7333782073</v>
       </c>
-      <c r="E59" s="151"/>
+      <c r="E59" s="152"/>
       <c r="F59" s="32">
         <f t="shared" ref="F59:AY59" si="5">SUM(F4:F56)</f>
         <v>908221.68358762877</v>
@@ -31260,31 +31267,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:53" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:53" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="34"/>
-      <c r="B61" s="136"/>
-      <c r="C61" s="136"/>
-      <c r="D61" s="136"/>
+      <c r="B61" s="153"/>
+      <c r="C61" s="153"/>
+      <c r="D61" s="153"/>
       <c r="E61" s="35"/>
     </row>
-    <row r="62" spans="1:53" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:53" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="34"/>
-      <c r="B62" s="136"/>
-      <c r="C62" s="136"/>
-      <c r="D62" s="136"/>
+      <c r="B62" s="153"/>
+      <c r="C62" s="153"/>
+      <c r="D62" s="153"/>
       <c r="E62" s="35"/>
       <c r="G62" s="36"/>
       <c r="H62" s="36"/>
       <c r="I62" s="36"/>
     </row>
-    <row r="67" spans="2:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:5" ht="25.2" x14ac:dyDescent="0.3">
       <c r="B67" s="23"/>
       <c r="C67" s="23"/>
       <c r="D67" s="23"/>
       <c r="E67" s="23"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AY59">
+  <autoFilter ref="A1:AY59" xr:uid="{00000000-0009-0000-0000-000004000000}">
     <filterColumn colId="5" showButton="0"/>
     <filterColumn colId="7" showButton="0"/>
     <filterColumn colId="9" showButton="0"/>
@@ -31310,20 +31317,11 @@
     <filterColumn colId="49" showButton="0"/>
   </autoFilter>
   <mergeCells count="35">
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="AR1:AS1"/>
-    <mergeCell ref="AT1:AU1"/>
-    <mergeCell ref="AV1:AW1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="AX1:AY1"/>
     <mergeCell ref="A57:A59"/>
     <mergeCell ref="B57:B59"/>
@@ -31340,11 +31338,20 @@
     <mergeCell ref="V1:W1"/>
     <mergeCell ref="X1:Y1"/>
     <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="AR1:AS1"/>
+    <mergeCell ref="AT1:AU1"/>
+    <mergeCell ref="AV1:AW1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="F1:G1"/>
   </mergeCells>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" scale="52" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -31355,7 +31362,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="1"/>
@@ -31367,54 +31374,54 @@
       <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7" style="11" customWidth="1"/>
-    <col min="2" max="2" width="38.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="49.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.140625" style="1" customWidth="1"/>
-    <col min="8" max="9" width="18.28515625" style="1" customWidth="1"/>
-    <col min="10" max="11" width="20.140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="20.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="38.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="49.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.44140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.109375" style="1" customWidth="1"/>
+    <col min="8" max="9" width="18.33203125" style="1" customWidth="1"/>
+    <col min="10" max="11" width="20.109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="20.33203125" style="1" customWidth="1"/>
     <col min="13" max="13" width="16" style="1" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="18.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="18.28515625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="11.85546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5546875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="18.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.44140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="18.33203125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="11.88671875" style="1" customWidth="1"/>
     <col min="19" max="19" width="16" style="1" customWidth="1"/>
-    <col min="20" max="21" width="18.28515625" style="1" customWidth="1"/>
+    <col min="20" max="21" width="18.33203125" style="1" customWidth="1"/>
     <col min="22" max="22" width="16" style="1" customWidth="1"/>
-    <col min="23" max="23" width="22.5703125" style="1" customWidth="1"/>
-    <col min="24" max="25" width="18.28515625" style="1" customWidth="1"/>
-    <col min="26" max="26" width="13.42578125" style="1" customWidth="1"/>
-    <col min="27" max="27" width="18.28515625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="22.5546875" style="1" customWidth="1"/>
+    <col min="24" max="25" width="18.33203125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="13.44140625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="18.33203125" style="1" customWidth="1"/>
     <col min="28" max="29" width="16" style="1" customWidth="1"/>
-    <col min="30" max="30" width="13.5703125" style="1" customWidth="1"/>
+    <col min="30" max="30" width="13.5546875" style="1" customWidth="1"/>
     <col min="31" max="31" width="16" style="1" customWidth="1"/>
-    <col min="32" max="32" width="20.7109375" style="1" customWidth="1"/>
-    <col min="33" max="33" width="18.28515625" style="1" customWidth="1"/>
-    <col min="34" max="34" width="14.140625" style="1" customWidth="1"/>
+    <col min="32" max="32" width="20.6640625" style="1" customWidth="1"/>
+    <col min="33" max="33" width="18.33203125" style="1" customWidth="1"/>
+    <col min="34" max="34" width="14.109375" style="1" customWidth="1"/>
     <col min="35" max="35" width="16" style="1" customWidth="1"/>
-    <col min="36" max="36" width="18.28515625" style="1" customWidth="1"/>
-    <col min="37" max="37" width="20.140625" style="1" customWidth="1"/>
-    <col min="38" max="38" width="14.140625" style="1" customWidth="1"/>
+    <col min="36" max="36" width="18.33203125" style="1" customWidth="1"/>
+    <col min="37" max="37" width="20.109375" style="1" customWidth="1"/>
+    <col min="38" max="38" width="14.109375" style="1" customWidth="1"/>
     <col min="39" max="39" width="16" style="1" customWidth="1"/>
-    <col min="40" max="40" width="12.140625" style="1" customWidth="1"/>
-    <col min="41" max="41" width="18.28515625" style="1" customWidth="1"/>
-    <col min="42" max="42" width="15.42578125" style="1" customWidth="1"/>
-    <col min="43" max="43" width="18.28515625" style="1" customWidth="1"/>
-    <col min="44" max="45" width="20.140625" style="1" customWidth="1"/>
+    <col min="40" max="40" width="12.109375" style="1" customWidth="1"/>
+    <col min="41" max="41" width="18.33203125" style="1" customWidth="1"/>
+    <col min="42" max="42" width="15.44140625" style="1" customWidth="1"/>
+    <col min="43" max="43" width="18.33203125" style="1" customWidth="1"/>
+    <col min="44" max="45" width="20.109375" style="1" customWidth="1"/>
     <col min="46" max="46" width="16" style="1" customWidth="1"/>
     <col min="47" max="47" width="16" style="91" customWidth="1"/>
-    <col min="48" max="53" width="9.140625" style="91"/>
-    <col min="54" max="16384" width="9.140625" style="1"/>
+    <col min="48" max="53" width="9.109375" style="91"/>
+    <col min="54" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:47" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="121" t="s">
         <v>0</v>
       </c>
@@ -31438,10 +31445,10 @@
         <v>186</v>
       </c>
       <c r="I1" s="117"/>
-      <c r="J1" s="141" t="s">
+      <c r="J1" s="136" t="s">
         <v>550</v>
       </c>
-      <c r="K1" s="141"/>
+      <c r="K1" s="136"/>
       <c r="L1" s="118" t="s">
         <v>190</v>
       </c>
@@ -31515,7 +31522,7 @@
       </c>
       <c r="AU1" s="117"/>
     </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A2" s="122"/>
       <c r="B2" s="124"/>
       <c r="C2" s="124"/>
@@ -31648,7 +31655,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A3" s="44"/>
       <c r="B3" s="47" t="s">
         <v>298</v>
@@ -31699,7 +31706,7 @@
       <c r="AT3" s="97"/>
       <c r="AU3" s="97"/>
     </row>
-    <row r="4" spans="1:47" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:47" ht="36" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>301</v>
       </c>
@@ -31771,7 +31778,7 @@
       <c r="AT4" s="97"/>
       <c r="AU4" s="97"/>
     </row>
-    <row r="5" spans="1:47" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:47" ht="36" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>302</v>
       </c>
@@ -31864,7 +31871,7 @@
       <c r="AT5" s="97"/>
       <c r="AU5" s="97"/>
     </row>
-    <row r="6" spans="1:47" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:47" ht="36" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>303</v>
       </c>
@@ -31966,7 +31973,7 @@
       <c r="AT6" s="97"/>
       <c r="AU6" s="97"/>
     </row>
-    <row r="7" spans="1:47" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:47" ht="36" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>304</v>
       </c>
@@ -32059,7 +32066,7 @@
       <c r="AT7" s="97"/>
       <c r="AU7" s="97"/>
     </row>
-    <row r="8" spans="1:47" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:47" ht="36" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>305</v>
       </c>
@@ -32158,7 +32165,7 @@
       <c r="AT8" s="97"/>
       <c r="AU8" s="97"/>
     </row>
-    <row r="9" spans="1:47" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:47" ht="36" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>306</v>
       </c>
@@ -32218,7 +32225,7 @@
       <c r="AT9" s="97"/>
       <c r="AU9" s="97"/>
     </row>
-    <row r="10" spans="1:47" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:47" ht="36" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>307</v>
       </c>
@@ -32314,7 +32321,7 @@
       <c r="AT10" s="97"/>
       <c r="AU10" s="97"/>
     </row>
-    <row r="11" spans="1:47" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:47" ht="36" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>308</v>
       </c>
@@ -32411,7 +32418,7 @@
       <c r="AT11" s="97"/>
       <c r="AU11" s="97"/>
     </row>
-    <row r="12" spans="1:47" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:47" ht="36" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>309</v>
       </c>
@@ -32525,7 +32532,7 @@
       <c r="AT12" s="97"/>
       <c r="AU12" s="97"/>
     </row>
-    <row r="13" spans="1:47" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:47" ht="36" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>310</v>
       </c>
@@ -32589,7 +32596,7 @@
       <c r="AT13" s="97"/>
       <c r="AU13" s="97"/>
     </row>
-    <row r="14" spans="1:47" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:47" ht="36" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>311</v>
       </c>
@@ -32708,7 +32715,7 @@
       <c r="AT14" s="97"/>
       <c r="AU14" s="97"/>
     </row>
-    <row r="15" spans="1:47" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:47" ht="36" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>312</v>
       </c>
@@ -32809,7 +32816,7 @@
       <c r="AT15" s="97"/>
       <c r="AU15" s="97"/>
     </row>
-    <row r="16" spans="1:47" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:47" ht="36" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>313</v>
       </c>
@@ -32920,7 +32927,7 @@
       <c r="AT16" s="97"/>
       <c r="AU16" s="97"/>
     </row>
-    <row r="17" spans="1:53" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:53" ht="36" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>314</v>
       </c>
@@ -33028,7 +33035,7 @@
       <c r="AT17" s="97"/>
       <c r="AU17" s="97"/>
     </row>
-    <row r="18" spans="1:53" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:53" ht="36" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>315</v>
       </c>
@@ -33136,7 +33143,7 @@
       <c r="AT18" s="97"/>
       <c r="AU18" s="97"/>
     </row>
-    <row r="19" spans="1:53" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:53" ht="36" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>316</v>
       </c>
@@ -33196,7 +33203,7 @@
       <c r="AT19" s="87"/>
       <c r="AU19" s="87"/>
     </row>
-    <row r="20" spans="1:53" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:53" ht="36" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>520</v>
       </c>
@@ -33256,7 +33263,7 @@
       <c r="AT20" s="87"/>
       <c r="AU20" s="87"/>
     </row>
-    <row r="21" spans="1:53" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:53" s="50" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A21" s="48"/>
       <c r="B21" s="49" t="s">
         <v>318</v>
@@ -33319,7 +33326,7 @@
       <c r="AZ21" s="92"/>
       <c r="BA21" s="92"/>
     </row>
-    <row r="22" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
       <c r="B22" s="49" t="s">
         <v>317</v>
@@ -33370,7 +33377,7 @@
       <c r="AT22" s="87"/>
       <c r="AU22" s="87"/>
     </row>
-    <row r="23" spans="1:53" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:53" ht="36" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>301</v>
       </c>
@@ -33430,7 +33437,7 @@
       <c r="AT23" s="87"/>
       <c r="AU23" s="87"/>
     </row>
-    <row r="24" spans="1:53" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:53" ht="36" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>302</v>
       </c>
@@ -33506,7 +33513,7 @@
       <c r="AT24" s="87"/>
       <c r="AU24" s="87"/>
     </row>
-    <row r="25" spans="1:53" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:53" ht="36" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>303</v>
       </c>
@@ -33603,7 +33610,7 @@
       <c r="AT25" s="87"/>
       <c r="AU25" s="87"/>
     </row>
-    <row r="26" spans="1:53" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:53" ht="36" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>304</v>
       </c>
@@ -33681,7 +33688,7 @@
       <c r="AT26" s="87"/>
       <c r="AU26" s="87"/>
     </row>
-    <row r="27" spans="1:53" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:53" ht="36" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>305</v>
       </c>
@@ -33784,7 +33791,7 @@
       <c r="AT27" s="87"/>
       <c r="AU27" s="87"/>
     </row>
-    <row r="28" spans="1:53" s="24" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:53" s="24" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>306</v>
       </c>
@@ -33850,7 +33857,7 @@
       <c r="AZ28" s="36"/>
       <c r="BA28" s="36"/>
     </row>
-    <row r="29" spans="1:53" s="24" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:53" s="24" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>307</v>
       </c>
@@ -33955,7 +33962,7 @@
       <c r="AZ29" s="36"/>
       <c r="BA29" s="36"/>
     </row>
-    <row r="30" spans="1:53" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:53" ht="36" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>308</v>
       </c>
@@ -34035,7 +34042,7 @@
       <c r="AT30" s="87"/>
       <c r="AU30" s="87"/>
     </row>
-    <row r="31" spans="1:53" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:53" ht="36" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>309</v>
       </c>
@@ -34143,7 +34150,7 @@
       <c r="AT31" s="87"/>
       <c r="AU31" s="87"/>
     </row>
-    <row r="32" spans="1:53" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:53" ht="36" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>310</v>
       </c>
@@ -34203,7 +34210,7 @@
       <c r="AT32" s="87"/>
       <c r="AU32" s="87"/>
     </row>
-    <row r="33" spans="1:53" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:53" ht="36" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>311</v>
       </c>
@@ -34310,7 +34317,7 @@
       <c r="AT33" s="87"/>
       <c r="AU33" s="87"/>
     </row>
-    <row r="34" spans="1:53" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:53" ht="36" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>312</v>
       </c>
@@ -34414,7 +34421,7 @@
       <c r="AT34" s="87"/>
       <c r="AU34" s="87"/>
     </row>
-    <row r="35" spans="1:53" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:53" ht="36" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>313</v>
       </c>
@@ -34518,7 +34525,7 @@
       <c r="AT35" s="87"/>
       <c r="AU35" s="87"/>
     </row>
-    <row r="36" spans="1:53" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:53" ht="36" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>314</v>
       </c>
@@ -34623,7 +34630,7 @@
       <c r="AT36" s="87"/>
       <c r="AU36" s="87"/>
     </row>
-    <row r="37" spans="1:53" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:53" ht="36" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>315</v>
       </c>
@@ -34728,7 +34735,7 @@
       <c r="AT37" s="87"/>
       <c r="AU37" s="87"/>
     </row>
-    <row r="38" spans="1:53" s="24" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:53" s="24" customFormat="1" ht="36" x14ac:dyDescent="0.3">
       <c r="A38" s="26" t="s">
         <v>316</v>
       </c>
@@ -34836,7 +34843,7 @@
       <c r="AZ38" s="36"/>
       <c r="BA38" s="36"/>
     </row>
-    <row r="39" spans="1:53" s="24" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:53" s="24" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="26" t="s">
         <v>520</v>
       </c>
@@ -34944,7 +34951,7 @@
       <c r="AZ39" s="36"/>
       <c r="BA39" s="36"/>
     </row>
-    <row r="40" spans="1:53" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:53" s="50" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A40" s="48"/>
       <c r="B40" s="49" t="s">
         <v>318</v>
@@ -35007,7 +35014,7 @@
       <c r="AZ40" s="92"/>
       <c r="BA40" s="92"/>
     </row>
-    <row r="41" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A41" s="3"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -35056,7 +35063,7 @@
       <c r="AT41" s="87"/>
       <c r="AU41" s="87"/>
     </row>
-    <row r="42" spans="1:53" s="8" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:53" s="8" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A42" s="125"/>
       <c r="B42" s="128" t="s">
         <v>179</v>
@@ -35115,7 +35122,7 @@
       <c r="AZ42" s="93"/>
       <c r="BA42" s="93"/>
     </row>
-    <row r="43" spans="1:53" s="8" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:53" s="8" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A43" s="126"/>
       <c r="B43" s="129"/>
       <c r="C43" s="6" t="s">
@@ -35175,7 +35182,7 @@
       <c r="AZ43" s="93"/>
       <c r="BA43" s="93"/>
     </row>
-    <row r="44" spans="1:53" s="8" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:53" s="8" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="127"/>
       <c r="B44" s="130"/>
       <c r="C44" s="7" t="s">
@@ -35361,29 +35368,46 @@
       <c r="AZ44" s="93"/>
       <c r="BA44" s="93"/>
     </row>
-    <row r="46" spans="1:53" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:53" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="9"/>
       <c r="B46" s="120"/>
       <c r="C46" s="120"/>
       <c r="D46" s="120"/>
       <c r="E46" s="43"/>
     </row>
-    <row r="47" spans="1:53" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:53" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="9"/>
       <c r="B47" s="120"/>
       <c r="C47" s="120"/>
       <c r="D47" s="120"/>
       <c r="E47" s="43"/>
     </row>
-    <row r="52" spans="2:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:5" ht="25.2" x14ac:dyDescent="0.3">
       <c r="B52" s="12"/>
       <c r="C52" s="12"/>
       <c r="D52" s="12"/>
       <c r="E52" s="12"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D44"/>
+  <autoFilter ref="A1:D44" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
   <mergeCells count="33">
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AE1"/>
     <mergeCell ref="B46:D46"/>
     <mergeCell ref="B47:D47"/>
     <mergeCell ref="AR1:AS1"/>
@@ -35400,23 +35424,6 @@
     <mergeCell ref="AN1:AO1"/>
     <mergeCell ref="AP1:AQ1"/>
     <mergeCell ref="T1:U1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
   </mergeCells>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" scale="10" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -35427,7 +35434,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="1"/>
@@ -35439,168 +35446,168 @@
       <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7" style="37" customWidth="1"/>
-    <col min="2" max="2" width="38.42578125" style="24" customWidth="1"/>
-    <col min="3" max="3" width="49.5703125" style="24" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" style="24" customWidth="1"/>
-    <col min="5" max="5" width="25.28515625" style="24" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" style="24" customWidth="1"/>
-    <col min="7" max="7" width="20.140625" style="24" customWidth="1"/>
-    <col min="8" max="9" width="18.28515625" style="24" customWidth="1"/>
-    <col min="10" max="11" width="20.140625" style="24" customWidth="1"/>
+    <col min="2" max="2" width="38.44140625" style="24" customWidth="1"/>
+    <col min="3" max="3" width="49.5546875" style="24" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" style="24" customWidth="1"/>
+    <col min="5" max="5" width="25.33203125" style="24" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" style="24" customWidth="1"/>
+    <col min="7" max="7" width="20.109375" style="24" customWidth="1"/>
+    <col min="8" max="9" width="18.33203125" style="24" customWidth="1"/>
+    <col min="10" max="11" width="20.109375" style="24" customWidth="1"/>
     <col min="12" max="13" width="16" style="24" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" style="24" customWidth="1"/>
-    <col min="15" max="15" width="18.28515625" style="24" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="24" customWidth="1"/>
-    <col min="17" max="17" width="18.28515625" style="24" customWidth="1"/>
-    <col min="18" max="18" width="11.85546875" style="24" customWidth="1"/>
+    <col min="14" max="14" width="11.5546875" style="24" customWidth="1"/>
+    <col min="15" max="15" width="18.33203125" style="24" customWidth="1"/>
+    <col min="16" max="16" width="13.44140625" style="24" customWidth="1"/>
+    <col min="17" max="17" width="18.33203125" style="24" customWidth="1"/>
+    <col min="18" max="18" width="11.88671875" style="24" customWidth="1"/>
     <col min="19" max="19" width="16" style="24" customWidth="1"/>
-    <col min="20" max="21" width="18.28515625" style="24" customWidth="1"/>
+    <col min="20" max="21" width="18.33203125" style="24" customWidth="1"/>
     <col min="22" max="22" width="16" style="24" customWidth="1"/>
-    <col min="23" max="25" width="18.28515625" style="24" customWidth="1"/>
-    <col min="26" max="26" width="21.140625" style="24" customWidth="1"/>
-    <col min="27" max="27" width="18.28515625" style="24" customWidth="1"/>
+    <col min="23" max="25" width="18.33203125" style="24" customWidth="1"/>
+    <col min="26" max="26" width="21.109375" style="24" customWidth="1"/>
+    <col min="27" max="27" width="18.33203125" style="24" customWidth="1"/>
     <col min="28" max="29" width="16" style="24" customWidth="1"/>
-    <col min="30" max="30" width="29.5703125" style="24" customWidth="1"/>
-    <col min="31" max="31" width="20.5703125" style="24" customWidth="1"/>
-    <col min="32" max="32" width="27.28515625" style="24" customWidth="1"/>
+    <col min="30" max="30" width="29.5546875" style="24" customWidth="1"/>
+    <col min="31" max="31" width="20.5546875" style="24" customWidth="1"/>
+    <col min="32" max="32" width="27.33203125" style="24" customWidth="1"/>
     <col min="33" max="33" width="30" style="24" customWidth="1"/>
-    <col min="34" max="34" width="42.28515625" style="24" customWidth="1"/>
-    <col min="35" max="35" width="26.28515625" style="24" customWidth="1"/>
-    <col min="36" max="36" width="20.5703125" style="24" customWidth="1"/>
-    <col min="37" max="37" width="26.140625" style="24" customWidth="1"/>
-    <col min="38" max="38" width="55.140625" style="24" customWidth="1"/>
-    <col min="39" max="39" width="33.85546875" style="24" customWidth="1"/>
-    <col min="40" max="40" width="31.28515625" style="24" customWidth="1"/>
-    <col min="41" max="41" width="18.42578125" style="24" customWidth="1"/>
-    <col min="42" max="42" width="15.7109375" style="24" customWidth="1"/>
+    <col min="34" max="34" width="42.33203125" style="24" customWidth="1"/>
+    <col min="35" max="35" width="26.33203125" style="24" customWidth="1"/>
+    <col min="36" max="36" width="20.5546875" style="24" customWidth="1"/>
+    <col min="37" max="37" width="26.109375" style="24" customWidth="1"/>
+    <col min="38" max="38" width="55.109375" style="24" customWidth="1"/>
+    <col min="39" max="39" width="33.88671875" style="24" customWidth="1"/>
+    <col min="40" max="40" width="31.33203125" style="24" customWidth="1"/>
+    <col min="41" max="41" width="18.44140625" style="24" customWidth="1"/>
+    <col min="42" max="42" width="15.6640625" style="24" customWidth="1"/>
     <col min="43" max="43" width="18" style="24" customWidth="1"/>
-    <col min="44" max="45" width="20.140625" style="24" customWidth="1"/>
+    <col min="44" max="45" width="20.109375" style="24" customWidth="1"/>
     <col min="46" max="47" width="16" style="24" customWidth="1"/>
-    <col min="48" max="48" width="16.7109375" style="24" customWidth="1"/>
-    <col min="49" max="49" width="18.42578125" style="24" customWidth="1"/>
-    <col min="50" max="50" width="16.28515625" style="24" customWidth="1"/>
+    <col min="48" max="48" width="16.6640625" style="24" customWidth="1"/>
+    <col min="49" max="49" width="18.44140625" style="24" customWidth="1"/>
+    <col min="50" max="50" width="16.33203125" style="24" customWidth="1"/>
     <col min="51" max="51" width="15" style="24" customWidth="1"/>
-    <col min="52" max="16384" width="9.140625" style="24"/>
+    <col min="52" max="16384" width="9.109375" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="152" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="154" t="s">
+    <row r="1" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="137" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="139" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="154" t="s">
+      <c r="C1" s="139" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="154" t="s">
+      <c r="D1" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="154" t="s">
+      <c r="E1" s="139" t="s">
         <v>210</v>
       </c>
-      <c r="F1" s="141" t="s">
+      <c r="F1" s="136" t="s">
         <v>194</v>
       </c>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141" t="s">
+      <c r="G1" s="136"/>
+      <c r="H1" s="136" t="s">
         <v>186</v>
       </c>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141" t="s">
+      <c r="I1" s="136"/>
+      <c r="J1" s="136" t="s">
         <v>550</v>
       </c>
-      <c r="K1" s="141"/>
-      <c r="L1" s="139" t="s">
+      <c r="K1" s="136"/>
+      <c r="L1" s="141" t="s">
         <v>190</v>
       </c>
-      <c r="M1" s="140"/>
-      <c r="N1" s="139" t="s">
+      <c r="M1" s="142"/>
+      <c r="N1" s="141" t="s">
         <v>200</v>
       </c>
-      <c r="O1" s="140"/>
-      <c r="P1" s="141" t="s">
+      <c r="O1" s="142"/>
+      <c r="P1" s="136" t="s">
         <v>191</v>
       </c>
-      <c r="Q1" s="141"/>
-      <c r="R1" s="141" t="s">
+      <c r="Q1" s="136"/>
+      <c r="R1" s="136" t="s">
         <v>204</v>
       </c>
-      <c r="S1" s="141"/>
-      <c r="T1" s="139" t="s">
+      <c r="S1" s="136"/>
+      <c r="T1" s="141" t="s">
         <v>192</v>
       </c>
-      <c r="U1" s="140"/>
-      <c r="V1" s="141" t="s">
+      <c r="U1" s="142"/>
+      <c r="V1" s="136" t="s">
         <v>203</v>
       </c>
-      <c r="W1" s="141"/>
-      <c r="X1" s="139" t="s">
+      <c r="W1" s="136"/>
+      <c r="X1" s="141" t="s">
         <v>193</v>
       </c>
-      <c r="Y1" s="140"/>
-      <c r="Z1" s="141" t="s">
+      <c r="Y1" s="142"/>
+      <c r="Z1" s="136" t="s">
         <v>195</v>
       </c>
-      <c r="AA1" s="141"/>
-      <c r="AB1" s="141" t="s">
+      <c r="AA1" s="136"/>
+      <c r="AB1" s="136" t="s">
         <v>196</v>
       </c>
-      <c r="AC1" s="141"/>
-      <c r="AD1" s="141" t="s">
+      <c r="AC1" s="136"/>
+      <c r="AD1" s="136" t="s">
         <v>197</v>
       </c>
-      <c r="AE1" s="141"/>
-      <c r="AF1" s="141" t="s">
+      <c r="AE1" s="136"/>
+      <c r="AF1" s="136" t="s">
         <v>294</v>
       </c>
-      <c r="AG1" s="141"/>
-      <c r="AH1" s="141" t="s">
+      <c r="AG1" s="136"/>
+      <c r="AH1" s="136" t="s">
         <v>208</v>
       </c>
-      <c r="AI1" s="141"/>
-      <c r="AJ1" s="141" t="s">
+      <c r="AI1" s="136"/>
+      <c r="AJ1" s="136" t="s">
         <v>199</v>
       </c>
-      <c r="AK1" s="141"/>
-      <c r="AL1" s="141" t="s">
+      <c r="AK1" s="136"/>
+      <c r="AL1" s="136" t="s">
         <v>201</v>
       </c>
-      <c r="AM1" s="141"/>
-      <c r="AN1" s="141" t="s">
+      <c r="AM1" s="136"/>
+      <c r="AN1" s="136" t="s">
         <v>202</v>
       </c>
-      <c r="AO1" s="141"/>
-      <c r="AP1" s="139" t="s">
+      <c r="AO1" s="136"/>
+      <c r="AP1" s="141" t="s">
         <v>205</v>
       </c>
-      <c r="AQ1" s="140"/>
-      <c r="AR1" s="141" t="s">
+      <c r="AQ1" s="142"/>
+      <c r="AR1" s="136" t="s">
         <v>206</v>
       </c>
-      <c r="AS1" s="141"/>
-      <c r="AT1" s="141" t="s">
+      <c r="AS1" s="136"/>
+      <c r="AT1" s="136" t="s">
         <v>207</v>
       </c>
-      <c r="AU1" s="141"/>
-      <c r="AV1" s="137" t="s">
+      <c r="AU1" s="136"/>
+      <c r="AV1" s="154" t="s">
         <v>292</v>
       </c>
       <c r="AW1" s="158"/>
-      <c r="AX1" s="139" t="s">
+      <c r="AX1" s="141" t="s">
         <v>291</v>
       </c>
-      <c r="AY1" s="140"/>
-    </row>
-    <row r="2" spans="1:51" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="153"/>
-      <c r="B2" s="155"/>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
+      <c r="AY1" s="142"/>
+    </row>
+    <row r="2" spans="1:51" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="138"/>
+      <c r="B2" s="140"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
       <c r="F2" s="100" t="s">
         <v>188</v>
       </c>
@@ -35740,7 +35747,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="3" spans="1:51" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:51" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="101"/>
       <c r="B3" s="103" t="s">
         <v>298</v>
@@ -35795,7 +35802,7 @@
       <c r="AX3" s="100"/>
       <c r="AY3" s="100"/>
     </row>
-    <row r="4" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>301</v>
       </c>
@@ -35914,7 +35921,7 @@
       <c r="AX4" s="100"/>
       <c r="AY4" s="100"/>
     </row>
-    <row r="5" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>302</v>
       </c>
@@ -36016,7 +36023,7 @@
       <c r="AX5" s="100"/>
       <c r="AY5" s="100"/>
     </row>
-    <row r="6" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
         <v>303</v>
       </c>
@@ -36110,7 +36117,7 @@
       <c r="AX6" s="100"/>
       <c r="AY6" s="100"/>
     </row>
-    <row r="7" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
         <v>304</v>
       </c>
@@ -36198,7 +36205,7 @@
       <c r="AX7" s="100"/>
       <c r="AY7" s="100"/>
     </row>
-    <row r="8" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
         <v>305</v>
       </c>
@@ -36314,7 +36321,7 @@
       <c r="AX8" s="100"/>
       <c r="AY8" s="100"/>
     </row>
-    <row r="9" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
         <v>306</v>
       </c>
@@ -36408,7 +36415,7 @@
       <c r="AX9" s="100"/>
       <c r="AY9" s="100"/>
     </row>
-    <row r="10" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
         <v>307</v>
       </c>
@@ -36499,7 +36506,7 @@
       <c r="AX10" s="100"/>
       <c r="AY10" s="100"/>
     </row>
-    <row r="11" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
         <v>308</v>
       </c>
@@ -36594,7 +36601,7 @@
       <c r="AX11" s="100"/>
       <c r="AY11" s="100"/>
     </row>
-    <row r="12" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="26" t="s">
         <v>309</v>
       </c>
@@ -36690,7 +36697,7 @@
       <c r="AX12" s="100"/>
       <c r="AY12" s="100"/>
     </row>
-    <row r="13" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="26" t="s">
         <v>310</v>
       </c>
@@ -36766,7 +36773,7 @@
       <c r="AX13" s="100"/>
       <c r="AY13" s="100"/>
     </row>
-    <row r="14" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="26" t="s">
         <v>311</v>
       </c>
@@ -36846,7 +36853,7 @@
       <c r="AX14" s="100"/>
       <c r="AY14" s="100"/>
     </row>
-    <row r="15" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="26" t="s">
         <v>312</v>
       </c>
@@ -36989,7 +36996,7 @@
       <c r="AX15" s="100"/>
       <c r="AY15" s="100"/>
     </row>
-    <row r="16" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="26" t="s">
         <v>313</v>
       </c>
@@ -37108,7 +37115,7 @@
       <c r="AX16" s="100"/>
       <c r="AY16" s="100"/>
     </row>
-    <row r="17" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="26" t="s">
         <v>314</v>
       </c>
@@ -37213,7 +37220,7 @@
       <c r="AX17" s="100"/>
       <c r="AY17" s="100"/>
     </row>
-    <row r="18" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="26" t="s">
         <v>315</v>
       </c>
@@ -37307,7 +37314,7 @@
       <c r="AX18" s="100"/>
       <c r="AY18" s="100"/>
     </row>
-    <row r="19" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="26" t="s">
         <v>316</v>
       </c>
@@ -37407,7 +37414,7 @@
       <c r="AX19" s="100"/>
       <c r="AY19" s="100"/>
     </row>
-    <row r="20" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="26" t="s">
         <v>520</v>
       </c>
@@ -37479,7 +37486,7 @@
       <c r="AX20" s="100"/>
       <c r="AY20" s="100"/>
     </row>
-    <row r="21" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="26" t="s">
         <v>523</v>
       </c>
@@ -37555,7 +37562,7 @@
       <c r="AX21" s="100"/>
       <c r="AY21" s="100"/>
     </row>
-    <row r="22" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="26" t="s">
         <v>524</v>
       </c>
@@ -37655,7 +37662,7 @@
       <c r="AX22" s="100"/>
       <c r="AY22" s="100"/>
     </row>
-    <row r="23" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="26" t="s">
         <v>525</v>
       </c>
@@ -37747,7 +37754,7 @@
       <c r="AX23" s="100"/>
       <c r="AY23" s="100"/>
     </row>
-    <row r="24" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="26" t="s">
         <v>526</v>
       </c>
@@ -37819,7 +37826,7 @@
       <c r="AX24" s="100"/>
       <c r="AY24" s="100"/>
     </row>
-    <row r="25" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="26" t="s">
         <v>527</v>
       </c>
@@ -37940,7 +37947,7 @@
       <c r="AX25" s="100"/>
       <c r="AY25" s="100"/>
     </row>
-    <row r="26" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="26" t="s">
         <v>528</v>
       </c>
@@ -38059,7 +38066,7 @@
       <c r="AX26" s="100"/>
       <c r="AY26" s="100"/>
     </row>
-    <row r="27" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="26" t="s">
         <v>529</v>
       </c>
@@ -38176,7 +38183,7 @@
       <c r="AX27" s="100"/>
       <c r="AY27" s="100"/>
     </row>
-    <row r="28" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="26" t="s">
         <v>530</v>
       </c>
@@ -38260,7 +38267,7 @@
       <c r="AX28" s="100"/>
       <c r="AY28" s="100"/>
     </row>
-    <row r="29" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="26" t="s">
         <v>531</v>
       </c>
@@ -38348,7 +38355,7 @@
       <c r="AX29" s="100"/>
       <c r="AY29" s="100"/>
     </row>
-    <row r="30" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="26" t="s">
         <v>532</v>
       </c>
@@ -38420,7 +38427,7 @@
       <c r="AX30" s="100"/>
       <c r="AY30" s="100"/>
     </row>
-    <row r="31" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="26" t="s">
         <v>533</v>
       </c>
@@ -38492,7 +38499,7 @@
       <c r="AX31" s="100"/>
       <c r="AY31" s="100"/>
     </row>
-    <row r="32" spans="1:51" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:51" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="26" t="s">
         <v>534</v>
       </c>
@@ -38590,7 +38597,7 @@
       <c r="AX32" s="100"/>
       <c r="AY32" s="100"/>
     </row>
-    <row r="33" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="26" t="s">
         <v>535</v>
       </c>
@@ -38711,7 +38718,7 @@
       <c r="AX33" s="100"/>
       <c r="AY33" s="100"/>
     </row>
-    <row r="34" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="26" t="s">
         <v>536</v>
       </c>
@@ -38824,7 +38831,7 @@
       <c r="AX34" s="100"/>
       <c r="AY34" s="100"/>
     </row>
-    <row r="35" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="26" t="s">
         <v>537</v>
       </c>
@@ -38892,7 +38899,7 @@
       <c r="AX35" s="100"/>
       <c r="AY35" s="100"/>
     </row>
-    <row r="36" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="26" t="s">
         <v>538</v>
       </c>
@@ -38974,7 +38981,7 @@
       <c r="AX36" s="100"/>
       <c r="AY36" s="100"/>
     </row>
-    <row r="37" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="26" t="s">
         <v>539</v>
       </c>
@@ -39087,7 +39094,7 @@
       <c r="AX37" s="100"/>
       <c r="AY37" s="100"/>
     </row>
-    <row r="38" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="26" t="s">
         <v>540</v>
       </c>
@@ -39189,7 +39196,7 @@
       <c r="AX38" s="100"/>
       <c r="AY38" s="100"/>
     </row>
-    <row r="39" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="26" t="s">
         <v>541</v>
       </c>
@@ -39302,7 +39309,7 @@
       <c r="AX39" s="100"/>
       <c r="AY39" s="100"/>
     </row>
-    <row r="40" spans="1:51" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:51" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="26" t="s">
         <v>542</v>
       </c>
@@ -39421,7 +39428,7 @@
       </c>
       <c r="AY40" s="100"/>
     </row>
-    <row r="41" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="26" t="s">
         <v>543</v>
       </c>
@@ -39535,7 +39542,7 @@
       <c r="AX41" s="100"/>
       <c r="AY41" s="100"/>
     </row>
-    <row r="42" spans="1:51" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:51" ht="36" x14ac:dyDescent="0.3">
       <c r="A42" s="26" t="s">
         <v>544</v>
       </c>
@@ -39632,7 +39639,7 @@
       <c r="AX42" s="100"/>
       <c r="AY42" s="100"/>
     </row>
-    <row r="43" spans="1:51" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:51" ht="36" x14ac:dyDescent="0.3">
       <c r="A43" s="26" t="s">
         <v>545</v>
       </c>
@@ -39725,7 +39732,7 @@
       <c r="AX43" s="100"/>
       <c r="AY43" s="100"/>
     </row>
-    <row r="44" spans="1:51" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:51" ht="36" x14ac:dyDescent="0.3">
       <c r="A44" s="26" t="s">
         <v>546</v>
       </c>
@@ -39822,7 +39829,7 @@
       <c r="AX44" s="100"/>
       <c r="AY44" s="100"/>
     </row>
-    <row r="45" spans="1:51" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:51" ht="36" x14ac:dyDescent="0.3">
       <c r="A45" s="26" t="s">
         <v>547</v>
       </c>
@@ -39911,7 +39918,7 @@
       <c r="AX45" s="100"/>
       <c r="AY45" s="100"/>
     </row>
-    <row r="46" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A46" s="110"/>
       <c r="B46" s="102" t="s">
         <v>318</v>
@@ -39972,7 +39979,7 @@
       <c r="AX46" s="100"/>
       <c r="AY46" s="100"/>
     </row>
-    <row r="47" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A47" s="110"/>
       <c r="B47" s="102" t="s">
         <v>299</v>
@@ -40027,7 +40034,7 @@
       <c r="AX47" s="100"/>
       <c r="AY47" s="100"/>
     </row>
-    <row r="48" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="26" t="s">
         <v>301</v>
       </c>
@@ -40105,7 +40112,7 @@
       <c r="AX48" s="100"/>
       <c r="AY48" s="100"/>
     </row>
-    <row r="49" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="26" t="s">
         <v>302</v>
       </c>
@@ -40181,7 +40188,7 @@
       <c r="AX49" s="100"/>
       <c r="AY49" s="100"/>
     </row>
-    <row r="50" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="26" t="s">
         <v>303</v>
       </c>
@@ -40257,7 +40264,7 @@
       <c r="AX50" s="100"/>
       <c r="AY50" s="100"/>
     </row>
-    <row r="51" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="26" t="s">
         <v>304</v>
       </c>
@@ -40331,7 +40338,7 @@
       <c r="AX51" s="100"/>
       <c r="AY51" s="100"/>
     </row>
-    <row r="52" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="26" t="s">
         <v>305</v>
       </c>
@@ -40407,7 +40414,7 @@
       <c r="AX52" s="100"/>
       <c r="AY52" s="100"/>
     </row>
-    <row r="53" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="26" t="s">
         <v>306</v>
       </c>
@@ -40479,7 +40486,7 @@
       <c r="AX53" s="100"/>
       <c r="AY53" s="100"/>
     </row>
-    <row r="54" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="26" t="s">
         <v>307</v>
       </c>
@@ -40561,7 +40568,7 @@
       <c r="AX54" s="100"/>
       <c r="AY54" s="100"/>
     </row>
-    <row r="55" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="26" t="s">
         <v>308</v>
       </c>
@@ -40637,7 +40644,7 @@
       <c r="AX55" s="100"/>
       <c r="AY55" s="100"/>
     </row>
-    <row r="56" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="26" t="s">
         <v>309</v>
       </c>
@@ -40701,7 +40708,7 @@
       <c r="AX56" s="100"/>
       <c r="AY56" s="100"/>
     </row>
-    <row r="57" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="26" t="s">
         <v>310</v>
       </c>
@@ -40767,7 +40774,7 @@
       <c r="AX57" s="100"/>
       <c r="AY57" s="100"/>
     </row>
-    <row r="58" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="26" t="s">
         <v>311</v>
       </c>
@@ -40833,7 +40840,7 @@
       <c r="AX58" s="100"/>
       <c r="AY58" s="100"/>
     </row>
-    <row r="59" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="26" t="s">
         <v>312</v>
       </c>
@@ -40931,7 +40938,7 @@
       <c r="AX59" s="100"/>
       <c r="AY59" s="100"/>
     </row>
-    <row r="60" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="26" t="s">
         <v>313</v>
       </c>
@@ -41027,7 +41034,7 @@
       <c r="AX60" s="100"/>
       <c r="AY60" s="100"/>
     </row>
-    <row r="61" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="26" t="s">
         <v>314</v>
       </c>
@@ -41121,7 +41128,7 @@
       <c r="AX61" s="100"/>
       <c r="AY61" s="100"/>
     </row>
-    <row r="62" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="26" t="s">
         <v>315</v>
       </c>
@@ -41209,7 +41216,7 @@
       <c r="AX62" s="100"/>
       <c r="AY62" s="100"/>
     </row>
-    <row r="63" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="26" t="s">
         <v>316</v>
       </c>
@@ -41305,7 +41312,7 @@
       <c r="AX63" s="100"/>
       <c r="AY63" s="100"/>
     </row>
-    <row r="64" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="26" t="s">
         <v>520</v>
       </c>
@@ -41369,7 +41376,7 @@
       <c r="AX64" s="100"/>
       <c r="AY64" s="100"/>
     </row>
-    <row r="65" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="26" t="s">
         <v>523</v>
       </c>
@@ -41435,7 +41442,7 @@
       <c r="AX65" s="100"/>
       <c r="AY65" s="100"/>
     </row>
-    <row r="66" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="26" t="s">
         <v>524</v>
       </c>
@@ -41525,7 +41532,7 @@
       <c r="AX66" s="100"/>
       <c r="AY66" s="100"/>
     </row>
-    <row r="67" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="26" t="s">
         <v>525</v>
       </c>
@@ -41613,7 +41620,7 @@
       <c r="AX67" s="100"/>
       <c r="AY67" s="100"/>
     </row>
-    <row r="68" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="26" t="s">
         <v>526</v>
       </c>
@@ -41683,7 +41690,7 @@
       <c r="AX68" s="100"/>
       <c r="AY68" s="100"/>
     </row>
-    <row r="69" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="26" t="s">
         <v>527</v>
       </c>
@@ -41787,7 +41794,7 @@
       <c r="AX69" s="100"/>
       <c r="AY69" s="100"/>
     </row>
-    <row r="70" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="26" t="s">
         <v>528</v>
       </c>
@@ -41889,7 +41896,7 @@
       <c r="AX70" s="100"/>
       <c r="AY70" s="100"/>
     </row>
-    <row r="71" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="26" t="s">
         <v>529</v>
       </c>
@@ -41989,7 +41996,7 @@
       <c r="AX71" s="100"/>
       <c r="AY71" s="100"/>
     </row>
-    <row r="72" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="26" t="s">
         <v>530</v>
       </c>
@@ -42071,7 +42078,7 @@
       <c r="AX72" s="100"/>
       <c r="AY72" s="100"/>
     </row>
-    <row r="73" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="26" t="s">
         <v>531</v>
       </c>
@@ -42162,7 +42169,7 @@
       <c r="AX73" s="100"/>
       <c r="AY73" s="100"/>
     </row>
-    <row r="74" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="26" t="s">
         <v>532</v>
       </c>
@@ -42232,7 +42239,7 @@
       <c r="AX74" s="100"/>
       <c r="AY74" s="100"/>
     </row>
-    <row r="75" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="26" t="s">
         <v>533</v>
       </c>
@@ -42302,7 +42309,7 @@
       <c r="AX75" s="100"/>
       <c r="AY75" s="100"/>
     </row>
-    <row r="76" spans="1:51" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:51" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="26" t="s">
         <v>534</v>
       </c>
@@ -42390,7 +42397,7 @@
       <c r="AX76" s="100"/>
       <c r="AY76" s="100"/>
     </row>
-    <row r="77" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="26" t="s">
         <v>535</v>
       </c>
@@ -42475,7 +42482,7 @@
       <c r="AX77" s="100"/>
       <c r="AY77" s="100"/>
     </row>
-    <row r="78" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="26" t="s">
         <v>536</v>
       </c>
@@ -42571,7 +42578,7 @@
       <c r="AX78" s="100"/>
       <c r="AY78" s="100"/>
     </row>
-    <row r="79" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="26" t="s">
         <v>537</v>
       </c>
@@ -42635,7 +42642,7 @@
       <c r="AX79" s="100"/>
       <c r="AY79" s="100"/>
     </row>
-    <row r="80" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="26" t="s">
         <v>538</v>
       </c>
@@ -42705,7 +42712,7 @@
       <c r="AX80" s="100"/>
       <c r="AY80" s="100"/>
     </row>
-    <row r="81" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="26" t="s">
         <v>539</v>
       </c>
@@ -42785,7 +42792,7 @@
       <c r="AX81" s="100"/>
       <c r="AY81" s="100"/>
     </row>
-    <row r="82" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="26" t="s">
         <v>540</v>
       </c>
@@ -42870,7 +42877,7 @@
       <c r="AX82" s="100"/>
       <c r="AY82" s="100"/>
     </row>
-    <row r="83" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="26" t="s">
         <v>541</v>
       </c>
@@ -42954,7 +42961,7 @@
       <c r="AX83" s="100"/>
       <c r="AY83" s="100"/>
     </row>
-    <row r="84" spans="1:51" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:51" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="26" t="s">
         <v>542</v>
       </c>
@@ -43032,7 +43039,7 @@
       <c r="AX84" s="100"/>
       <c r="AY84" s="100"/>
     </row>
-    <row r="85" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="26" t="s">
         <v>543</v>
       </c>
@@ -43126,7 +43133,7 @@
       <c r="AX85" s="100"/>
       <c r="AY85" s="100"/>
     </row>
-    <row r="86" spans="1:51" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:51" ht="36" x14ac:dyDescent="0.3">
       <c r="A86" s="26" t="s">
         <v>544</v>
       </c>
@@ -43220,7 +43227,7 @@
       <c r="AX86" s="100"/>
       <c r="AY86" s="100"/>
     </row>
-    <row r="87" spans="1:51" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:51" ht="36" x14ac:dyDescent="0.3">
       <c r="A87" s="26" t="s">
         <v>545</v>
       </c>
@@ -43308,7 +43315,7 @@
       <c r="AX87" s="100"/>
       <c r="AY87" s="100"/>
     </row>
-    <row r="88" spans="1:51" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:51" ht="36" x14ac:dyDescent="0.3">
       <c r="A88" s="26" t="s">
         <v>546</v>
       </c>
@@ -43402,7 +43409,7 @@
       <c r="AX88" s="100"/>
       <c r="AY88" s="100"/>
     </row>
-    <row r="89" spans="1:51" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:51" ht="36" x14ac:dyDescent="0.3">
       <c r="A89" s="26" t="s">
         <v>547</v>
       </c>
@@ -43496,7 +43503,7 @@
       <c r="AX89" s="100"/>
       <c r="AY89" s="100"/>
     </row>
-    <row r="90" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A90" s="110" t="s">
         <v>548</v>
       </c>
@@ -43559,7 +43566,7 @@
       <c r="AX90" s="100"/>
       <c r="AY90" s="100"/>
     </row>
-    <row r="91" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A91" s="110"/>
       <c r="B91" s="102"/>
       <c r="C91" s="100"/>
@@ -43612,16 +43619,16 @@
       <c r="AX91" s="100"/>
       <c r="AY91" s="100"/>
     </row>
-    <row r="92" spans="1:51" s="33" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="142"/>
-      <c r="B92" s="145" t="s">
+    <row r="92" spans="1:51" s="33" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="143"/>
+      <c r="B92" s="146" t="s">
         <v>179</v>
       </c>
       <c r="C92" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="D92" s="148"/>
-      <c r="E92" s="149"/>
+      <c r="D92" s="149"/>
+      <c r="E92" s="150"/>
       <c r="F92" s="32"/>
       <c r="G92" s="32"/>
       <c r="H92" s="32"/>
@@ -43669,17 +43676,17 @@
       <c r="AX92" s="32"/>
       <c r="AY92" s="32"/>
     </row>
-    <row r="93" spans="1:51" s="33" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="143"/>
-      <c r="B93" s="146"/>
+    <row r="93" spans="1:51" s="33" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="144"/>
+      <c r="B93" s="147"/>
       <c r="C93" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D93" s="148">
+      <c r="D93" s="149">
         <f>D46</f>
         <v>286455.57999999996</v>
       </c>
-      <c r="E93" s="149"/>
+      <c r="E93" s="150"/>
       <c r="F93" s="32"/>
       <c r="G93" s="32"/>
       <c r="H93" s="32"/>
@@ -43727,17 +43734,17 @@
       <c r="AX93" s="32"/>
       <c r="AY93" s="32"/>
     </row>
-    <row r="94" spans="1:51" s="33" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="144"/>
-      <c r="B94" s="147"/>
+    <row r="94" spans="1:51" s="33" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="145"/>
+      <c r="B94" s="148"/>
       <c r="C94" s="32" t="s">
         <v>209</v>
       </c>
-      <c r="D94" s="150">
+      <c r="D94" s="151">
         <f>E46+E90</f>
         <v>383930628.40310431</v>
       </c>
-      <c r="E94" s="151"/>
+      <c r="E94" s="152"/>
       <c r="F94" s="32">
         <f>SUM(F4:F90)</f>
         <v>79135484.391771942</v>
@@ -43923,39 +43930,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="34" t="s">
         <v>181</v>
       </c>
-      <c r="B96" s="136" t="s">
+      <c r="B96" s="153" t="s">
         <v>182</v>
       </c>
-      <c r="C96" s="136"/>
-      <c r="D96" s="136"/>
+      <c r="C96" s="153"/>
+      <c r="D96" s="153"/>
       <c r="E96" s="105"/>
     </row>
-    <row r="97" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="34" t="s">
         <v>183</v>
       </c>
-      <c r="B97" s="136" t="s">
+      <c r="B97" s="153" t="s">
         <v>184</v>
       </c>
-      <c r="C97" s="136"/>
-      <c r="D97" s="136"/>
+      <c r="C97" s="153"/>
+      <c r="D97" s="153"/>
       <c r="E97" s="105"/>
       <c r="G97" s="36"/>
       <c r="H97" s="36"/>
       <c r="I97" s="36"/>
     </row>
-    <row r="102" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" ht="25.2" x14ac:dyDescent="0.3">
       <c r="B102" s="23"/>
       <c r="C102" s="23"/>
       <c r="D102" s="23"/>
       <c r="E102" s="23"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AY94">
+  <autoFilter ref="A1:AY94" xr:uid="{00000000-0009-0000-0000-000006000000}">
     <filterColumn colId="5" showButton="0"/>
     <filterColumn colId="7" showButton="0"/>
     <filterColumn colId="9" showButton="0"/>
@@ -43981,20 +43988,11 @@
     <filterColumn colId="49" showButton="0"/>
   </autoFilter>
   <mergeCells count="35">
-    <mergeCell ref="B96:D96"/>
-    <mergeCell ref="B97:D97"/>
-    <mergeCell ref="AR1:AS1"/>
-    <mergeCell ref="AT1:AU1"/>
-    <mergeCell ref="AV1:AW1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="AX1:AY1"/>
     <mergeCell ref="A92:A94"/>
     <mergeCell ref="B92:B94"/>
@@ -44011,11 +44009,20 @@
     <mergeCell ref="V1:W1"/>
     <mergeCell ref="X1:Y1"/>
     <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="B96:D96"/>
+    <mergeCell ref="B97:D97"/>
+    <mergeCell ref="AR1:AS1"/>
+    <mergeCell ref="AT1:AU1"/>
+    <mergeCell ref="AV1:AW1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="F1:G1"/>
   </mergeCells>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" scale="52" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -44027,7 +44034,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="1"/>
@@ -44039,169 +44046,169 @@
       <selection pane="bottomLeft" activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7" style="37" customWidth="1"/>
-    <col min="2" max="2" width="38.42578125" style="24" customWidth="1"/>
-    <col min="3" max="3" width="49.5703125" style="24" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" style="24" customWidth="1"/>
-    <col min="5" max="5" width="25.28515625" style="24" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" style="24" customWidth="1"/>
-    <col min="7" max="7" width="20.140625" style="24" customWidth="1"/>
-    <col min="8" max="9" width="18.28515625" style="24" customWidth="1"/>
-    <col min="10" max="11" width="20.140625" style="24" customWidth="1"/>
+    <col min="2" max="2" width="38.44140625" style="24" customWidth="1"/>
+    <col min="3" max="3" width="49.5546875" style="24" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" style="24" customWidth="1"/>
+    <col min="5" max="5" width="25.33203125" style="24" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" style="24" customWidth="1"/>
+    <col min="7" max="7" width="20.109375" style="24" customWidth="1"/>
+    <col min="8" max="9" width="18.33203125" style="24" customWidth="1"/>
+    <col min="10" max="11" width="20.109375" style="24" customWidth="1"/>
     <col min="12" max="13" width="16" style="24" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" style="24" customWidth="1"/>
-    <col min="15" max="15" width="18.28515625" style="24" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="24" customWidth="1"/>
-    <col min="17" max="17" width="18.28515625" style="24" customWidth="1"/>
-    <col min="18" max="18" width="11.85546875" style="24" customWidth="1"/>
+    <col min="14" max="14" width="11.5546875" style="24" customWidth="1"/>
+    <col min="15" max="15" width="18.33203125" style="24" customWidth="1"/>
+    <col min="16" max="16" width="13.44140625" style="24" customWidth="1"/>
+    <col min="17" max="17" width="18.33203125" style="24" customWidth="1"/>
+    <col min="18" max="18" width="11.88671875" style="24" customWidth="1"/>
     <col min="19" max="19" width="16" style="24" customWidth="1"/>
-    <col min="20" max="21" width="18.28515625" style="24" customWidth="1"/>
+    <col min="20" max="21" width="18.33203125" style="24" customWidth="1"/>
     <col min="22" max="22" width="16" style="24" customWidth="1"/>
     <col min="23" max="23" width="23" style="24" customWidth="1"/>
-    <col min="24" max="25" width="18.28515625" style="24" customWidth="1"/>
-    <col min="26" max="26" width="13.42578125" style="24" customWidth="1"/>
-    <col min="27" max="27" width="18.28515625" style="24" customWidth="1"/>
+    <col min="24" max="25" width="18.33203125" style="24" customWidth="1"/>
+    <col min="26" max="26" width="13.44140625" style="24" customWidth="1"/>
+    <col min="27" max="27" width="18.33203125" style="24" customWidth="1"/>
     <col min="28" max="29" width="16" style="24" customWidth="1"/>
-    <col min="30" max="30" width="29.5703125" style="24" customWidth="1"/>
-    <col min="31" max="31" width="13.5703125" style="24" customWidth="1"/>
-    <col min="32" max="32" width="27.28515625" style="24" customWidth="1"/>
+    <col min="30" max="30" width="29.5546875" style="24" customWidth="1"/>
+    <col min="31" max="31" width="13.5546875" style="24" customWidth="1"/>
+    <col min="32" max="32" width="27.33203125" style="24" customWidth="1"/>
     <col min="33" max="33" width="30" style="24" customWidth="1"/>
-    <col min="34" max="34" width="42.28515625" style="24" customWidth="1"/>
-    <col min="35" max="35" width="26.28515625" style="24" customWidth="1"/>
-    <col min="36" max="36" width="20.5703125" style="24" customWidth="1"/>
-    <col min="37" max="37" width="26.140625" style="24" customWidth="1"/>
-    <col min="38" max="38" width="55.140625" style="24" customWidth="1"/>
-    <col min="39" max="39" width="33.85546875" style="24" customWidth="1"/>
-    <col min="40" max="40" width="31.28515625" style="24" customWidth="1"/>
-    <col min="41" max="41" width="18.42578125" style="24" customWidth="1"/>
-    <col min="42" max="42" width="15.7109375" style="24" customWidth="1"/>
-    <col min="43" max="43" width="14.140625" style="24" customWidth="1"/>
-    <col min="44" max="45" width="20.140625" style="24" customWidth="1"/>
+    <col min="34" max="34" width="42.33203125" style="24" customWidth="1"/>
+    <col min="35" max="35" width="26.33203125" style="24" customWidth="1"/>
+    <col min="36" max="36" width="20.5546875" style="24" customWidth="1"/>
+    <col min="37" max="37" width="26.109375" style="24" customWidth="1"/>
+    <col min="38" max="38" width="55.109375" style="24" customWidth="1"/>
+    <col min="39" max="39" width="33.88671875" style="24" customWidth="1"/>
+    <col min="40" max="40" width="31.33203125" style="24" customWidth="1"/>
+    <col min="41" max="41" width="18.44140625" style="24" customWidth="1"/>
+    <col min="42" max="42" width="15.6640625" style="24" customWidth="1"/>
+    <col min="43" max="43" width="14.109375" style="24" customWidth="1"/>
+    <col min="44" max="45" width="20.109375" style="24" customWidth="1"/>
     <col min="46" max="47" width="16" style="24" customWidth="1"/>
-    <col min="48" max="48" width="16.7109375" style="24" customWidth="1"/>
-    <col min="49" max="49" width="18.42578125" style="24" customWidth="1"/>
-    <col min="50" max="50" width="16.28515625" style="24" customWidth="1"/>
+    <col min="48" max="48" width="16.6640625" style="24" customWidth="1"/>
+    <col min="49" max="49" width="18.44140625" style="24" customWidth="1"/>
+    <col min="50" max="50" width="16.33203125" style="24" customWidth="1"/>
     <col min="51" max="51" width="15" style="24" customWidth="1"/>
-    <col min="52" max="16384" width="9.140625" style="24"/>
+    <col min="52" max="16384" width="9.109375" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="152" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="154" t="s">
+    <row r="1" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="137" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="139" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="154" t="s">
+      <c r="C1" s="139" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="154" t="s">
+      <c r="D1" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="154" t="s">
+      <c r="E1" s="139" t="s">
         <v>210</v>
       </c>
-      <c r="F1" s="141" t="s">
+      <c r="F1" s="136" t="s">
         <v>194</v>
       </c>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141" t="s">
+      <c r="G1" s="136"/>
+      <c r="H1" s="136" t="s">
         <v>186</v>
       </c>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141" t="s">
+      <c r="I1" s="136"/>
+      <c r="J1" s="136" t="s">
         <v>550</v>
       </c>
-      <c r="K1" s="141"/>
-      <c r="L1" s="139" t="s">
+      <c r="K1" s="136"/>
+      <c r="L1" s="141" t="s">
         <v>190</v>
       </c>
-      <c r="M1" s="140"/>
-      <c r="N1" s="139" t="s">
+      <c r="M1" s="142"/>
+      <c r="N1" s="141" t="s">
         <v>200</v>
       </c>
-      <c r="O1" s="140"/>
-      <c r="P1" s="141" t="s">
+      <c r="O1" s="142"/>
+      <c r="P1" s="136" t="s">
         <v>191</v>
       </c>
-      <c r="Q1" s="141"/>
-      <c r="R1" s="141" t="s">
+      <c r="Q1" s="136"/>
+      <c r="R1" s="136" t="s">
         <v>204</v>
       </c>
-      <c r="S1" s="141"/>
-      <c r="T1" s="139" t="s">
+      <c r="S1" s="136"/>
+      <c r="T1" s="141" t="s">
         <v>192</v>
       </c>
-      <c r="U1" s="140"/>
-      <c r="V1" s="141" t="s">
+      <c r="U1" s="142"/>
+      <c r="V1" s="136" t="s">
         <v>203</v>
       </c>
-      <c r="W1" s="141"/>
-      <c r="X1" s="139" t="s">
+      <c r="W1" s="136"/>
+      <c r="X1" s="141" t="s">
         <v>193</v>
       </c>
-      <c r="Y1" s="140"/>
-      <c r="Z1" s="141" t="s">
+      <c r="Y1" s="142"/>
+      <c r="Z1" s="136" t="s">
         <v>195</v>
       </c>
-      <c r="AA1" s="141"/>
-      <c r="AB1" s="141" t="s">
+      <c r="AA1" s="136"/>
+      <c r="AB1" s="136" t="s">
         <v>196</v>
       </c>
-      <c r="AC1" s="141"/>
-      <c r="AD1" s="141" t="s">
+      <c r="AC1" s="136"/>
+      <c r="AD1" s="136" t="s">
         <v>197</v>
       </c>
-      <c r="AE1" s="141"/>
-      <c r="AF1" s="141" t="s">
+      <c r="AE1" s="136"/>
+      <c r="AF1" s="136" t="s">
         <v>294</v>
       </c>
-      <c r="AG1" s="141"/>
-      <c r="AH1" s="141" t="s">
+      <c r="AG1" s="136"/>
+      <c r="AH1" s="136" t="s">
         <v>208</v>
       </c>
-      <c r="AI1" s="141"/>
-      <c r="AJ1" s="141" t="s">
+      <c r="AI1" s="136"/>
+      <c r="AJ1" s="136" t="s">
         <v>199</v>
       </c>
-      <c r="AK1" s="141"/>
-      <c r="AL1" s="141" t="s">
+      <c r="AK1" s="136"/>
+      <c r="AL1" s="136" t="s">
         <v>201</v>
       </c>
-      <c r="AM1" s="141"/>
-      <c r="AN1" s="141" t="s">
+      <c r="AM1" s="136"/>
+      <c r="AN1" s="136" t="s">
         <v>202</v>
       </c>
-      <c r="AO1" s="141"/>
-      <c r="AP1" s="139" t="s">
+      <c r="AO1" s="136"/>
+      <c r="AP1" s="141" t="s">
         <v>205</v>
       </c>
-      <c r="AQ1" s="140"/>
-      <c r="AR1" s="141" t="s">
+      <c r="AQ1" s="142"/>
+      <c r="AR1" s="136" t="s">
         <v>206</v>
       </c>
-      <c r="AS1" s="141"/>
-      <c r="AT1" s="141" t="s">
+      <c r="AS1" s="136"/>
+      <c r="AT1" s="136" t="s">
         <v>207</v>
       </c>
-      <c r="AU1" s="141"/>
-      <c r="AV1" s="137" t="s">
+      <c r="AU1" s="136"/>
+      <c r="AV1" s="154" t="s">
         <v>292</v>
       </c>
       <c r="AW1" s="158"/>
-      <c r="AX1" s="139" t="s">
+      <c r="AX1" s="141" t="s">
         <v>291</v>
       </c>
-      <c r="AY1" s="140"/>
-    </row>
-    <row r="2" spans="1:51" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="153"/>
-      <c r="B2" s="155"/>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
+      <c r="AY1" s="142"/>
+    </row>
+    <row r="2" spans="1:51" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="138"/>
+      <c r="B2" s="140"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
       <c r="F2" s="100" t="s">
         <v>188</v>
       </c>
@@ -44341,7 +44348,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="3" spans="1:51" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:51" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="107"/>
       <c r="B3" s="109" t="s">
         <v>298</v>
@@ -44396,7 +44403,7 @@
       <c r="AX3" s="106"/>
       <c r="AY3" s="106"/>
     </row>
-    <row r="4" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>301</v>
       </c>
@@ -44473,7 +44480,7 @@
       <c r="AX4" s="100"/>
       <c r="AY4" s="100"/>
     </row>
-    <row r="5" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>302</v>
       </c>
@@ -44554,7 +44561,7 @@
       <c r="AX5" s="100"/>
       <c r="AY5" s="100"/>
     </row>
-    <row r="6" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
         <v>303</v>
       </c>
@@ -44638,7 +44645,7 @@
       <c r="AX6" s="100"/>
       <c r="AY6" s="100"/>
     </row>
-    <row r="7" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
         <v>304</v>
       </c>
@@ -44715,7 +44722,7 @@
       <c r="AX7" s="100"/>
       <c r="AY7" s="100"/>
     </row>
-    <row r="8" spans="1:51" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:51" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
         <v>305</v>
       </c>
@@ -44792,7 +44799,7 @@
       <c r="AX8" s="100"/>
       <c r="AY8" s="100"/>
     </row>
-    <row r="9" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
         <v>306</v>
       </c>
@@ -44869,7 +44876,7 @@
       <c r="AX9" s="100"/>
       <c r="AY9" s="100"/>
     </row>
-    <row r="10" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
         <v>307</v>
       </c>
@@ -44946,7 +44953,7 @@
       <c r="AX10" s="100"/>
       <c r="AY10" s="100"/>
     </row>
-    <row r="11" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
         <v>308</v>
       </c>
@@ -45023,7 +45030,7 @@
       <c r="AX11" s="100"/>
       <c r="AY11" s="100"/>
     </row>
-    <row r="12" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="26" t="s">
         <v>309</v>
       </c>
@@ -45105,7 +45112,7 @@
       <c r="AX12" s="100"/>
       <c r="AY12" s="100"/>
     </row>
-    <row r="13" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="26" t="s">
         <v>310</v>
       </c>
@@ -45183,7 +45190,7 @@
       <c r="AX13" s="100"/>
       <c r="AY13" s="100"/>
     </row>
-    <row r="14" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="26" t="s">
         <v>311</v>
       </c>
@@ -45259,7 +45266,7 @@
       <c r="AX14" s="100"/>
       <c r="AY14" s="100"/>
     </row>
-    <row r="15" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="26" t="s">
         <v>312</v>
       </c>
@@ -45341,7 +45348,7 @@
       <c r="AX15" s="100"/>
       <c r="AY15" s="100"/>
     </row>
-    <row r="16" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="26" t="s">
         <v>313</v>
       </c>
@@ -45427,7 +45434,7 @@
       <c r="AX16" s="100"/>
       <c r="AY16" s="100"/>
     </row>
-    <row r="17" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="26" t="s">
         <v>314</v>
       </c>
@@ -45503,7 +45510,7 @@
       <c r="AX17" s="100"/>
       <c r="AY17" s="100"/>
     </row>
-    <row r="18" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="26" t="s">
         <v>315</v>
       </c>
@@ -45594,7 +45601,7 @@
       <c r="AX18" s="100"/>
       <c r="AY18" s="100"/>
     </row>
-    <row r="19" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="26" t="s">
         <v>316</v>
       </c>
@@ -45701,7 +45708,7 @@
       <c r="AX19" s="100"/>
       <c r="AY19" s="100"/>
     </row>
-    <row r="20" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="26" t="s">
         <v>520</v>
       </c>
@@ -45765,7 +45772,7 @@
       <c r="AX20" s="100"/>
       <c r="AY20" s="100"/>
     </row>
-    <row r="21" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="26" t="s">
         <v>523</v>
       </c>
@@ -45885,7 +45892,7 @@
       <c r="AX21" s="100"/>
       <c r="AY21" s="100"/>
     </row>
-    <row r="22" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="26" t="s">
         <v>524</v>
       </c>
@@ -45999,7 +46006,7 @@
       <c r="AX22" s="100"/>
       <c r="AY22" s="100"/>
     </row>
-    <row r="23" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="26" t="s">
         <v>525</v>
       </c>
@@ -46075,7 +46082,7 @@
       <c r="AX23" s="100"/>
       <c r="AY23" s="100"/>
     </row>
-    <row r="24" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="26" t="s">
         <v>526</v>
       </c>
@@ -46151,7 +46158,7 @@
       <c r="AX24" s="100"/>
       <c r="AY24" s="100"/>
     </row>
-    <row r="25" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="26" t="s">
         <v>527</v>
       </c>
@@ -46227,7 +46234,7 @@
       <c r="AX25" s="100"/>
       <c r="AY25" s="100"/>
     </row>
-    <row r="26" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="26" t="s">
         <v>528</v>
       </c>
@@ -46303,7 +46310,7 @@
       <c r="AX26" s="100"/>
       <c r="AY26" s="100"/>
     </row>
-    <row r="27" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="26" t="s">
         <v>529</v>
       </c>
@@ -46381,7 +46388,7 @@
       <c r="AX27" s="100"/>
       <c r="AY27" s="100"/>
     </row>
-    <row r="28" spans="1:51" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:51" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="26" t="s">
         <v>530</v>
       </c>
@@ -46500,7 +46507,7 @@
       </c>
       <c r="AY28" s="100"/>
     </row>
-    <row r="29" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="26" t="s">
         <v>531</v>
       </c>
@@ -46614,7 +46621,7 @@
       <c r="AX29" s="100"/>
       <c r="AY29" s="100"/>
     </row>
-    <row r="30" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="26" t="s">
         <v>532</v>
       </c>
@@ -46684,7 +46691,7 @@
       <c r="AX30" s="100"/>
       <c r="AY30" s="100"/>
     </row>
-    <row r="31" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="26" t="s">
         <v>533</v>
       </c>
@@ -46752,7 +46759,7 @@
       <c r="AX31" s="100"/>
       <c r="AY31" s="100"/>
     </row>
-    <row r="32" spans="1:51" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:51" ht="36" x14ac:dyDescent="0.3">
       <c r="A32" s="26" t="s">
         <v>534</v>
       </c>
@@ -46822,7 +46829,7 @@
       <c r="AX32" s="100"/>
       <c r="AY32" s="100"/>
     </row>
-    <row r="33" spans="1:51" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:51" ht="36" x14ac:dyDescent="0.3">
       <c r="A33" s="26" t="s">
         <v>535</v>
       </c>
@@ -46892,7 +46899,7 @@
       <c r="AX33" s="100"/>
       <c r="AY33" s="100"/>
     </row>
-    <row r="34" spans="1:51" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:51" ht="36" x14ac:dyDescent="0.3">
       <c r="A34" s="26" t="s">
         <v>536</v>
       </c>
@@ -46958,7 +46965,7 @@
       <c r="AX34" s="100"/>
       <c r="AY34" s="100"/>
     </row>
-    <row r="35" spans="1:51" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:51" ht="36" x14ac:dyDescent="0.3">
       <c r="A35" s="26" t="s">
         <v>537</v>
       </c>
@@ -47024,7 +47031,7 @@
       <c r="AX35" s="100"/>
       <c r="AY35" s="100"/>
     </row>
-    <row r="36" spans="1:51" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:51" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="26" t="s">
         <v>538</v>
       </c>
@@ -47090,7 +47097,7 @@
       <c r="AX36" s="100"/>
       <c r="AY36" s="100"/>
     </row>
-    <row r="37" spans="1:51" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:51" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="110"/>
       <c r="B37" s="108" t="s">
         <v>318</v>
@@ -47151,7 +47158,7 @@
       <c r="AX37" s="106"/>
       <c r="AY37" s="106"/>
     </row>
-    <row r="38" spans="1:51" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:51" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="110"/>
       <c r="B38" s="108" t="s">
         <v>299</v>
@@ -47206,7 +47213,7 @@
       <c r="AX38" s="106"/>
       <c r="AY38" s="106"/>
     </row>
-    <row r="39" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="26" t="s">
         <v>301</v>
       </c>
@@ -47272,7 +47279,7 @@
       <c r="AX39" s="106"/>
       <c r="AY39" s="106"/>
     </row>
-    <row r="40" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="26" t="s">
         <v>302</v>
       </c>
@@ -47338,7 +47345,7 @@
       <c r="AX40" s="106"/>
       <c r="AY40" s="106"/>
     </row>
-    <row r="41" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="26" t="s">
         <v>303</v>
       </c>
@@ -47404,7 +47411,7 @@
       <c r="AX41" s="106"/>
       <c r="AY41" s="106"/>
     </row>
-    <row r="42" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="26" t="s">
         <v>304</v>
       </c>
@@ -47468,7 +47475,7 @@
       <c r="AX42" s="106"/>
       <c r="AY42" s="106"/>
     </row>
-    <row r="43" spans="1:51" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:51" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="26" t="s">
         <v>305</v>
       </c>
@@ -47532,7 +47539,7 @@
       <c r="AX43" s="106"/>
       <c r="AY43" s="106"/>
     </row>
-    <row r="44" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="26" t="s">
         <v>306</v>
       </c>
@@ -47596,7 +47603,7 @@
       <c r="AX44" s="106"/>
       <c r="AY44" s="106"/>
     </row>
-    <row r="45" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="26" t="s">
         <v>307</v>
       </c>
@@ -47660,7 +47667,7 @@
       <c r="AX45" s="106"/>
       <c r="AY45" s="106"/>
     </row>
-    <row r="46" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="26" t="s">
         <v>308</v>
       </c>
@@ -47724,7 +47731,7 @@
       <c r="AX46" s="106"/>
       <c r="AY46" s="106"/>
     </row>
-    <row r="47" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="26" t="s">
         <v>309</v>
       </c>
@@ -47791,7 +47798,7 @@
       <c r="AX47" s="106"/>
       <c r="AY47" s="106"/>
     </row>
-    <row r="48" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="26" t="s">
         <v>310</v>
       </c>
@@ -47857,7 +47864,7 @@
       <c r="AX48" s="106"/>
       <c r="AY48" s="106"/>
     </row>
-    <row r="49" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="26" t="s">
         <v>311</v>
       </c>
@@ -47935,7 +47942,7 @@
       <c r="AX49" s="106"/>
       <c r="AY49" s="106"/>
     </row>
-    <row r="50" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="26" t="s">
         <v>312</v>
       </c>
@@ -48010,7 +48017,7 @@
       <c r="AX50" s="106"/>
       <c r="AY50" s="106"/>
     </row>
-    <row r="51" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="26" t="s">
         <v>313</v>
       </c>
@@ -48078,7 +48085,7 @@
       <c r="AX51" s="106"/>
       <c r="AY51" s="106"/>
     </row>
-    <row r="52" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="26" t="s">
         <v>314</v>
       </c>
@@ -48144,7 +48151,7 @@
       <c r="AX52" s="106"/>
       <c r="AY52" s="106"/>
     </row>
-    <row r="53" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="26" t="s">
         <v>315</v>
       </c>
@@ -48228,7 +48235,7 @@
       <c r="AX53" s="106"/>
       <c r="AY53" s="106"/>
     </row>
-    <row r="54" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="26" t="s">
         <v>316</v>
       </c>
@@ -48308,7 +48315,7 @@
       <c r="AX54" s="106"/>
       <c r="AY54" s="106"/>
     </row>
-    <row r="55" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="26" t="s">
         <v>520</v>
       </c>
@@ -48372,7 +48379,7 @@
       <c r="AX55" s="106"/>
       <c r="AY55" s="106"/>
     </row>
-    <row r="56" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="26" t="s">
         <v>523</v>
       </c>
@@ -48454,7 +48461,7 @@
       <c r="AX56" s="106"/>
       <c r="AY56" s="106"/>
     </row>
-    <row r="57" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="26" t="s">
         <v>524</v>
       </c>
@@ -48536,7 +48543,7 @@
       <c r="AX57" s="106"/>
       <c r="AY57" s="106"/>
     </row>
-    <row r="58" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="26" t="s">
         <v>525</v>
       </c>
@@ -48599,7 +48606,7 @@
       <c r="AX58" s="106"/>
       <c r="AY58" s="106"/>
     </row>
-    <row r="59" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="26" t="s">
         <v>526</v>
       </c>
@@ -48663,7 +48670,7 @@
       <c r="AX59" s="106"/>
       <c r="AY59" s="106"/>
     </row>
-    <row r="60" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="26" t="s">
         <v>527</v>
       </c>
@@ -48727,7 +48734,7 @@
       <c r="AX60" s="106"/>
       <c r="AY60" s="106"/>
     </row>
-    <row r="61" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="26" t="s">
         <v>528</v>
       </c>
@@ -48791,7 +48798,7 @@
       <c r="AX61" s="106"/>
       <c r="AY61" s="106"/>
     </row>
-    <row r="62" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="26" t="s">
         <v>529</v>
       </c>
@@ -48861,7 +48868,7 @@
       <c r="AX62" s="106"/>
       <c r="AY62" s="106"/>
     </row>
-    <row r="63" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="26" t="s">
         <v>530</v>
       </c>
@@ -48925,7 +48932,7 @@
       <c r="AX63" s="106"/>
       <c r="AY63" s="106"/>
     </row>
-    <row r="64" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="26" t="s">
         <v>531</v>
       </c>
@@ -48989,7 +48996,7 @@
       <c r="AX64" s="106"/>
       <c r="AY64" s="106"/>
     </row>
-    <row r="65" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="26" t="s">
         <v>532</v>
       </c>
@@ -49053,7 +49060,7 @@
       <c r="AX65" s="106"/>
       <c r="AY65" s="106"/>
     </row>
-    <row r="66" spans="1:51" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:51" ht="36" x14ac:dyDescent="0.3">
       <c r="A66" s="26" t="s">
         <v>533</v>
       </c>
@@ -49119,7 +49126,7 @@
       <c r="AX66" s="106"/>
       <c r="AY66" s="106"/>
     </row>
-    <row r="67" spans="1:51" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:51" ht="36" x14ac:dyDescent="0.3">
       <c r="A67" s="26" t="s">
         <v>534</v>
       </c>
@@ -49185,7 +49192,7 @@
       <c r="AX67" s="106"/>
       <c r="AY67" s="106"/>
     </row>
-    <row r="68" spans="1:51" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:51" ht="36" x14ac:dyDescent="0.3">
       <c r="A68" s="26" t="s">
         <v>535</v>
       </c>
@@ -49249,7 +49256,7 @@
       <c r="AX68" s="106"/>
       <c r="AY68" s="106"/>
     </row>
-    <row r="69" spans="1:51" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:51" ht="36" x14ac:dyDescent="0.3">
       <c r="A69" s="26" t="s">
         <v>536</v>
       </c>
@@ -49313,7 +49320,7 @@
       <c r="AX69" s="106"/>
       <c r="AY69" s="106"/>
     </row>
-    <row r="70" spans="1:51" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:51" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="26" t="s">
         <v>537</v>
       </c>
@@ -49379,7 +49386,7 @@
       <c r="AX70" s="106"/>
       <c r="AY70" s="106"/>
     </row>
-    <row r="71" spans="1:51" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:51" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="110"/>
       <c r="B71" s="108" t="s">
         <v>318</v>
@@ -49440,7 +49447,7 @@
       <c r="AX71" s="106"/>
       <c r="AY71" s="106"/>
     </row>
-    <row r="72" spans="1:51" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:51" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="110"/>
       <c r="B72" s="108"/>
       <c r="C72" s="106"/>
@@ -49493,7 +49500,7 @@
       <c r="AX72" s="106"/>
       <c r="AY72" s="106"/>
     </row>
-    <row r="73" spans="1:51" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:51" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="110"/>
       <c r="B73" s="113"/>
       <c r="C73" s="106"/>
@@ -49546,16 +49553,16 @@
       <c r="AX73" s="106"/>
       <c r="AY73" s="106"/>
     </row>
-    <row r="74" spans="1:51" s="33" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="142"/>
-      <c r="B74" s="145" t="s">
+    <row r="74" spans="1:51" s="33" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="143"/>
+      <c r="B74" s="146" t="s">
         <v>179</v>
       </c>
       <c r="C74" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="D74" s="148"/>
-      <c r="E74" s="149"/>
+      <c r="D74" s="149"/>
+      <c r="E74" s="150"/>
       <c r="F74" s="32"/>
       <c r="G74" s="32"/>
       <c r="H74" s="32"/>
@@ -49603,17 +49610,17 @@
       <c r="AX74" s="32"/>
       <c r="AY74" s="32"/>
     </row>
-    <row r="75" spans="1:51" s="33" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="143"/>
-      <c r="B75" s="146"/>
+    <row r="75" spans="1:51" s="33" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="144"/>
+      <c r="B75" s="147"/>
       <c r="C75" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D75" s="148">
+      <c r="D75" s="149">
         <f>D37</f>
         <v>47480.2</v>
       </c>
-      <c r="E75" s="149"/>
+      <c r="E75" s="150"/>
       <c r="F75" s="32"/>
       <c r="G75" s="32"/>
       <c r="H75" s="32"/>
@@ -49661,17 +49668,17 @@
       <c r="AX75" s="32"/>
       <c r="AY75" s="32"/>
     </row>
-    <row r="76" spans="1:51" s="33" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="144"/>
-      <c r="B76" s="147"/>
+    <row r="76" spans="1:51" s="33" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="145"/>
+      <c r="B76" s="148"/>
       <c r="C76" s="32" t="s">
         <v>209</v>
       </c>
-      <c r="D76" s="150">
+      <c r="D76" s="151">
         <f>E37+E71</f>
         <v>134703412.44932607</v>
       </c>
-      <c r="E76" s="151"/>
+      <c r="E76" s="152"/>
       <c r="F76" s="32">
         <f>SUM(F4:F71)</f>
         <v>29034627.307520695</v>
@@ -49857,39 +49864,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="34" t="s">
         <v>181</v>
       </c>
-      <c r="B78" s="136" t="s">
+      <c r="B78" s="153" t="s">
         <v>182</v>
       </c>
-      <c r="C78" s="136"/>
-      <c r="D78" s="136"/>
+      <c r="C78" s="153"/>
+      <c r="D78" s="153"/>
       <c r="E78" s="105"/>
     </row>
-    <row r="79" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="34" t="s">
         <v>183</v>
       </c>
-      <c r="B79" s="136" t="s">
+      <c r="B79" s="153" t="s">
         <v>184</v>
       </c>
-      <c r="C79" s="136"/>
-      <c r="D79" s="136"/>
+      <c r="C79" s="153"/>
+      <c r="D79" s="153"/>
       <c r="E79" s="105"/>
       <c r="G79" s="36"/>
       <c r="H79" s="36"/>
       <c r="I79" s="36"/>
     </row>
-    <row r="84" spans="2:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:5" ht="25.2" x14ac:dyDescent="0.3">
       <c r="B84" s="23"/>
       <c r="C84" s="23"/>
       <c r="D84" s="23"/>
       <c r="E84" s="23"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AY76">
+  <autoFilter ref="A1:AY76" xr:uid="{00000000-0009-0000-0000-000007000000}">
     <filterColumn colId="5" showButton="0"/>
     <filterColumn colId="7" showButton="0"/>
     <filterColumn colId="9" showButton="0"/>
@@ -49915,20 +49922,11 @@
     <filterColumn colId="49" showButton="0"/>
   </autoFilter>
   <mergeCells count="35">
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="AR1:AS1"/>
-    <mergeCell ref="AT1:AU1"/>
-    <mergeCell ref="AV1:AW1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="AX1:AY1"/>
     <mergeCell ref="A74:A76"/>
     <mergeCell ref="B74:B76"/>
@@ -49945,11 +49943,20 @@
     <mergeCell ref="V1:W1"/>
     <mergeCell ref="X1:Y1"/>
     <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="AR1:AS1"/>
+    <mergeCell ref="AT1:AU1"/>
+    <mergeCell ref="AV1:AW1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="F1:G1"/>
   </mergeCells>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" scale="52" fitToHeight="0" orientation="portrait" r:id="rId1"/>
